--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\201058\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="＿" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">other!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -195,65 +195,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※　16件調査中</t>
-    <rPh sb="4" eb="5">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※ 患者発生総数【速報含む】は、調査中も含みます。</t>
     <rPh sb="16" eb="19">
       <t>チョウサチュウ</t>
     </rPh>
     <rPh sb="20" eb="21">
       <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ 調査済患者総数は、市発表と他自体発表の市内在住者の合計です。</t>
-    <rPh sb="2" eb="4">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンジャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウスウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シナイ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -282,6 +229,50 @@
     </rPh>
     <rPh sb="23" eb="26">
       <t>ザイジュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※患者発生総数【速報含む】以外は、市発表と他自体発表の市内在住者の合計です。</t>
+    <rPh sb="13" eb="15">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シナイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ザイジュウシャ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　31件調査中</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -329,12 +320,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -351,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,9 +379,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -409,80 +403,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -791,150 +779,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="20.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="20.125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>43930</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>90</v>
       </c>
-      <c r="C2" s="18">
-        <v>76</v>
-      </c>
-      <c r="D2" s="18">
-        <v>49</v>
-      </c>
-      <c r="E2" s="18">
-        <v>44</v>
-      </c>
-      <c r="F2" s="18">
+      <c r="C2" s="17">
+        <v>84</v>
+      </c>
+      <c r="D2" s="17">
+        <v>56</v>
+      </c>
+      <c r="E2" s="17">
+        <v>51</v>
+      </c>
+      <c r="F2" s="17">
         <v>5</v>
       </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="34">
+      <c r="A3" s="25">
         <v>43931</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>90</v>
       </c>
-      <c r="C3" s="35">
-        <v>76</v>
-      </c>
-      <c r="D3" s="35">
-        <v>49</v>
-      </c>
-      <c r="E3" s="35">
-        <v>44</v>
-      </c>
-      <c r="F3" s="35">
+      <c r="C3" s="26">
+        <v>85</v>
+      </c>
+      <c r="D3" s="26">
+        <v>58</v>
+      </c>
+      <c r="E3" s="26">
+        <v>53</v>
+      </c>
+      <c r="F3" s="26">
         <v>5</v>
       </c>
-      <c r="G3" s="35">
-        <v>0</v>
-      </c>
-      <c r="H3" s="35">
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="25">
+        <v>43932</v>
+      </c>
+      <c r="B4" s="24">
+        <v>113</v>
+      </c>
+      <c r="C4" s="26">
+        <v>85</v>
+      </c>
+      <c r="D4" s="26">
+        <v>57</v>
+      </c>
+      <c r="E4" s="26">
+        <v>53</v>
+      </c>
+      <c r="F4" s="26">
+        <v>4</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -948,13 +933,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2105,10 +2090,10 @@
       <c r="F41" s="4">
         <v>15</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <v>13</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="14">
         <v>2</v>
       </c>
       <c r="I41" s="4">
@@ -2137,10 +2122,10 @@
       <c r="F42" s="4">
         <v>12</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="14">
         <v>10</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="14">
         <v>2</v>
       </c>
       <c r="I42" s="4">
@@ -2169,10 +2154,10 @@
       <c r="F43" s="4">
         <v>9</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="14">
         <v>7</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="14">
         <v>2</v>
       </c>
       <c r="I43" s="4">
@@ -2201,10 +2186,10 @@
       <c r="F44" s="4">
         <v>11</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>10</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="14">
         <v>1</v>
       </c>
       <c r="I44" s="4">
@@ -2233,10 +2218,10 @@
       <c r="F45" s="8">
         <v>11</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <v>10</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="14">
         <v>1</v>
       </c>
       <c r="I45" s="4">
@@ -2265,10 +2250,10 @@
       <c r="F46" s="6">
         <v>13</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <v>12</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="14">
         <v>1</v>
       </c>
       <c r="I46" s="6">
@@ -2297,10 +2282,10 @@
       <c r="F47" s="6">
         <v>13</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="14">
         <v>12</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="14">
         <v>1</v>
       </c>
       <c r="I47" s="6">
@@ -2329,10 +2314,10 @@
       <c r="F48" s="6">
         <v>13</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <v>11</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <v>2</v>
       </c>
       <c r="I48" s="6">
@@ -2361,10 +2346,10 @@
       <c r="F49" s="6">
         <v>13</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="14">
         <v>11</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="14">
         <v>2</v>
       </c>
       <c r="I49" s="6">
@@ -2393,10 +2378,10 @@
       <c r="F50" s="6">
         <v>14</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="14">
         <v>12</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="14">
         <v>2</v>
       </c>
       <c r="I50" s="6">
@@ -2425,16 +2410,16 @@
       <c r="F51" s="6">
         <v>17</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="14">
         <v>15</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="14">
         <v>2</v>
       </c>
       <c r="I51" s="6">
         <v>0</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J51" s="21">
         <v>20</v>
       </c>
     </row>
@@ -2466,7 +2451,7 @@
       <c r="I52" s="6">
         <v>0</v>
       </c>
-      <c r="J52" s="28">
+      <c r="J52" s="20">
         <v>22</v>
       </c>
     </row>
@@ -2474,281 +2459,346 @@
       <c r="A53" s="3">
         <v>43926</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="27">
         <v>10</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="27">
         <v>517</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="27">
         <v>7</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="28">
         <v>51</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="28">
         <v>24</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="29">
         <v>21</v>
       </c>
-      <c r="H53" s="9">
-        <v>3</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0</v>
-      </c>
-      <c r="J53" s="28">
+      <c r="H53" s="29">
+        <v>3</v>
+      </c>
+      <c r="I53" s="28">
+        <v>0</v>
+      </c>
+      <c r="J53" s="30">
         <v>22</v>
       </c>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>43927</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="36">
         <v>25</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="36">
         <v>542</v>
       </c>
       <c r="D54" s="36">
         <v>5</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="37">
         <v>56</v>
       </c>
-      <c r="F54" s="44">
+      <c r="F54" s="31">
         <v>33</v>
       </c>
-      <c r="G54" s="33">
+      <c r="G54" s="31">
         <v>29</v>
       </c>
-      <c r="H54" s="44">
+      <c r="H54" s="31">
         <v>4</v>
       </c>
-      <c r="I54" s="33">
-        <v>0</v>
-      </c>
-      <c r="J54" s="33">
+      <c r="I54" s="31">
+        <v>0</v>
+      </c>
+      <c r="J54" s="31">
         <v>22</v>
       </c>
+      <c r="K54" s="30"/>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>43928</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="36">
         <v>40</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="36">
         <v>582</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="36">
         <v>12</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="37">
         <v>68</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="31">
         <v>36</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="31">
         <v>32</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="31">
         <v>4</v>
       </c>
-      <c r="I55" s="9">
-        <v>0</v>
-      </c>
-      <c r="J55" s="9">
+      <c r="I55" s="31">
+        <v>0</v>
+      </c>
+      <c r="J55" s="31">
         <v>22</v>
       </c>
+      <c r="K55" s="30"/>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>43929</v>
       </c>
-      <c r="B56" s="32">
+      <c r="B56" s="36">
         <v>43</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="36">
         <v>625</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="36">
         <v>10</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="37">
         <v>78</v>
       </c>
-      <c r="F56" s="9">
-        <v>43</v>
-      </c>
-      <c r="G56" s="9">
-        <v>39</v>
-      </c>
-      <c r="H56" s="9">
+      <c r="F56" s="37">
+        <v>45</v>
+      </c>
+      <c r="G56" s="31">
+        <v>41</v>
+      </c>
+      <c r="H56" s="31">
         <v>4</v>
       </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-      <c r="J56" s="9">
+      <c r="I56" s="31">
+        <v>0</v>
+      </c>
+      <c r="J56" s="31">
         <v>23</v>
       </c>
+      <c r="K56" s="30"/>
     </row>
     <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>43930</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="36">
         <v>63</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="36">
         <v>688</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="36">
         <v>12</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="37">
         <v>90</v>
       </c>
-      <c r="F57" s="9">
-        <v>43</v>
-      </c>
-      <c r="G57" s="9">
-        <v>39</v>
-      </c>
-      <c r="H57" s="9">
+      <c r="F57" s="37">
+        <v>50</v>
+      </c>
+      <c r="G57" s="31">
+        <v>46</v>
+      </c>
+      <c r="H57" s="31">
         <v>4</v>
       </c>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-      <c r="J57" s="9">
+      <c r="I57" s="31">
+        <v>0</v>
+      </c>
+      <c r="J57" s="31">
         <v>25</v>
       </c>
+      <c r="K57" s="30"/>
     </row>
     <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="17">
+      <c r="A58" s="16">
         <v>43931</v>
       </c>
-      <c r="B58" s="39">
+      <c r="B58" s="36">
         <v>30</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="36">
         <v>718</v>
       </c>
-      <c r="D58" s="39">
-        <v>0</v>
-      </c>
-      <c r="E58" s="38">
-        <v>90</v>
-      </c>
-      <c r="F58" s="9">
-        <v>43</v>
-      </c>
-      <c r="G58" s="9">
-        <v>39</v>
-      </c>
-      <c r="H58" s="9">
+      <c r="D58" s="36">
+        <v>9</v>
+      </c>
+      <c r="E58" s="37">
+        <v>99</v>
+      </c>
+      <c r="F58" s="31">
+        <v>51</v>
+      </c>
+      <c r="G58" s="31">
+        <v>47</v>
+      </c>
+      <c r="H58" s="31">
         <v>4</v>
       </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
-      <c r="J58" s="9">
+      <c r="I58" s="31">
+        <v>0</v>
+      </c>
+      <c r="J58" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
-      <c r="B60" s="9" t="s">
+      <c r="K58" s="30"/>
+    </row>
+    <row r="59" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="25">
+        <v>43932</v>
+      </c>
+      <c r="B59" s="36">
+        <v>20</v>
+      </c>
+      <c r="C59" s="36">
+        <v>738</v>
+      </c>
+      <c r="D59" s="36">
+        <v>14</v>
+      </c>
+      <c r="E59" s="37">
+        <v>113</v>
+      </c>
+      <c r="F59" s="31">
+        <v>50</v>
+      </c>
+      <c r="G59" s="31">
+        <v>47</v>
+      </c>
+      <c r="H59" s="31">
+        <v>3</v>
+      </c>
+      <c r="I59" s="31">
+        <v>0</v>
+      </c>
+      <c r="J59" s="31">
+        <v>26</v>
+      </c>
+      <c r="K59" s="30"/>
+    </row>
+    <row r="60" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="25"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="30"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+      <c r="B61" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B61" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="19"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D62" s="23"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="19"/>
+      <c r="B62" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="30"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D63" s="36"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C64" s="7"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C65" s="7"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C66" s="7"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C67" s="7"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="6"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2762,20 +2812,20 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="20.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="20.125" style="10" customWidth="1"/>
     <col min="7" max="8" width="20.125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -2790,10 +2840,10 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2816,8 +2866,8 @@
       <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="4">
         <v>0</v>
       </c>
@@ -2838,8 +2888,8 @@
       <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="4">
         <v>0</v>
       </c>
@@ -2860,8 +2910,8 @@
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="4">
         <v>0</v>
       </c>
@@ -2882,8 +2932,8 @@
       <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="4">
         <v>0</v>
       </c>
@@ -2904,8 +2954,8 @@
       <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="4">
         <v>0</v>
       </c>
@@ -2926,8 +2976,8 @@
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="4">
         <v>0</v>
       </c>
@@ -2948,8 +2998,8 @@
       <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="4">
         <v>0</v>
       </c>
@@ -2970,8 +3020,8 @@
       <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="4">
         <v>0</v>
       </c>
@@ -2992,8 +3042,8 @@
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="4">
         <v>0</v>
       </c>
@@ -3014,8 +3064,8 @@
       <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="4">
         <v>0</v>
       </c>
@@ -3036,8 +3086,8 @@
       <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="4">
         <v>0</v>
       </c>
@@ -3058,8 +3108,8 @@
       <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="4">
         <v>0</v>
       </c>
@@ -3080,8 +3130,8 @@
       <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="4">
         <v>0</v>
       </c>
@@ -3102,8 +3152,8 @@
       <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="4">
         <v>0</v>
       </c>
@@ -3115,25 +3165,25 @@
       <c r="A16" s="3">
         <v>43914</v>
       </c>
-      <c r="B16" s="26">
-        <v>0</v>
-      </c>
-      <c r="C16" s="26">
-        <v>3</v>
-      </c>
-      <c r="D16" s="26">
-        <v>3</v>
-      </c>
-      <c r="E16" s="27">
-        <v>2</v>
-      </c>
-      <c r="F16" s="27">
-        <v>1</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+      <c r="D16" s="18">
+        <v>3</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3141,25 +3191,25 @@
       <c r="A17" s="3">
         <v>43915</v>
       </c>
-      <c r="B17" s="26">
-        <v>0</v>
-      </c>
-      <c r="C17" s="26">
-        <v>3</v>
-      </c>
-      <c r="D17" s="26">
-        <v>3</v>
-      </c>
-      <c r="E17" s="27">
-        <v>2</v>
-      </c>
-      <c r="F17" s="27">
-        <v>1</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
+      <c r="B17" s="18">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>3</v>
+      </c>
+      <c r="D17" s="18">
+        <v>3</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3167,25 +3217,25 @@
       <c r="A18" s="3">
         <v>43916</v>
       </c>
-      <c r="B18" s="26">
-        <v>0</v>
-      </c>
-      <c r="C18" s="26">
-        <v>3</v>
-      </c>
-      <c r="D18" s="26">
-        <v>2</v>
-      </c>
-      <c r="E18" s="26">
-        <v>1</v>
-      </c>
-      <c r="F18" s="26">
-        <v>1</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
+      <c r="B18" s="18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3193,25 +3243,25 @@
       <c r="A19" s="3">
         <v>43917</v>
       </c>
-      <c r="B19" s="26">
-        <v>0</v>
-      </c>
-      <c r="C19" s="26">
-        <v>3</v>
-      </c>
-      <c r="D19" s="26">
-        <v>2</v>
-      </c>
-      <c r="E19" s="26">
-        <v>1</v>
-      </c>
-      <c r="F19" s="26">
-        <v>1</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26">
+      <c r="B19" s="18">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18">
+        <v>3</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3219,25 +3269,25 @@
       <c r="A20" s="3">
         <v>43918</v>
       </c>
-      <c r="B20" s="26">
-        <v>0</v>
-      </c>
-      <c r="C20" s="26">
-        <v>3</v>
-      </c>
-      <c r="D20" s="26">
-        <v>2</v>
-      </c>
-      <c r="E20" s="26">
-        <v>1</v>
-      </c>
-      <c r="F20" s="26">
-        <v>1</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
+      <c r="B20" s="18">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3245,25 +3295,25 @@
       <c r="A21" s="3">
         <v>43919</v>
       </c>
-      <c r="B21" s="26">
-        <v>0</v>
-      </c>
-      <c r="C21" s="26">
-        <v>3</v>
-      </c>
-      <c r="D21" s="26">
-        <v>2</v>
-      </c>
-      <c r="E21" s="26">
-        <v>1</v>
-      </c>
-      <c r="F21" s="26">
-        <v>1</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
+      <c r="B21" s="18">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18">
+        <v>3</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3271,25 +3321,25 @@
       <c r="A22" s="3">
         <v>43920</v>
       </c>
-      <c r="B22" s="27">
-        <v>1</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="B22" s="39">
+        <v>1</v>
+      </c>
+      <c r="C22" s="39">
         <v>4</v>
       </c>
-      <c r="D22" s="27">
-        <v>3</v>
-      </c>
-      <c r="E22" s="27">
-        <v>2</v>
-      </c>
-      <c r="F22" s="26">
-        <v>1</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
+      <c r="D22" s="39">
+        <v>3</v>
+      </c>
+      <c r="E22" s="39">
+        <v>2</v>
+      </c>
+      <c r="F22" s="39">
+        <v>1</v>
+      </c>
+      <c r="G22" s="39">
+        <v>0</v>
+      </c>
+      <c r="H22" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3297,25 +3347,25 @@
       <c r="A23" s="3">
         <v>43921</v>
       </c>
-      <c r="B23" s="27">
-        <v>2</v>
-      </c>
-      <c r="C23" s="27">
+      <c r="B23" s="39">
+        <v>2</v>
+      </c>
+      <c r="C23" s="39">
         <v>6</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="39">
         <v>5</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="39">
         <v>4</v>
       </c>
-      <c r="F23" s="26">
-        <v>1</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26">
+      <c r="F23" s="39">
+        <v>1</v>
+      </c>
+      <c r="G23" s="39">
+        <v>0</v>
+      </c>
+      <c r="H23" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3323,25 +3373,25 @@
       <c r="A24" s="3">
         <v>43922</v>
       </c>
-      <c r="B24" s="27">
-        <v>0</v>
-      </c>
-      <c r="C24" s="27">
+      <c r="B24" s="39">
+        <v>0</v>
+      </c>
+      <c r="C24" s="39">
         <v>6</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="39">
         <v>5</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="39">
         <v>4</v>
       </c>
-      <c r="F24" s="26">
-        <v>1</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
+      <c r="F24" s="39">
+        <v>1</v>
+      </c>
+      <c r="G24" s="39">
+        <v>0</v>
+      </c>
+      <c r="H24" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3349,25 +3399,25 @@
       <c r="A25" s="3">
         <v>43923</v>
       </c>
-      <c r="B25" s="27">
-        <v>0</v>
-      </c>
-      <c r="C25" s="27">
+      <c r="B25" s="39">
+        <v>0</v>
+      </c>
+      <c r="C25" s="39">
         <v>6</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="39">
         <v>5</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="39">
         <v>4</v>
       </c>
-      <c r="F25" s="26">
-        <v>1</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
+      <c r="F25" s="39">
+        <v>1</v>
+      </c>
+      <c r="G25" s="39">
+        <v>0</v>
+      </c>
+      <c r="H25" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3375,25 +3425,25 @@
       <c r="A26" s="3">
         <v>43924</v>
       </c>
-      <c r="B26" s="27">
-        <v>0</v>
-      </c>
-      <c r="C26" s="27">
+      <c r="B26" s="39">
+        <v>0</v>
+      </c>
+      <c r="C26" s="39">
         <v>6</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="39">
         <v>5</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="39">
         <v>4</v>
       </c>
-      <c r="F26" s="26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="26">
+      <c r="F26" s="39">
+        <v>1</v>
+      </c>
+      <c r="G26" s="39">
+        <v>0</v>
+      </c>
+      <c r="H26" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3401,25 +3451,25 @@
       <c r="A27" s="3">
         <v>43925</v>
       </c>
-      <c r="B27" s="25">
-        <v>0</v>
-      </c>
-      <c r="C27" s="27">
+      <c r="B27" s="41">
+        <v>0</v>
+      </c>
+      <c r="C27" s="39">
         <v>6</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="41">
         <v>5</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="41">
         <v>4</v>
       </c>
-      <c r="F27" s="25">
-        <v>1</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="25">
+      <c r="F27" s="41">
+        <v>1</v>
+      </c>
+      <c r="G27" s="41">
+        <v>0</v>
+      </c>
+      <c r="H27" s="41">
         <v>1</v>
       </c>
     </row>
@@ -3427,25 +3477,25 @@
       <c r="A28" s="3">
         <v>43926</v>
       </c>
-      <c r="B28" s="27">
-        <v>0</v>
-      </c>
-      <c r="C28" s="27">
+      <c r="B28" s="39">
+        <v>0</v>
+      </c>
+      <c r="C28" s="39">
         <v>6</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="39">
         <v>5</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="39">
         <v>4</v>
       </c>
-      <c r="F28" s="26">
-        <v>1</v>
-      </c>
-      <c r="G28" s="26">
-        <v>0</v>
-      </c>
-      <c r="H28" s="26">
+      <c r="F28" s="39">
+        <v>1</v>
+      </c>
+      <c r="G28" s="39">
+        <v>0</v>
+      </c>
+      <c r="H28" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3453,25 +3503,25 @@
       <c r="A29" s="3">
         <v>43927</v>
       </c>
-      <c r="B29" s="27">
-        <v>0</v>
-      </c>
-      <c r="C29" s="27">
+      <c r="B29" s="39">
+        <v>0</v>
+      </c>
+      <c r="C29" s="39">
         <v>6</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="39">
         <v>5</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="39">
         <v>4</v>
       </c>
-      <c r="F29" s="26">
-        <v>1</v>
-      </c>
-      <c r="G29" s="26">
-        <v>0</v>
-      </c>
-      <c r="H29" s="26">
+      <c r="F29" s="39">
+        <v>1</v>
+      </c>
+      <c r="G29" s="39">
+        <v>0</v>
+      </c>
+      <c r="H29" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3479,25 +3529,25 @@
       <c r="A30" s="3">
         <v>43928</v>
       </c>
-      <c r="B30" s="27">
-        <v>0</v>
-      </c>
-      <c r="C30" s="27">
+      <c r="B30" s="39">
+        <v>0</v>
+      </c>
+      <c r="C30" s="39">
         <v>6</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="39">
         <v>5</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="39">
         <v>4</v>
       </c>
-      <c r="F30" s="26">
-        <v>1</v>
-      </c>
-      <c r="G30" s="26">
-        <v>0</v>
-      </c>
-      <c r="H30" s="26">
+      <c r="F30" s="39">
+        <v>1</v>
+      </c>
+      <c r="G30" s="39">
+        <v>0</v>
+      </c>
+      <c r="H30" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3505,82 +3555,114 @@
       <c r="A31" s="3">
         <v>43929</v>
       </c>
-      <c r="B31" s="27">
-        <v>2</v>
-      </c>
-      <c r="C31" s="27">
+      <c r="B31" s="39">
+        <v>2</v>
+      </c>
+      <c r="C31" s="39">
         <v>8</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="39">
         <v>7</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="39">
         <v>6</v>
       </c>
-      <c r="F31" s="26">
-        <v>1</v>
-      </c>
-      <c r="G31" s="26">
-        <v>0</v>
-      </c>
-      <c r="H31" s="26">
+      <c r="F31" s="39">
+        <v>1</v>
+      </c>
+      <c r="G31" s="39">
+        <v>0</v>
+      </c>
+      <c r="H31" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="A32" s="25">
         <v>43930</v>
       </c>
-      <c r="B32" s="27">
-        <v>0</v>
-      </c>
-      <c r="C32" s="27">
+      <c r="B32" s="39">
+        <v>0</v>
+      </c>
+      <c r="C32" s="39">
         <v>8</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="39">
         <v>6</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="41">
         <v>5</v>
       </c>
-      <c r="F32" s="26">
-        <v>1</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0</v>
-      </c>
-      <c r="H32" s="26">
+      <c r="F32" s="41">
+        <v>1</v>
+      </c>
+      <c r="G32" s="39">
+        <v>0</v>
+      </c>
+      <c r="H32" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="17">
+      <c r="A33" s="40">
         <v>43931</v>
       </c>
-      <c r="B33" s="38">
-        <v>0</v>
-      </c>
-      <c r="C33" s="38">
-        <v>8</v>
-      </c>
-      <c r="D33" s="38">
+      <c r="B33" s="39">
+        <v>1</v>
+      </c>
+      <c r="C33" s="39">
+        <v>9</v>
+      </c>
+      <c r="D33" s="39">
+        <v>7</v>
+      </c>
+      <c r="E33" s="41">
         <v>6</v>
       </c>
-      <c r="E33" s="38">
-        <v>5</v>
-      </c>
-      <c r="F33" s="35">
-        <v>1</v>
-      </c>
-      <c r="G33" s="35">
-        <v>0</v>
-      </c>
-      <c r="H33" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
+      <c r="F33" s="41">
+        <v>1</v>
+      </c>
+      <c r="G33" s="39">
+        <v>0</v>
+      </c>
+      <c r="H33" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="40">
+        <v>43932</v>
+      </c>
+      <c r="B34" s="39">
+        <v>0</v>
+      </c>
+      <c r="C34" s="39">
+        <v>9</v>
+      </c>
+      <c r="D34" s="39">
+        <v>7</v>
+      </c>
+      <c r="E34" s="41">
+        <v>6</v>
+      </c>
+      <c r="F34" s="41">
+        <v>1</v>
+      </c>
+      <c r="G34" s="39">
+        <v>0</v>
+      </c>
+      <c r="H34" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="40"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\201058\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="＿" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">other!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -36,10 +36,6 @@
     <rPh sb="5" eb="7">
       <t>ルイケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入院中</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -264,7 +260,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※　31件調査中</t>
+    <t>入院・入居中</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウイン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニュウキョチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院・入居中</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　33件調査中</t>
     <rPh sb="4" eb="5">
       <t>ケン</t>
     </rPh>
@@ -320,18 +333,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -348,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,9 +416,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -430,39 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -474,6 +445,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -795,26 +784,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -844,81 +833,107 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>43931</v>
       </c>
       <c r="B3" s="10">
         <v>90</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>85</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>58</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>53</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>5</v>
       </c>
-      <c r="G3" s="26">
-        <v>0</v>
-      </c>
-      <c r="H3" s="26">
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>43932</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>113</v>
       </c>
-      <c r="C4" s="26">
-        <v>85</v>
-      </c>
-      <c r="D4" s="26">
-        <v>57</v>
-      </c>
-      <c r="E4" s="26">
-        <v>53</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="C4" s="9">
+        <v>86</v>
+      </c>
+      <c r="D4" s="19">
+        <v>58</v>
+      </c>
+      <c r="E4" s="19">
+        <v>54</v>
+      </c>
+      <c r="F4" s="19">
         <v>4</v>
       </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="A5" s="24">
+        <v>43933</v>
+      </c>
+      <c r="B5" s="23">
+        <v>121</v>
+      </c>
+      <c r="C5" s="9">
+        <v>91</v>
+      </c>
+      <c r="D5" s="19">
+        <v>63</v>
+      </c>
+      <c r="E5" s="19">
+        <v>59</v>
+      </c>
+      <c r="F5" s="19">
+        <v>4</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="10" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -933,13 +948,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -951,31 +966,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -2327,7 +2342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>43922</v>
       </c>
@@ -2359,7 +2374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>43923</v>
       </c>
@@ -2391,7 +2406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>43924</v>
       </c>
@@ -2419,27 +2434,27 @@
       <c r="I51" s="6">
         <v>0</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>43925</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="13">
         <v>24</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="13">
         <v>507</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="13">
         <v>5</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="25">
         <v>44</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="25">
         <v>19</v>
       </c>
       <c r="G52" s="9">
@@ -2448,357 +2463,338 @@
       <c r="H52" s="9">
         <v>2</v>
       </c>
-      <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="20">
+      <c r="I52" s="25">
+        <v>0</v>
+      </c>
+      <c r="J52" s="23">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>43926</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="13">
         <v>10</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="13">
         <v>517</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="13">
         <v>7</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="25">
         <v>51</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="25">
         <v>24</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G53" s="9">
         <v>21</v>
       </c>
-      <c r="H53" s="29">
-        <v>3</v>
-      </c>
-      <c r="I53" s="28">
-        <v>0</v>
-      </c>
-      <c r="J53" s="30">
+      <c r="H53" s="9">
+        <v>3</v>
+      </c>
+      <c r="I53" s="25">
+        <v>0</v>
+      </c>
+      <c r="J53" s="23">
         <v>22</v>
       </c>
-      <c r="K53" s="30"/>
-    </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+    </row>
+    <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>43927</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="30">
         <v>25</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="30">
         <v>542</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="30">
         <v>5</v>
       </c>
-      <c r="E54" s="37">
+      <c r="E54" s="27">
         <v>56</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="29">
         <v>33</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="29">
         <v>29</v>
       </c>
-      <c r="H54" s="31">
+      <c r="H54" s="29">
         <v>4</v>
       </c>
-      <c r="I54" s="31">
-        <v>0</v>
-      </c>
-      <c r="J54" s="31">
+      <c r="I54" s="29">
+        <v>0</v>
+      </c>
+      <c r="J54" s="29">
         <v>22</v>
       </c>
-      <c r="K54" s="30"/>
-    </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+    </row>
+    <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>43928</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="30">
         <v>40</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="30">
         <v>582</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="30">
         <v>12</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E55" s="27">
         <v>68</v>
       </c>
-      <c r="F55" s="31">
+      <c r="F55" s="29">
         <v>36</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="29">
         <v>32</v>
       </c>
-      <c r="H55" s="31">
+      <c r="H55" s="29">
         <v>4</v>
       </c>
-      <c r="I55" s="31">
-        <v>0</v>
-      </c>
-      <c r="J55" s="31">
+      <c r="I55" s="29">
+        <v>0</v>
+      </c>
+      <c r="J55" s="29">
         <v>22</v>
       </c>
-      <c r="K55" s="30"/>
-    </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+    </row>
+    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>43929</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="30">
         <v>43</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="30">
         <v>625</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="30">
         <v>10</v>
       </c>
-      <c r="E56" s="37">
+      <c r="E56" s="27">
         <v>78</v>
       </c>
-      <c r="F56" s="37">
-        <v>45</v>
-      </c>
-      <c r="G56" s="31">
-        <v>41</v>
-      </c>
-      <c r="H56" s="31">
+      <c r="F56" s="19">
+        <v>46</v>
+      </c>
+      <c r="G56" s="9">
+        <v>42</v>
+      </c>
+      <c r="H56" s="29">
         <v>4</v>
       </c>
-      <c r="I56" s="31">
-        <v>0</v>
-      </c>
-      <c r="J56" s="31">
+      <c r="I56" s="29">
+        <v>0</v>
+      </c>
+      <c r="J56" s="29">
         <v>23</v>
       </c>
-      <c r="K56" s="30"/>
-    </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+    </row>
+    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>43930</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="30">
         <v>63</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="30">
         <v>688</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="30">
         <v>12</v>
       </c>
-      <c r="E57" s="37">
+      <c r="E57" s="27">
         <v>90</v>
       </c>
-      <c r="F57" s="37">
-        <v>50</v>
-      </c>
-      <c r="G57" s="31">
-        <v>46</v>
-      </c>
-      <c r="H57" s="31">
+      <c r="F57" s="19">
+        <v>51</v>
+      </c>
+      <c r="G57" s="9">
+        <v>47</v>
+      </c>
+      <c r="H57" s="29">
         <v>4</v>
       </c>
-      <c r="I57" s="31">
-        <v>0</v>
-      </c>
-      <c r="J57" s="31">
+      <c r="I57" s="29">
+        <v>0</v>
+      </c>
+      <c r="J57" s="29">
         <v>25</v>
       </c>
-      <c r="K57" s="30"/>
-    </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+    </row>
+    <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="16">
         <v>43931</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="30">
         <v>30</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="30">
         <v>718</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="30">
         <v>9</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="27">
         <v>99</v>
       </c>
-      <c r="F58" s="31">
-        <v>51</v>
-      </c>
-      <c r="G58" s="31">
-        <v>47</v>
-      </c>
-      <c r="H58" s="31">
+      <c r="F58" s="9">
+        <v>56</v>
+      </c>
+      <c r="G58" s="9">
+        <v>52</v>
+      </c>
+      <c r="H58" s="29">
         <v>4</v>
       </c>
-      <c r="I58" s="31">
-        <v>0</v>
-      </c>
-      <c r="J58" s="31">
+      <c r="I58" s="29">
+        <v>0</v>
+      </c>
+      <c r="J58" s="29">
         <v>25</v>
       </c>
-      <c r="K58" s="30"/>
-    </row>
-    <row r="59" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="25">
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+    </row>
+    <row r="59" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="34">
         <v>43932</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="35">
+        <v>25</v>
+      </c>
+      <c r="C59" s="35">
+        <v>743</v>
+      </c>
+      <c r="D59" s="35">
         <v>20</v>
       </c>
-      <c r="C59" s="36">
-        <v>738</v>
-      </c>
-      <c r="D59" s="36">
-        <v>14</v>
-      </c>
-      <c r="E59" s="37">
-        <v>113</v>
-      </c>
-      <c r="F59" s="31">
-        <v>50</v>
-      </c>
-      <c r="G59" s="31">
-        <v>47</v>
-      </c>
-      <c r="H59" s="31">
-        <v>3</v>
-      </c>
-      <c r="I59" s="31">
-        <v>0</v>
-      </c>
-      <c r="J59" s="31">
+      <c r="E59" s="19">
+        <v>119</v>
+      </c>
+      <c r="F59" s="9">
+        <v>56</v>
+      </c>
+      <c r="G59" s="9">
+        <v>53</v>
+      </c>
+      <c r="H59" s="9">
+        <v>3</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+      <c r="J59" s="9">
         <v>26</v>
       </c>
-      <c r="K59" s="30"/>
-    </row>
-    <row r="60" spans="1:11" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="25"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="30"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="3"/>
-      <c r="B61" s="29" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="60" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="34">
+        <v>43933</v>
+      </c>
+      <c r="B60" s="35">
+        <v>12</v>
+      </c>
+      <c r="C60" s="35">
+        <v>755</v>
+      </c>
+      <c r="D60" s="35">
+        <v>2</v>
+      </c>
+      <c r="E60" s="19">
+        <v>121</v>
+      </c>
+      <c r="F60" s="9">
+        <v>56</v>
+      </c>
+      <c r="G60" s="9">
+        <v>53</v>
+      </c>
+      <c r="H60" s="9">
+        <v>3</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0</v>
+      </c>
+      <c r="J60" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="24"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B62" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="3"/>
+      <c r="B62" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B63" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2812,13 +2808,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2832,25 +2828,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
+      <c r="D1" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3321,25 +3317,25 @@
       <c r="A22" s="3">
         <v>43920</v>
       </c>
-      <c r="B22" s="39">
-        <v>1</v>
-      </c>
-      <c r="C22" s="39">
+      <c r="B22" s="27">
+        <v>1</v>
+      </c>
+      <c r="C22" s="27">
         <v>4</v>
       </c>
-      <c r="D22" s="39">
-        <v>3</v>
-      </c>
-      <c r="E22" s="39">
-        <v>2</v>
-      </c>
-      <c r="F22" s="39">
-        <v>1</v>
-      </c>
-      <c r="G22" s="39">
-        <v>0</v>
-      </c>
-      <c r="H22" s="39">
+      <c r="D22" s="27">
+        <v>3</v>
+      </c>
+      <c r="E22" s="27">
+        <v>2</v>
+      </c>
+      <c r="F22" s="27">
+        <v>1</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
+      <c r="H22" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3347,25 +3343,25 @@
       <c r="A23" s="3">
         <v>43921</v>
       </c>
-      <c r="B23" s="39">
-        <v>2</v>
-      </c>
-      <c r="C23" s="39">
+      <c r="B23" s="27">
+        <v>2</v>
+      </c>
+      <c r="C23" s="27">
         <v>6</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="27">
         <v>5</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="27">
         <v>4</v>
       </c>
-      <c r="F23" s="39">
-        <v>1</v>
-      </c>
-      <c r="G23" s="39">
-        <v>0</v>
-      </c>
-      <c r="H23" s="39">
+      <c r="F23" s="27">
+        <v>1</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3373,25 +3369,25 @@
       <c r="A24" s="3">
         <v>43922</v>
       </c>
-      <c r="B24" s="39">
-        <v>0</v>
-      </c>
-      <c r="C24" s="39">
+      <c r="B24" s="27">
+        <v>0</v>
+      </c>
+      <c r="C24" s="27">
         <v>6</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="27">
         <v>5</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="27">
         <v>4</v>
       </c>
-      <c r="F24" s="39">
-        <v>1</v>
-      </c>
-      <c r="G24" s="39">
-        <v>0</v>
-      </c>
-      <c r="H24" s="39">
+      <c r="F24" s="27">
+        <v>1</v>
+      </c>
+      <c r="G24" s="27">
+        <v>0</v>
+      </c>
+      <c r="H24" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3399,25 +3395,25 @@
       <c r="A25" s="3">
         <v>43923</v>
       </c>
-      <c r="B25" s="39">
-        <v>0</v>
-      </c>
-      <c r="C25" s="39">
+      <c r="B25" s="27">
+        <v>0</v>
+      </c>
+      <c r="C25" s="27">
         <v>6</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="27">
         <v>5</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="27">
         <v>4</v>
       </c>
-      <c r="F25" s="39">
-        <v>1</v>
-      </c>
-      <c r="G25" s="39">
-        <v>0</v>
-      </c>
-      <c r="H25" s="39">
+      <c r="F25" s="27">
+        <v>1</v>
+      </c>
+      <c r="G25" s="27">
+        <v>0</v>
+      </c>
+      <c r="H25" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3425,25 +3421,25 @@
       <c r="A26" s="3">
         <v>43924</v>
       </c>
-      <c r="B26" s="39">
-        <v>0</v>
-      </c>
-      <c r="C26" s="39">
+      <c r="B26" s="27">
+        <v>0</v>
+      </c>
+      <c r="C26" s="27">
         <v>6</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="27">
         <v>5</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="27">
         <v>4</v>
       </c>
-      <c r="F26" s="39">
-        <v>1</v>
-      </c>
-      <c r="G26" s="39">
-        <v>0</v>
-      </c>
-      <c r="H26" s="39">
+      <c r="F26" s="27">
+        <v>1</v>
+      </c>
+      <c r="G26" s="27">
+        <v>0</v>
+      </c>
+      <c r="H26" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3451,25 +3447,25 @@
       <c r="A27" s="3">
         <v>43925</v>
       </c>
-      <c r="B27" s="41">
-        <v>0</v>
-      </c>
-      <c r="C27" s="39">
+      <c r="B27" s="29">
+        <v>0</v>
+      </c>
+      <c r="C27" s="27">
         <v>6</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="29">
         <v>5</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="29">
         <v>4</v>
       </c>
-      <c r="F27" s="41">
-        <v>1</v>
-      </c>
-      <c r="G27" s="41">
-        <v>0</v>
-      </c>
-      <c r="H27" s="41">
+      <c r="F27" s="29">
+        <v>1</v>
+      </c>
+      <c r="G27" s="29">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3477,25 +3473,25 @@
       <c r="A28" s="3">
         <v>43926</v>
       </c>
-      <c r="B28" s="39">
-        <v>0</v>
-      </c>
-      <c r="C28" s="39">
+      <c r="B28" s="27">
+        <v>0</v>
+      </c>
+      <c r="C28" s="27">
         <v>6</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="27">
         <v>5</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="27">
         <v>4</v>
       </c>
-      <c r="F28" s="39">
-        <v>1</v>
-      </c>
-      <c r="G28" s="39">
-        <v>0</v>
-      </c>
-      <c r="H28" s="39">
+      <c r="F28" s="27">
+        <v>1</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0</v>
+      </c>
+      <c r="H28" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3503,25 +3499,25 @@
       <c r="A29" s="3">
         <v>43927</v>
       </c>
-      <c r="B29" s="39">
-        <v>0</v>
-      </c>
-      <c r="C29" s="39">
+      <c r="B29" s="27">
+        <v>0</v>
+      </c>
+      <c r="C29" s="27">
         <v>6</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="27">
         <v>5</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="27">
         <v>4</v>
       </c>
-      <c r="F29" s="39">
-        <v>1</v>
-      </c>
-      <c r="G29" s="39">
-        <v>0</v>
-      </c>
-      <c r="H29" s="39">
+      <c r="F29" s="27">
+        <v>1</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3529,25 +3525,25 @@
       <c r="A30" s="3">
         <v>43928</v>
       </c>
-      <c r="B30" s="39">
-        <v>0</v>
-      </c>
-      <c r="C30" s="39">
+      <c r="B30" s="27">
+        <v>0</v>
+      </c>
+      <c r="C30" s="27">
         <v>6</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="27">
         <v>5</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="27">
         <v>4</v>
       </c>
-      <c r="F30" s="39">
-        <v>1</v>
-      </c>
-      <c r="G30" s="39">
-        <v>0</v>
-      </c>
-      <c r="H30" s="39">
+      <c r="F30" s="27">
+        <v>1</v>
+      </c>
+      <c r="G30" s="27">
+        <v>0</v>
+      </c>
+      <c r="H30" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3555,115 +3551,141 @@
       <c r="A31" s="3">
         <v>43929</v>
       </c>
-      <c r="B31" s="39">
-        <v>2</v>
-      </c>
-      <c r="C31" s="39">
+      <c r="B31" s="27">
+        <v>2</v>
+      </c>
+      <c r="C31" s="27">
         <v>8</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="27">
         <v>7</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="27">
         <v>6</v>
       </c>
-      <c r="F31" s="39">
-        <v>1</v>
-      </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39">
+      <c r="F31" s="27">
+        <v>1</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0</v>
+      </c>
+      <c r="H31" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="25">
+      <c r="A32" s="24">
         <v>43930</v>
       </c>
-      <c r="B32" s="39">
-        <v>0</v>
-      </c>
-      <c r="C32" s="39">
+      <c r="B32" s="27">
+        <v>0</v>
+      </c>
+      <c r="C32" s="27">
         <v>8</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="27">
         <v>6</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="29">
         <v>5</v>
       </c>
-      <c r="F32" s="41">
-        <v>1</v>
-      </c>
-      <c r="G32" s="39">
-        <v>0</v>
-      </c>
-      <c r="H32" s="39">
+      <c r="F32" s="29">
+        <v>1</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0</v>
+      </c>
+      <c r="H32" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="40">
+      <c r="A33" s="28">
         <v>43931</v>
       </c>
-      <c r="B33" s="39">
-        <v>1</v>
-      </c>
-      <c r="C33" s="39">
+      <c r="B33" s="27">
+        <v>1</v>
+      </c>
+      <c r="C33" s="27">
         <v>9</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="27">
         <v>7</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="29">
         <v>6</v>
       </c>
-      <c r="F33" s="41">
-        <v>1</v>
-      </c>
-      <c r="G33" s="39">
-        <v>0</v>
-      </c>
-      <c r="H33" s="39">
+      <c r="F33" s="29">
+        <v>1</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0</v>
+      </c>
+      <c r="H33" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="40">
+      <c r="A34" s="28">
         <v>43932</v>
       </c>
-      <c r="B34" s="39">
-        <v>0</v>
-      </c>
-      <c r="C34" s="39">
+      <c r="B34" s="19">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19">
         <v>9</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="19">
         <v>7</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="9">
         <v>6</v>
       </c>
-      <c r="F34" s="41">
-        <v>1</v>
-      </c>
-      <c r="G34" s="39">
-        <v>0</v>
-      </c>
-      <c r="H34" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="40"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0</v>
+      </c>
+      <c r="H34" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="24">
+        <v>43933</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19">
+        <v>9</v>
+      </c>
+      <c r="D35" s="19">
         <v>7</v>
+      </c>
+      <c r="E35" s="9">
+        <v>6</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="28"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="＿" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">other!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -770,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -948,13 +948,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2625,7 +2625,7 @@
         <v>90</v>
       </c>
       <c r="F57" s="19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G57" s="9">
         <v>47</v>
@@ -2659,7 +2659,7 @@
         <v>99</v>
       </c>
       <c r="F58" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G58" s="9">
         <v>52</v>
@@ -2687,16 +2687,16 @@
         <v>743</v>
       </c>
       <c r="D59" s="35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E59" s="19">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F59" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G59" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H59" s="9">
         <v>3</v>
@@ -2713,16 +2713,16 @@
         <v>43933</v>
       </c>
       <c r="B60" s="35">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C60" s="35">
-        <v>755</v>
+        <v>790</v>
       </c>
       <c r="D60" s="35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E60" s="19">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F60" s="9">
         <v>56</v>
@@ -2734,57 +2734,76 @@
         <v>3</v>
       </c>
       <c r="I60" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="9">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="24"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="9" t="s">
+      <c r="A61" s="34">
+        <v>43934</v>
+      </c>
+      <c r="B61" s="35">
+        <v>20</v>
+      </c>
+      <c r="C61" s="35">
+        <v>810</v>
+      </c>
+      <c r="D61" s="35">
+        <v>1</v>
+      </c>
+      <c r="E61" s="19">
+        <v>128</v>
+      </c>
+      <c r="F61" s="9">
+        <v>56</v>
+      </c>
+      <c r="G61" s="9">
+        <v>53</v>
+      </c>
+      <c r="H61" s="9">
+        <v>3</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1</v>
+      </c>
+      <c r="J61" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="24"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B63" s="32" t="s">
-        <v>17</v>
-      </c>
       <c r="C63" s="23"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="26"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="31"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
+      <c r="H63" s="31"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B64" s="23"/>
+      <c r="B64" s="32" t="s">
+        <v>17</v>
+      </c>
       <c r="C64" s="23"/>
       <c r="D64" s="33"/>
       <c r="E64" s="26"/>
@@ -2795,6 +2814,19 @@
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -18,7 +18,7 @@
     <sheet name="＿" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">other!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -768,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,35 +904,61 @@
         <v>4</v>
       </c>
       <c r="G5" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="A6" s="24">
+        <v>43934</v>
+      </c>
+      <c r="B6" s="23">
+        <v>128</v>
+      </c>
+      <c r="C6" s="9">
+        <v>97</v>
+      </c>
+      <c r="D6" s="19">
+        <v>67</v>
+      </c>
+      <c r="E6" s="19">
+        <v>63</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -948,13 +974,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2625,10 +2651,10 @@
         <v>90</v>
       </c>
       <c r="F57" s="19">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G57" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H57" s="29">
         <v>4</v>
@@ -2659,10 +2685,10 @@
         <v>99</v>
       </c>
       <c r="F58" s="9">
+        <v>61</v>
+      </c>
+      <c r="G58" s="9">
         <v>57</v>
-      </c>
-      <c r="G58" s="9">
-        <v>52</v>
       </c>
       <c r="H58" s="29">
         <v>4</v>
@@ -2693,10 +2719,10 @@
         <v>120</v>
       </c>
       <c r="F59" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G59" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H59" s="9">
         <v>3</v>
@@ -2725,11 +2751,11 @@
         <v>127</v>
       </c>
       <c r="F60" s="9">
+        <v>59</v>
+      </c>
+      <c r="G60" s="9">
         <v>56</v>
       </c>
-      <c r="G60" s="9">
-        <v>53</v>
-      </c>
       <c r="H60" s="9">
         <v>3</v>
       </c>
@@ -2737,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2745,10 +2771,10 @@
         <v>43934</v>
       </c>
       <c r="B61" s="35">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C61" s="35">
-        <v>810</v>
+        <v>862</v>
       </c>
       <c r="D61" s="35">
         <v>1</v>
@@ -2757,10 +2783,10 @@
         <v>128</v>
       </c>
       <c r="F61" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G61" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H61" s="9">
         <v>3</v>
@@ -2769,54 +2795,53 @@
         <v>1</v>
       </c>
       <c r="J61" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="24"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
-      <c r="B63" s="9" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="24"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+      <c r="B64" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B64" s="32" t="s">
-        <v>17</v>
-      </c>
       <c r="C64" s="23"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="26"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="25"/>
       <c r="F64" s="31"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="H64" s="31"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B65" s="23"/>
+      <c r="B65" s="32" t="s">
+        <v>17</v>
+      </c>
       <c r="C65" s="23"/>
       <c r="D65" s="33"/>
       <c r="E65" s="26"/>
@@ -2827,6 +2852,19 @@
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2843,7 +2881,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E40" sqref="E40"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="＿" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">other!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -768,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,35 +904,61 @@
         <v>4</v>
       </c>
       <c r="G5" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="A6" s="24">
+        <v>43934</v>
+      </c>
+      <c r="B6" s="23">
+        <v>128</v>
+      </c>
+      <c r="C6" s="9">
+        <v>97</v>
+      </c>
+      <c r="D6" s="19">
+        <v>67</v>
+      </c>
+      <c r="E6" s="19">
+        <v>63</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -948,13 +974,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2625,10 +2651,10 @@
         <v>90</v>
       </c>
       <c r="F57" s="19">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G57" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H57" s="29">
         <v>4</v>
@@ -2659,10 +2685,10 @@
         <v>99</v>
       </c>
       <c r="F58" s="9">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G58" s="9">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H58" s="29">
         <v>4</v>
@@ -2687,16 +2713,16 @@
         <v>743</v>
       </c>
       <c r="D59" s="35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E59" s="19">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F59" s="9">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G59" s="9">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H59" s="9">
         <v>3</v>
@@ -2713,88 +2739,132 @@
         <v>43933</v>
       </c>
       <c r="B60" s="35">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C60" s="35">
-        <v>755</v>
+        <v>790</v>
       </c>
       <c r="D60" s="35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E60" s="19">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F60" s="9">
+        <v>59</v>
+      </c>
+      <c r="G60" s="9">
         <v>56</v>
       </c>
-      <c r="G60" s="9">
-        <v>53</v>
-      </c>
       <c r="H60" s="9">
         <v>3</v>
       </c>
       <c r="I60" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="24"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="9" t="s">
+      <c r="A61" s="34">
+        <v>43934</v>
+      </c>
+      <c r="B61" s="35">
+        <v>72</v>
+      </c>
+      <c r="C61" s="35">
+        <v>862</v>
+      </c>
+      <c r="D61" s="35">
+        <v>1</v>
+      </c>
+      <c r="E61" s="19">
+        <v>128</v>
+      </c>
+      <c r="F61" s="9">
+        <v>60</v>
+      </c>
+      <c r="G61" s="9">
+        <v>57</v>
+      </c>
+      <c r="H61" s="9">
+        <v>3</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1</v>
+      </c>
+      <c r="J61" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="34"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="24"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+      <c r="B64" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B63" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B64" s="23"/>
       <c r="C64" s="23"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="26"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="25"/>
       <c r="F64" s="31"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="H64" s="31"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B65" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2811,7 +2881,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E40" sqref="E40"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -19,14 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">other!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -105,6 +104,167 @@
     <rPh sb="14" eb="15">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>患者発生総数【速報含む】</t>
+    <rPh sb="0" eb="2">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソクホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査済患者総数</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症・中等症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査済市民患者総数</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シミン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>患者発生総数【速報・市外含む】</t>
+    <rPh sb="0" eb="2">
+      <t>カンジャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソクホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>入院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入居</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>ニュウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等・軽症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症・中等症</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -136,155 +296,62 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>患者発生総数【速報含む】</t>
-    <rPh sb="0" eb="2">
-      <t>カンジャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウスウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソクホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フク</t>
+    <t>※　39 件調査中</t>
+    <rPh sb="5" eb="6">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>軽症・中等症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショウ</t>
+    <r>
+      <t>入院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入居中</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>ニュウキョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
+    <t>※　24・34・53・58・59・60例目は市外在住者です。</t>
+    <rPh sb="19" eb="20">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ザイジュウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>調査済患者総数</t>
-    <rPh sb="0" eb="2">
+    <t>※　39  件調査中</t>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>チョウサ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンジャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ソウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ 患者発生総数【速報含む】は、調査中も含みます。</t>
-    <rPh sb="16" eb="19">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ 患者発生総数【速報含む】のうち、6名は市外在住者です。</t>
-    <rPh sb="2" eb="4">
-      <t>カンジャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウスウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ソクホウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※患者発生総数【速報含む】以外は、市発表と他自体発表の市内在住者の合計です。</t>
-    <rPh sb="13" eb="15">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シナイ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入院・入居中</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウイン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ニュウキョチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入院・入居中</t>
-    <rPh sb="3" eb="5">
-      <t>ニュウキョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※　33件調査中</t>
-    <rPh sb="4" eb="5">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="9" eb="10">
       <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -328,7 +395,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -355,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,89 +447,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,204 +787,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="20.125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>43930</v>
+      </c>
+      <c r="B2" s="13">
+        <v>98</v>
+      </c>
+      <c r="C2" s="13">
+        <v>88</v>
+      </c>
+      <c r="D2" s="9">
+        <v>61</v>
+      </c>
+      <c r="E2" s="9">
+        <v>56</v>
+      </c>
+      <c r="F2" s="9">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>43931</v>
+      </c>
+      <c r="B3" s="13">
+        <v>107</v>
+      </c>
+      <c r="C3" s="13">
+        <v>97</v>
+      </c>
+      <c r="D3" s="9">
+        <v>70</v>
+      </c>
+      <c r="E3" s="9">
+        <v>65</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>43932</v>
+      </c>
+      <c r="B4" s="13">
+        <v>122</v>
+      </c>
+      <c r="C4" s="13">
+        <v>99</v>
+      </c>
+      <c r="D4" s="9">
+        <v>71</v>
+      </c>
+      <c r="E4" s="9">
+        <v>67</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>43933</v>
+      </c>
+      <c r="B5" s="13">
+        <v>130</v>
+      </c>
+      <c r="C5" s="13">
+        <v>100</v>
+      </c>
+      <c r="D5" s="9">
+        <v>70</v>
+      </c>
+      <c r="E5" s="9">
+        <v>66</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>43934</v>
+      </c>
+      <c r="B6" s="13">
+        <v>137</v>
+      </c>
+      <c r="C6" s="13">
+        <v>102</v>
+      </c>
+      <c r="D6" s="9">
+        <v>72</v>
+      </c>
+      <c r="E6" s="9">
+        <v>65</v>
+      </c>
+      <c r="F6" s="9">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
+        <v>43935</v>
+      </c>
+      <c r="B7" s="13">
+        <v>147</v>
+      </c>
+      <c r="C7" s="13">
+        <v>102</v>
+      </c>
+      <c r="D7" s="9">
+        <v>71</v>
+      </c>
+      <c r="E7" s="9">
+        <v>64</v>
+      </c>
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="16">
-        <v>43930</v>
-      </c>
-      <c r="B2" s="13">
-        <v>90</v>
-      </c>
-      <c r="C2" s="17">
-        <v>84</v>
-      </c>
-      <c r="D2" s="17">
-        <v>56</v>
-      </c>
-      <c r="E2" s="17">
-        <v>51</v>
-      </c>
-      <c r="F2" s="17">
-        <v>5</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="24">
-        <v>43931</v>
-      </c>
-      <c r="B3" s="10">
-        <v>90</v>
-      </c>
-      <c r="C3" s="25">
-        <v>85</v>
-      </c>
-      <c r="D3" s="25">
-        <v>58</v>
-      </c>
-      <c r="E3" s="25">
-        <v>53</v>
-      </c>
-      <c r="F3" s="25">
-        <v>5</v>
-      </c>
-      <c r="G3" s="25">
-        <v>0</v>
-      </c>
-      <c r="H3" s="25">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="24">
-        <v>43932</v>
-      </c>
-      <c r="B4" s="23">
-        <v>113</v>
-      </c>
-      <c r="C4" s="9">
-        <v>86</v>
-      </c>
-      <c r="D4" s="19">
-        <v>58</v>
-      </c>
-      <c r="E4" s="19">
-        <v>54</v>
-      </c>
-      <c r="F4" s="19">
-        <v>4</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="24">
-        <v>43933</v>
-      </c>
-      <c r="B5" s="23">
-        <v>121</v>
-      </c>
-      <c r="C5" s="9">
-        <v>91</v>
-      </c>
-      <c r="D5" s="19">
-        <v>63</v>
-      </c>
-      <c r="E5" s="19">
-        <v>59</v>
-      </c>
-      <c r="F5" s="19">
-        <v>4</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="24">
-        <v>43934</v>
-      </c>
-      <c r="B6" s="23">
-        <v>128</v>
-      </c>
-      <c r="C6" s="9">
-        <v>97</v>
-      </c>
-      <c r="D6" s="19">
-        <v>67</v>
-      </c>
-      <c r="E6" s="19">
-        <v>63</v>
-      </c>
-      <c r="F6" s="19">
-        <v>4</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="18"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="18"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -973,20 +1076,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="2" max="10" width="20.75" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1004,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -1039,8 +1143,6 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
       <c r="I2" s="4">
         <v>0</v>
       </c>
@@ -1067,8 +1169,6 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
       <c r="I3" s="4">
         <v>0</v>
       </c>
@@ -1095,8 +1195,6 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
       <c r="I4" s="4">
         <v>0</v>
       </c>
@@ -1123,8 +1221,6 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
       <c r="I5" s="4">
         <v>0</v>
       </c>
@@ -1151,8 +1247,6 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
       <c r="I6" s="4">
         <v>0</v>
       </c>
@@ -1179,8 +1273,6 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
       <c r="I7" s="4">
         <v>0</v>
       </c>
@@ -1207,8 +1299,6 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
       <c r="I8" s="4">
         <v>0</v>
       </c>
@@ -1235,8 +1325,6 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
       <c r="I9" s="4">
         <v>0</v>
       </c>
@@ -1263,8 +1351,6 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
       <c r="I10" s="4">
         <v>0</v>
       </c>
@@ -1291,8 +1377,6 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
       <c r="I11" s="4">
         <v>0</v>
       </c>
@@ -1319,8 +1403,6 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
       <c r="I12" s="4">
         <v>0</v>
       </c>
@@ -1347,8 +1429,6 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
       <c r="I13" s="4">
         <v>0</v>
       </c>
@@ -1375,8 +1455,6 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
       <c r="I14" s="4">
         <v>0</v>
       </c>
@@ -1403,8 +1481,6 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
       <c r="I15" s="4">
         <v>0</v>
       </c>
@@ -1431,8 +1507,6 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
       <c r="I16" s="4">
         <v>0</v>
       </c>
@@ -1459,8 +1533,6 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
       <c r="I17" s="4">
         <v>0</v>
       </c>
@@ -1487,8 +1559,6 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
       <c r="I18" s="4">
         <v>0</v>
       </c>
@@ -1515,8 +1585,6 @@
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
       <c r="I19" s="4">
         <v>0</v>
       </c>
@@ -1543,8 +1611,6 @@
       <c r="F20" s="4">
         <v>2</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
       <c r="I20" s="4">
         <v>0</v>
       </c>
@@ -1571,8 +1637,6 @@
       <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
       <c r="I21" s="4">
         <v>0</v>
       </c>
@@ -1599,8 +1663,6 @@
       <c r="F22" s="4">
         <v>2</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
       <c r="I22" s="4">
         <v>0</v>
       </c>
@@ -1627,8 +1689,6 @@
       <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
       <c r="I23" s="4">
         <v>0</v>
       </c>
@@ -1655,8 +1715,6 @@
       <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
       <c r="I24" s="4">
         <v>0</v>
       </c>
@@ -1683,8 +1741,6 @@
       <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
       <c r="I25" s="4">
         <v>0</v>
       </c>
@@ -1711,8 +1767,6 @@
       <c r="F26" s="4">
         <v>4</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
       <c r="I26" s="4">
         <v>0</v>
       </c>
@@ -1739,8 +1793,6 @@
       <c r="F27" s="4">
         <v>6</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
       <c r="I27" s="4">
         <v>0</v>
       </c>
@@ -1767,8 +1819,6 @@
       <c r="F28" s="4">
         <v>10</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
       <c r="I28" s="4">
         <v>0</v>
       </c>
@@ -1795,8 +1845,6 @@
       <c r="F29" s="4">
         <v>14</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
       <c r="I29" s="4">
         <v>0</v>
       </c>
@@ -1823,8 +1871,6 @@
       <c r="F30" s="4">
         <v>16</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
       <c r="I30" s="4">
         <v>0</v>
       </c>
@@ -1851,8 +1897,6 @@
       <c r="F31" s="4">
         <v>20</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
       <c r="I31" s="4">
         <v>0</v>
       </c>
@@ -1879,8 +1923,6 @@
       <c r="F32" s="4">
         <v>20</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
       <c r="I32" s="4">
         <v>0</v>
       </c>
@@ -1907,8 +1949,6 @@
       <c r="F33" s="4">
         <v>22</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
       <c r="I33" s="4">
         <v>0</v>
       </c>
@@ -1935,8 +1975,6 @@
       <c r="F34" s="4">
         <v>21</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
       <c r="I34" s="4">
         <v>0</v>
       </c>
@@ -1963,8 +2001,6 @@
       <c r="F35" s="4">
         <v>20</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
       <c r="I35" s="4">
         <v>0</v>
       </c>
@@ -1991,8 +2027,6 @@
       <c r="F36" s="4">
         <v>19</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
       <c r="I36" s="4">
         <v>0</v>
       </c>
@@ -2019,8 +2053,6 @@
       <c r="F37" s="4">
         <v>17</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
       <c r="I37" s="4">
         <v>0</v>
       </c>
@@ -2047,8 +2079,6 @@
       <c r="F38" s="4">
         <v>17</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
       <c r="I38" s="4">
         <v>0</v>
       </c>
@@ -2075,8 +2105,6 @@
       <c r="F39" s="4">
         <v>17</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
       <c r="I39" s="4">
         <v>0</v>
       </c>
@@ -2103,8 +2131,6 @@
       <c r="F40" s="4">
         <v>17</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
       <c r="I40" s="4">
         <v>0</v>
       </c>
@@ -2131,10 +2157,10 @@
       <c r="F41" s="4">
         <v>15</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="1">
         <v>13</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="1">
         <v>2</v>
       </c>
       <c r="I41" s="4">
@@ -2163,10 +2189,10 @@
       <c r="F42" s="4">
         <v>12</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="1">
         <v>10</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="1">
         <v>2</v>
       </c>
       <c r="I42" s="4">
@@ -2195,10 +2221,10 @@
       <c r="F43" s="4">
         <v>9</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="1">
         <v>7</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="1">
         <v>2</v>
       </c>
       <c r="I43" s="4">
@@ -2227,10 +2253,10 @@
       <c r="F44" s="4">
         <v>11</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="1">
         <v>10</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="1">
         <v>1</v>
       </c>
       <c r="I44" s="4">
@@ -2256,13 +2282,13 @@
       <c r="E45" s="4">
         <v>31</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="9">
         <v>11</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="1">
         <v>10</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="1">
         <v>1</v>
       </c>
       <c r="I45" s="4">
@@ -2291,10 +2317,10 @@
       <c r="F46" s="6">
         <v>13</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="1">
         <v>12</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="1">
         <v>1</v>
       </c>
       <c r="I46" s="6">
@@ -2323,10 +2349,10 @@
       <c r="F47" s="6">
         <v>13</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="1">
         <v>12</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="1">
         <v>1</v>
       </c>
       <c r="I47" s="6">
@@ -2355,10 +2381,10 @@
       <c r="F48" s="6">
         <v>13</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="1">
         <v>11</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="1">
         <v>2</v>
       </c>
       <c r="I48" s="6">
@@ -2368,7 +2394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>43922</v>
       </c>
@@ -2387,10 +2413,10 @@
       <c r="F49" s="6">
         <v>13</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="1">
         <v>11</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="1">
         <v>2</v>
       </c>
       <c r="I49" s="6">
@@ -2400,7 +2426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>43923</v>
       </c>
@@ -2419,10 +2445,10 @@
       <c r="F50" s="6">
         <v>14</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="1">
         <v>12</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="1">
         <v>2</v>
       </c>
       <c r="I50" s="6">
@@ -2432,7 +2458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>43924</v>
       </c>
@@ -2451,425 +2477,439 @@
       <c r="F51" s="6">
         <v>17</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="1">
         <v>15</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="1">
         <v>2</v>
       </c>
       <c r="I51" s="6">
         <v>0</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>43925</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="7">
         <v>24</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="7">
         <v>507</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="7">
         <v>5</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="6">
         <v>44</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="6">
         <v>19</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="1">
         <v>17</v>
       </c>
-      <c r="H52" s="9">
-        <v>2</v>
-      </c>
-      <c r="I52" s="25">
-        <v>0</v>
-      </c>
-      <c r="J52" s="23">
+      <c r="H52" s="1">
+        <v>2</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
         <v>22</v>
       </c>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>43926</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="7">
         <v>10</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="7">
         <v>517</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="7">
         <v>7</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="6">
         <v>51</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="6">
         <v>24</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="1">
         <v>21</v>
       </c>
-      <c r="H53" s="9">
-        <v>3</v>
-      </c>
-      <c r="I53" s="25">
-        <v>0</v>
-      </c>
-      <c r="J53" s="23">
+      <c r="H53" s="1">
+        <v>3</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
         <v>22</v>
       </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-    </row>
-    <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>43927</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="7">
         <v>25</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="7">
         <v>542</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="7">
         <v>5</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="8">
         <v>56</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="8">
         <v>33</v>
       </c>
-      <c r="G54" s="29">
+      <c r="G54" s="1">
         <v>29</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H54" s="1">
         <v>4</v>
       </c>
-      <c r="I54" s="29">
-        <v>0</v>
-      </c>
-      <c r="J54" s="29">
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
         <v>22</v>
       </c>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-    </row>
-    <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>43928</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="7">
         <v>40</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="7">
         <v>582</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="7">
         <v>12</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="8">
         <v>68</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="8">
         <v>36</v>
       </c>
-      <c r="G55" s="29">
+      <c r="G55" s="1">
         <v>32</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="1">
         <v>4</v>
       </c>
-      <c r="I55" s="29">
-        <v>0</v>
-      </c>
-      <c r="J55" s="29">
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
         <v>22</v>
       </c>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-    </row>
-    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+    </row>
+    <row r="56" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="12">
         <v>43929</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="14">
         <v>43</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="14">
         <v>625</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="14">
         <v>10</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="8">
         <v>78</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="8">
         <v>46</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="10">
         <v>42</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="10">
         <v>4</v>
       </c>
-      <c r="I56" s="29">
-        <v>0</v>
-      </c>
-      <c r="J56" s="29">
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
         <v>23</v>
       </c>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-    </row>
-    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+    </row>
+    <row r="57" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="12">
         <v>43930</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="14">
         <v>63</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="14">
         <v>688</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="14">
         <v>12</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="8">
         <v>90</v>
       </c>
-      <c r="F57" s="19">
-        <v>54</v>
-      </c>
-      <c r="G57" s="9">
-        <v>50</v>
-      </c>
-      <c r="H57" s="29">
+      <c r="F57" s="8">
+        <v>55</v>
+      </c>
+      <c r="G57" s="10">
+        <v>51</v>
+      </c>
+      <c r="H57" s="10">
         <v>4</v>
       </c>
-      <c r="I57" s="29">
-        <v>0</v>
-      </c>
-      <c r="J57" s="29">
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8">
         <v>25</v>
       </c>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-    </row>
-    <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="16">
+    </row>
+    <row r="58" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="12">
         <v>43931</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="14">
         <v>30</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="14">
         <v>718</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="10">
         <v>9</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E58" s="10">
         <v>99</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="10">
+        <v>63</v>
+      </c>
+      <c r="G58" s="10">
+        <v>59</v>
+      </c>
+      <c r="H58" s="10">
+        <v>4</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0</v>
+      </c>
+      <c r="J58" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="12">
+        <v>43932</v>
+      </c>
+      <c r="B59" s="14">
+        <v>25</v>
+      </c>
+      <c r="C59" s="14">
+        <v>743</v>
+      </c>
+      <c r="D59" s="10">
+        <v>21</v>
+      </c>
+      <c r="E59" s="10">
+        <v>120</v>
+      </c>
+      <c r="F59" s="10">
+        <v>64</v>
+      </c>
+      <c r="G59" s="10">
         <v>61</v>
       </c>
-      <c r="G58" s="9">
-        <v>57</v>
-      </c>
-      <c r="H58" s="29">
-        <v>4</v>
-      </c>
-      <c r="I58" s="29">
-        <v>0</v>
-      </c>
-      <c r="J58" s="29">
-        <v>25</v>
-      </c>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-    </row>
-    <row r="59" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="34">
-        <v>43932</v>
-      </c>
-      <c r="B59" s="35">
-        <v>25</v>
-      </c>
-      <c r="C59" s="35">
-        <v>743</v>
-      </c>
-      <c r="D59" s="35">
+      <c r="H59" s="10">
+        <v>3</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+      <c r="J59" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="12">
+        <v>43933</v>
+      </c>
+      <c r="B60" s="14">
+        <v>47</v>
+      </c>
+      <c r="C60" s="14">
+        <v>790</v>
+      </c>
+      <c r="D60" s="10">
+        <v>7</v>
+      </c>
+      <c r="E60" s="10">
+        <v>127</v>
+      </c>
+      <c r="F60" s="10">
+        <v>63</v>
+      </c>
+      <c r="G60" s="10">
+        <v>60</v>
+      </c>
+      <c r="H60" s="10">
+        <v>3</v>
+      </c>
+      <c r="I60" s="10">
+        <v>1</v>
+      </c>
+      <c r="J60" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="12">
+        <v>43934</v>
+      </c>
+      <c r="B61" s="14">
+        <v>90</v>
+      </c>
+      <c r="C61" s="14">
+        <v>880</v>
+      </c>
+      <c r="D61" s="10">
+        <v>8</v>
+      </c>
+      <c r="E61" s="10">
+        <v>135</v>
+      </c>
+      <c r="F61" s="10">
+        <v>65</v>
+      </c>
+      <c r="G61" s="10">
+        <v>59</v>
+      </c>
+      <c r="H61" s="10">
+        <v>6</v>
+      </c>
+      <c r="I61" s="10">
+        <v>1</v>
+      </c>
+      <c r="J61" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="12">
+        <v>43935</v>
+      </c>
+      <c r="B62" s="14">
+        <v>69</v>
+      </c>
+      <c r="C62" s="14">
+        <v>949</v>
+      </c>
+      <c r="D62" s="10">
+        <v>3</v>
+      </c>
+      <c r="E62" s="10">
+        <v>138</v>
+      </c>
+      <c r="F62" s="10">
+        <v>64</v>
+      </c>
+      <c r="G62" s="10">
+        <v>58</v>
+      </c>
+      <c r="H62" s="10">
+        <v>6</v>
+      </c>
+      <c r="I62" s="10">
+        <v>1</v>
+      </c>
+      <c r="J62" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="12"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="12"/>
+      <c r="B64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E59" s="19">
-        <v>120</v>
-      </c>
-      <c r="F59" s="9">
-        <v>61</v>
-      </c>
-      <c r="G59" s="9">
-        <v>58</v>
-      </c>
-      <c r="H59" s="9">
-        <v>3</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0</v>
-      </c>
-      <c r="J59" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="34">
-        <v>43933</v>
-      </c>
-      <c r="B60" s="35">
-        <v>47</v>
-      </c>
-      <c r="C60" s="35">
-        <v>790</v>
-      </c>
-      <c r="D60" s="35">
-        <v>7</v>
-      </c>
-      <c r="E60" s="19">
-        <v>127</v>
-      </c>
-      <c r="F60" s="9">
-        <v>59</v>
-      </c>
-      <c r="G60" s="9">
-        <v>56</v>
-      </c>
-      <c r="H60" s="9">
-        <v>3</v>
-      </c>
-      <c r="I60" s="9">
-        <v>1</v>
-      </c>
-      <c r="J60" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="34">
-        <v>43934</v>
-      </c>
-      <c r="B61" s="35">
-        <v>72</v>
-      </c>
-      <c r="C61" s="35">
-        <v>862</v>
-      </c>
-      <c r="D61" s="35">
-        <v>1</v>
-      </c>
-      <c r="E61" s="19">
-        <v>128</v>
-      </c>
-      <c r="F61" s="9">
-        <v>60</v>
-      </c>
-      <c r="G61" s="9">
-        <v>57</v>
-      </c>
-      <c r="H61" s="9">
-        <v>3</v>
-      </c>
-      <c r="I61" s="9">
-        <v>1</v>
-      </c>
-      <c r="J61" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="34"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-    </row>
-    <row r="63" spans="1:12" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="24"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="3"/>
-      <c r="B64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B65" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
+      <c r="D65" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C69" s="7"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C70" s="7"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C71" s="7"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.3543307086614173" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2878,21 +2918,21 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.125" style="10" customWidth="1"/>
-    <col min="7" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.75" style="13" customWidth="1"/>
+    <col min="7" max="8" width="20.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2903,14 +2943,14 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
+      <c r="D1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2932,8 +2972,6 @@
       <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
       <c r="G2" s="4">
         <v>0</v>
       </c>
@@ -2954,8 +2992,6 @@
       <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
       <c r="G3" s="4">
         <v>0</v>
       </c>
@@ -2976,8 +3012,6 @@
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
       <c r="G4" s="4">
         <v>0</v>
       </c>
@@ -2998,8 +3032,6 @@
       <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
       <c r="G5" s="4">
         <v>0</v>
       </c>
@@ -3020,8 +3052,6 @@
       <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
       <c r="G6" s="4">
         <v>0</v>
       </c>
@@ -3042,8 +3072,6 @@
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
       <c r="G7" s="4">
         <v>0</v>
       </c>
@@ -3064,8 +3092,6 @@
       <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
       <c r="G8" s="4">
         <v>0</v>
       </c>
@@ -3086,8 +3112,6 @@
       <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
       <c r="G9" s="4">
         <v>0</v>
       </c>
@@ -3108,8 +3132,6 @@
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
       <c r="G10" s="4">
         <v>0</v>
       </c>
@@ -3130,8 +3152,6 @@
       <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
       <c r="G11" s="4">
         <v>0</v>
       </c>
@@ -3152,8 +3172,6 @@
       <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
       <c r="G12" s="4">
         <v>0</v>
       </c>
@@ -3174,8 +3192,6 @@
       <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
       <c r="G13" s="4">
         <v>0</v>
       </c>
@@ -3196,8 +3212,6 @@
       <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
       <c r="G14" s="4">
         <v>0</v>
       </c>
@@ -3218,8 +3232,6 @@
       <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
       <c r="G15" s="4">
         <v>0</v>
       </c>
@@ -3231,25 +3243,25 @@
       <c r="A16" s="3">
         <v>43914</v>
       </c>
-      <c r="B16" s="18">
-        <v>0</v>
-      </c>
-      <c r="C16" s="18">
-        <v>3</v>
-      </c>
-      <c r="D16" s="18">
-        <v>3</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="18">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3257,25 +3269,25 @@
       <c r="A17" s="3">
         <v>43915</v>
       </c>
-      <c r="B17" s="18">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
-        <v>3</v>
-      </c>
-      <c r="D17" s="18">
-        <v>3</v>
-      </c>
-      <c r="E17" s="19">
-        <v>2</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3283,25 +3295,25 @@
       <c r="A18" s="3">
         <v>43916</v>
       </c>
-      <c r="B18" s="18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>3</v>
-      </c>
-      <c r="D18" s="18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3309,25 +3321,25 @@
       <c r="A19" s="3">
         <v>43917</v>
       </c>
-      <c r="B19" s="18">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18">
-        <v>3</v>
-      </c>
-      <c r="D19" s="18">
-        <v>2</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-      <c r="H19" s="18">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3335,25 +3347,25 @@
       <c r="A20" s="3">
         <v>43918</v>
       </c>
-      <c r="B20" s="18">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>3</v>
-      </c>
-      <c r="D20" s="18">
-        <v>2</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3361,25 +3373,25 @@
       <c r="A21" s="3">
         <v>43919</v>
       </c>
-      <c r="B21" s="18">
-        <v>0</v>
-      </c>
-      <c r="C21" s="18">
-        <v>3</v>
-      </c>
-      <c r="D21" s="18">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0</v>
-      </c>
-      <c r="H21" s="18">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3387,25 +3399,25 @@
       <c r="A22" s="3">
         <v>43920</v>
       </c>
-      <c r="B22" s="27">
-        <v>1</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
         <v>4</v>
       </c>
-      <c r="D22" s="27">
-        <v>3</v>
-      </c>
-      <c r="E22" s="27">
-        <v>2</v>
-      </c>
-      <c r="F22" s="27">
-        <v>1</v>
-      </c>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="27">
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3413,25 +3425,25 @@
       <c r="A23" s="3">
         <v>43921</v>
       </c>
-      <c r="B23" s="27">
-        <v>2</v>
-      </c>
-      <c r="C23" s="27">
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
         <v>6</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="6">
         <v>5</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="13">
         <v>4</v>
       </c>
-      <c r="F23" s="27">
-        <v>1</v>
-      </c>
-      <c r="G23" s="27">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27">
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3439,25 +3451,25 @@
       <c r="A24" s="3">
         <v>43922</v>
       </c>
-      <c r="B24" s="27">
-        <v>0</v>
-      </c>
-      <c r="C24" s="27">
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
         <v>6</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="13">
         <v>4</v>
       </c>
-      <c r="F24" s="27">
-        <v>1</v>
-      </c>
-      <c r="G24" s="27">
-        <v>0</v>
-      </c>
-      <c r="H24" s="27">
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3465,25 +3477,25 @@
       <c r="A25" s="3">
         <v>43923</v>
       </c>
-      <c r="B25" s="27">
-        <v>0</v>
-      </c>
-      <c r="C25" s="27">
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
         <v>6</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="6">
         <v>5</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="13">
         <v>4</v>
       </c>
-      <c r="F25" s="27">
-        <v>1</v>
-      </c>
-      <c r="G25" s="27">
-        <v>0</v>
-      </c>
-      <c r="H25" s="27">
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3491,25 +3503,25 @@
       <c r="A26" s="3">
         <v>43924</v>
       </c>
-      <c r="B26" s="27">
-        <v>0</v>
-      </c>
-      <c r="C26" s="27">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
         <v>6</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="6">
         <v>5</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="13">
         <v>4</v>
       </c>
-      <c r="F26" s="27">
-        <v>1</v>
-      </c>
-      <c r="G26" s="27">
-        <v>0</v>
-      </c>
-      <c r="H26" s="27">
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3517,25 +3529,25 @@
       <c r="A27" s="3">
         <v>43925</v>
       </c>
-      <c r="B27" s="29">
-        <v>0</v>
-      </c>
-      <c r="C27" s="27">
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
         <v>6</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="13">
         <v>4</v>
       </c>
-      <c r="F27" s="29">
-        <v>1</v>
-      </c>
-      <c r="G27" s="29">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29">
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3543,25 +3555,25 @@
       <c r="A28" s="3">
         <v>43926</v>
       </c>
-      <c r="B28" s="27">
-        <v>0</v>
-      </c>
-      <c r="C28" s="27">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
         <v>6</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="6">
         <v>5</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="13">
         <v>4</v>
       </c>
-      <c r="F28" s="27">
-        <v>1</v>
-      </c>
-      <c r="G28" s="27">
-        <v>0</v>
-      </c>
-      <c r="H28" s="27">
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3569,25 +3581,25 @@
       <c r="A29" s="3">
         <v>43927</v>
       </c>
-      <c r="B29" s="27">
-        <v>0</v>
-      </c>
-      <c r="C29" s="27">
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
         <v>6</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="6">
         <v>5</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="13">
         <v>4</v>
       </c>
-      <c r="F29" s="27">
-        <v>1</v>
-      </c>
-      <c r="G29" s="27">
-        <v>0</v>
-      </c>
-      <c r="H29" s="27">
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3595,25 +3607,25 @@
       <c r="A30" s="3">
         <v>43928</v>
       </c>
-      <c r="B30" s="27">
-        <v>0</v>
-      </c>
-      <c r="C30" s="27">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
         <v>6</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="6">
         <v>5</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="13">
         <v>4</v>
       </c>
-      <c r="F30" s="27">
-        <v>1</v>
-      </c>
-      <c r="G30" s="27">
-        <v>0</v>
-      </c>
-      <c r="H30" s="27">
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3621,142 +3633,205 @@
       <c r="A31" s="3">
         <v>43929</v>
       </c>
-      <c r="B31" s="27">
-        <v>2</v>
-      </c>
-      <c r="C31" s="27">
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8">
         <v>8</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="8">
         <v>7</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="13">
         <v>6</v>
       </c>
-      <c r="F31" s="27">
-        <v>1</v>
-      </c>
-      <c r="G31" s="27">
-        <v>0</v>
-      </c>
-      <c r="H31" s="27">
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="24">
+      <c r="A32" s="3">
         <v>43930</v>
       </c>
-      <c r="B32" s="27">
-        <v>0</v>
-      </c>
-      <c r="C32" s="27">
+      <c r="B32" s="8">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
         <v>8</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="8">
         <v>6</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="13">
         <v>5</v>
       </c>
-      <c r="F32" s="29">
-        <v>1</v>
-      </c>
-      <c r="G32" s="27">
-        <v>0</v>
-      </c>
-      <c r="H32" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="28">
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="11">
         <v>43931</v>
       </c>
-      <c r="B33" s="27">
-        <v>1</v>
-      </c>
-      <c r="C33" s="27">
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
         <v>9</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="8">
         <v>7</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="13">
         <v>6</v>
       </c>
-      <c r="F33" s="29">
-        <v>1</v>
-      </c>
-      <c r="G33" s="27">
-        <v>0</v>
-      </c>
-      <c r="H33" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="28">
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>2</v>
+      </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
         <v>43932</v>
       </c>
-      <c r="B34" s="19">
-        <v>0</v>
-      </c>
-      <c r="C34" s="19">
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
         <v>9</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="8">
         <v>7</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="13">
         <v>6</v>
       </c>
-      <c r="F34" s="9">
-        <v>1</v>
-      </c>
-      <c r="G34" s="19">
-        <v>0</v>
-      </c>
-      <c r="H34" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24">
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <v>2</v>
+      </c>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="12">
         <v>43933</v>
       </c>
-      <c r="B35" s="19">
-        <v>0</v>
-      </c>
-      <c r="C35" s="19">
+      <c r="B35" s="8">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8">
         <v>9</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="8">
         <v>7</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="13">
         <v>6</v>
       </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-      <c r="G35" s="19">
-        <v>0</v>
-      </c>
-      <c r="H35" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <v>2</v>
+      </c>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="12">
+        <v>43934</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>9</v>
+      </c>
+      <c r="D36" s="8">
+        <v>7</v>
+      </c>
+      <c r="E36" s="10">
         <v>6</v>
       </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="12">
+        <v>43935</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8">
+        <v>7</v>
+      </c>
+      <c r="E37" s="10">
+        <v>6</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -361,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,13 +399,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -422,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +496,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1080,11 +1103,11 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2507,7 +2530,7 @@
         <v>44</v>
       </c>
       <c r="F52" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G52" s="1">
         <v>17</v>
@@ -2539,7 +2562,7 @@
         <v>51</v>
       </c>
       <c r="F53" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G53" s="1">
         <v>21</v>
@@ -2571,7 +2594,7 @@
         <v>56</v>
       </c>
       <c r="F54" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G54" s="1">
         <v>29</v>
@@ -2603,7 +2626,7 @@
         <v>68</v>
       </c>
       <c r="F55" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55" s="1">
         <v>32</v>
@@ -2635,7 +2658,7 @@
         <v>78</v>
       </c>
       <c r="F56" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G56" s="10">
         <v>42</v>
@@ -2667,7 +2690,7 @@
         <v>90</v>
       </c>
       <c r="F57" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G57" s="10">
         <v>51</v>
@@ -2699,7 +2722,7 @@
         <v>99</v>
       </c>
       <c r="F58" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G58" s="10">
         <v>59</v>
@@ -2731,7 +2754,7 @@
         <v>120</v>
       </c>
       <c r="F59" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G59" s="10">
         <v>61</v>
@@ -2763,7 +2786,7 @@
         <v>127</v>
       </c>
       <c r="F60" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G60" s="10">
         <v>60</v>
@@ -2795,7 +2818,7 @@
         <v>135</v>
       </c>
       <c r="F61" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G61" s="10">
         <v>59</v>
@@ -2827,7 +2850,7 @@
         <v>138</v>
       </c>
       <c r="F62" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G62" s="10">
         <v>58</v>
@@ -2843,9 +2866,36 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="12"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="12">
+        <v>43936</v>
+      </c>
+      <c r="B63" s="14">
+        <v>22</v>
+      </c>
+      <c r="C63" s="14">
+        <v>971</v>
+      </c>
+      <c r="D63" s="10">
+        <v>3</v>
+      </c>
+      <c r="E63" s="10">
+        <v>141</v>
+      </c>
+      <c r="F63" s="10">
+        <v>67</v>
+      </c>
+      <c r="G63" s="10">
+        <v>61</v>
+      </c>
+      <c r="H63" s="10">
+        <v>6</v>
+      </c>
+      <c r="I63" s="10">
+        <v>1</v>
+      </c>
+      <c r="J63" s="10">
+        <v>28</v>
+      </c>
     </row>
     <row r="64" spans="1:10" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12"/>
@@ -2920,11 +2970,11 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3815,12 +3865,31 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="A38" s="11">
+        <v>43936</v>
+      </c>
+      <c r="B38" s="20">
+        <v>0</v>
+      </c>
+      <c r="C38" s="20">
+        <v>9</v>
+      </c>
+      <c r="D38" s="20">
+        <v>7</v>
+      </c>
+      <c r="E38" s="20">
+        <v>6</v>
+      </c>
+      <c r="F38" s="20">
+        <v>1</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="22">
+        <v>2</v>
+      </c>
+      <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$64</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -220,10 +220,6 @@
   </si>
   <si>
     <t>軽症・中等症</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※　33  件調査中</t>
@@ -705,13 +701,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>9</v>
@@ -879,7 +875,7 @@
         <v>43935</v>
       </c>
       <c r="B7" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="9">
         <v>111</v>
@@ -891,7 +887,7 @@
         <v>73</v>
       </c>
       <c r="F7" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -905,7 +901,7 @@
         <v>43936</v>
       </c>
       <c r="B8" s="9">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C8" s="9">
         <v>111</v>
@@ -917,7 +913,7 @@
         <v>70</v>
       </c>
       <c r="F8" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -927,21 +923,35 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="A9" s="12">
+        <v>43937</v>
+      </c>
+      <c r="B9" s="9">
+        <v>166</v>
+      </c>
+      <c r="C9" s="9">
+        <v>111</v>
+      </c>
+      <c r="D9" s="5">
+        <v>76</v>
+      </c>
+      <c r="E9" s="5">
+        <v>70</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -951,8 +961,10 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -960,22 +972,23 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="13" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="13"/>
-      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1000,11 +1013,20 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="13"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1021,11 +1043,11 @@
   </sheetPr>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1051,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>14</v>
@@ -2854,22 +2876,22 @@
         <v>949</v>
       </c>
       <c r="D62" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F62" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G62" s="9">
         <v>67</v>
       </c>
       <c r="H62" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I62" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="9">
         <v>28</v>
@@ -2888,22 +2910,22 @@
         <v>1005</v>
       </c>
       <c r="D63" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E63" s="9">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F63" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63" s="9">
         <v>64</v>
       </c>
       <c r="H63" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I63" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" s="9">
         <v>31</v>
@@ -2912,25 +2934,43 @@
       <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="9"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
+      <c r="A64" s="12">
+        <v>43937</v>
+      </c>
+      <c r="B64" s="6">
+        <v>30</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1035</v>
+      </c>
+      <c r="D64" s="9">
+        <v>2</v>
+      </c>
+      <c r="E64" s="9">
+        <v>157</v>
+      </c>
+      <c r="F64" s="9">
+        <v>69</v>
+      </c>
+      <c r="G64" s="9">
+        <v>64</v>
+      </c>
+      <c r="H64" s="9">
+        <v>5</v>
+      </c>
+      <c r="I64" s="9">
+        <v>2</v>
+      </c>
+      <c r="J64" s="9">
+        <v>31</v>
+      </c>
       <c r="K64" s="6"/>
       <c r="L64" s="8"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2944,7 +2984,7 @@
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -3026,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>15</v>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -703,11 +703,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,7 +745,7 @@
         <v>43930</v>
       </c>
       <c r="B2" s="9">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9">
         <v>88</v>
@@ -771,7 +771,7 @@
         <v>43931</v>
       </c>
       <c r="B3" s="9">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C3" s="9">
         <v>98</v>
@@ -797,7 +797,7 @@
         <v>43932</v>
       </c>
       <c r="B4" s="9">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C4" s="9">
         <v>102</v>
@@ -823,7 +823,7 @@
         <v>43933</v>
       </c>
       <c r="B5" s="9">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C5" s="9">
         <v>106</v>
@@ -849,7 +849,7 @@
         <v>43934</v>
       </c>
       <c r="B6" s="9">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C6" s="9">
         <v>111</v>
@@ -875,7 +875,7 @@
         <v>43935</v>
       </c>
       <c r="B7" s="9">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C7" s="9">
         <v>111</v>
@@ -901,7 +901,7 @@
         <v>43936</v>
       </c>
       <c r="B8" s="9">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C8" s="9">
         <v>111</v>
@@ -927,7 +927,7 @@
         <v>43937</v>
       </c>
       <c r="B9" s="9">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C9" s="9">
         <v>111</v>
@@ -1043,7 +1043,7 @@
   </sheetPr>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -194,25 +194,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※　26件調査中</t>
-    <rPh sb="4" eb="5">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
+    <t>入院中等</t>
+    <rPh sb="2" eb="3">
       <t>チュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入院中等</t>
-    <rPh sb="2" eb="3">
+    <t>※　24・34・53・58・59・60・158・161・163例目は市外在住者です。</t>
+    <rPh sb="31" eb="32">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ザイジュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　24・34・53・58・59・60・158・161・163例目は市外在住者です。</t>
+  </si>
+  <si>
+    <t>※　18件調査中</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>チュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -641,7 +660,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>9</v>
@@ -882,14 +901,40 @@
         <v>36</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>43938</v>
+      </c>
+      <c r="B10" s="4">
+        <v>166</v>
+      </c>
+      <c r="C10" s="4">
+        <v>148</v>
+      </c>
+      <c r="D10" s="4">
+        <v>101</v>
+      </c>
+      <c r="E10" s="4">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>38</v>
+      </c>
+    </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -908,10 +953,10 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -937,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>12</v>
@@ -2832,19 +2877,43 @@
       <c r="L64" s="6"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="A65" s="10">
+        <v>43938</v>
+      </c>
+      <c r="B65" s="11">
+        <v>10</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1097</v>
+      </c>
+      <c r="D65" s="4">
+        <v>5</v>
+      </c>
+      <c r="E65" s="4">
+        <v>166</v>
+      </c>
+      <c r="F65" s="4">
+        <v>101</v>
+      </c>
+      <c r="G65" s="4">
+        <v>93</v>
+      </c>
+      <c r="H65" s="4">
+        <v>8</v>
+      </c>
+      <c r="I65" s="4">
+        <v>2</v>
+      </c>
+      <c r="J65" s="4">
+        <v>36</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B66" s="7" t="s">
         <v>14</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2862,10 +2931,10 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2882,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>13</v>
@@ -3837,14 +3906,30 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="A40" s="14">
+        <v>43938</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7</v>
+      </c>
+      <c r="E40" s="7">
+        <v>6</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -657,10 +657,10 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -909,13 +909,13 @@
         <v>166</v>
       </c>
       <c r="C10" s="4">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="4">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F10" s="4">
         <v>8</v>
@@ -924,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="4">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -953,10 +953,10 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2853,7 +2853,7 @@
         <v>1057</v>
       </c>
       <c r="D64" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E64" s="7">
         <v>157</v>
@@ -2896,16 +2896,16 @@
         <v>101</v>
       </c>
       <c r="G65" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H65" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I65" s="4">
         <v>2</v>
       </c>
       <c r="J65" s="4">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -2934,7 +2934,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -654,13 +654,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -928,12 +928,38 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
-        <v>16</v>
+      <c r="A11" s="10">
+        <v>43939</v>
+      </c>
+      <c r="B11" s="4">
+        <v>179</v>
+      </c>
+      <c r="C11" s="4">
+        <v>146</v>
+      </c>
+      <c r="D11" s="2">
+        <v>108</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -950,13 +976,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2887,7 +2913,7 @@
         <v>1097</v>
       </c>
       <c r="D65" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E65" s="4">
         <v>166</v>
@@ -2909,10 +2935,43 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="10">
+        <v>43939</v>
+      </c>
+      <c r="B66" s="11">
+        <v>16</v>
+      </c>
+      <c r="C66" s="7">
+        <f>C65+B66</f>
+        <v>1113</v>
+      </c>
+      <c r="D66" s="4">
+        <v>6</v>
+      </c>
+      <c r="E66" s="4">
+        <v>179</v>
+      </c>
+      <c r="F66" s="2">
+        <v>101</v>
+      </c>
+      <c r="G66" s="2">
+        <v>94</v>
+      </c>
+      <c r="H66" s="2">
+        <v>7</v>
+      </c>
+      <c r="I66" s="2">
+        <v>2</v>
+      </c>
+      <c r="J66" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B67" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2928,13 +2987,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3933,21 +3992,37 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="14">
+        <v>43939</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="13">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>7</v>
+      </c>
+      <c r="E41" s="7">
         <v>6</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2</v>
+      </c>
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -3955,6 +4030,17 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -204,33 +204,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※　24・34・53・58・59・60・158・161・163例目は市外在住者です。</t>
-    <rPh sb="31" eb="32">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※　24・34・53・58・59・60・158・161・163例目は市外在住者です。</t>
-  </si>
-  <si>
-    <t>※　18件調査中</t>
-    <rPh sb="4" eb="5">
+    <t>※36件調査中</t>
+    <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="4" eb="6">
       <t>チョウサ</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="6" eb="7">
       <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -654,13 +635,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11:H11"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,13 +935,21 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -979,10 +968,10 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2873,10 +2862,11 @@
         <v>43937</v>
       </c>
       <c r="B64" s="4">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C64" s="7">
-        <v>1057</v>
+        <f>C63+B64</f>
+        <v>1087</v>
       </c>
       <c r="D64" s="7">
         <v>6</v>
@@ -2907,10 +2897,11 @@
         <v>43938</v>
       </c>
       <c r="B65" s="11">
-        <v>10</v>
-      </c>
-      <c r="C65" s="4">
-        <v>1097</v>
+        <v>52</v>
+      </c>
+      <c r="C65" s="7">
+        <f>C64+B65</f>
+        <v>1139</v>
       </c>
       <c r="D65" s="4">
         <v>12</v>
@@ -2943,7 +2934,7 @@
       </c>
       <c r="C66" s="7">
         <f>C65+B66</f>
-        <v>1113</v>
+        <v>1155</v>
       </c>
       <c r="D66" s="4">
         <v>6</v>
@@ -2970,9 +2961,6 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2990,7 +2978,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D48" sqref="D48"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -204,33 +204,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※　24・34・53・58・59・60・158・161・163例目は市外在住者です。</t>
-    <rPh sb="31" eb="32">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※　24・34・53・58・59・60・158・161・163例目は市外在住者です。</t>
-  </si>
-  <si>
-    <t>※　18件調査中</t>
-    <rPh sb="4" eb="5">
+    <t>※36件調査中</t>
+    <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="4" eb="6">
       <t>チョウサ</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="6" eb="7">
       <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -654,13 +635,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -909,13 +890,13 @@
         <v>166</v>
       </c>
       <c r="C10" s="4">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="4">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F10" s="4">
         <v>8</v>
@@ -924,17 +905,51 @@
         <v>2</v>
       </c>
       <c r="H10" s="4">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="10">
+        <v>43939</v>
+      </c>
+      <c r="B11" s="4">
+        <v>179</v>
+      </c>
+      <c r="C11" s="4">
+        <v>146</v>
+      </c>
+      <c r="D11" s="2">
+        <v>108</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -950,13 +965,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2847,13 +2862,14 @@
         <v>43937</v>
       </c>
       <c r="B64" s="4">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C64" s="7">
-        <v>1057</v>
+        <f>C63+B64</f>
+        <v>1087</v>
       </c>
       <c r="D64" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E64" s="7">
         <v>157</v>
@@ -2881,13 +2897,14 @@
         <v>43938</v>
       </c>
       <c r="B65" s="11">
-        <v>10</v>
-      </c>
-      <c r="C65" s="4">
-        <v>1097</v>
+        <v>52</v>
+      </c>
+      <c r="C65" s="7">
+        <f>C64+B65</f>
+        <v>1139</v>
       </c>
       <c r="D65" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E65" s="4">
         <v>166</v>
@@ -2896,24 +2913,54 @@
         <v>101</v>
       </c>
       <c r="G65" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H65" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I65" s="4">
         <v>2</v>
       </c>
       <c r="J65" s="4">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="10">
+        <v>43939</v>
+      </c>
+      <c r="B66" s="11">
+        <v>16</v>
+      </c>
+      <c r="C66" s="7">
+        <f>C65+B66</f>
+        <v>1155</v>
+      </c>
+      <c r="D66" s="4">
+        <v>6</v>
+      </c>
+      <c r="E66" s="4">
+        <v>179</v>
+      </c>
+      <c r="F66" s="2">
+        <v>101</v>
+      </c>
+      <c r="G66" s="2">
+        <v>94</v>
+      </c>
+      <c r="H66" s="2">
+        <v>7</v>
+      </c>
+      <c r="I66" s="2">
+        <v>2</v>
+      </c>
+      <c r="J66" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B67" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2928,13 +2975,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3933,21 +3980,37 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="14">
+        <v>43939</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="13">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>7</v>
+      </c>
+      <c r="E41" s="7">
         <v>6</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2</v>
+      </c>
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -3955,6 +4018,17 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -204,7 +204,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※36件調査中</t>
+    <t>※33件調査中</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -641,7 +641,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -893,10 +893,10 @@
         <v>146</v>
       </c>
       <c r="D10" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E10" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" s="4">
         <v>8</v>
@@ -916,13 +916,13 @@
         <v>179</v>
       </c>
       <c r="C11" s="4">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D11" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2">
         <v>8</v>
@@ -971,7 +971,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2910,10 +2910,10 @@
         <v>166</v>
       </c>
       <c r="F65" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G65" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H65" s="4">
         <v>7</v>
@@ -2943,10 +2943,10 @@
         <v>179</v>
       </c>
       <c r="F66" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G66" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H66" s="2">
         <v>7</v>
@@ -2978,10 +2978,10 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -178,22 +178,6 @@
     <t>軽症・中等症</t>
   </si>
   <si>
-    <t>※　24・34・53・58・59・60例目は市外在住者です。</t>
-    <rPh sb="19" eb="20">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入院中等</t>
     <rPh sb="2" eb="3">
       <t>チュウ</t>
@@ -204,7 +188,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※33件調査中</t>
+    <t>※24・34・53・58・59・60例目は市外在住者です。</t>
+    <rPh sb="18" eb="19">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ザイジュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※36件調査中</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -282,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,9 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -635,13 +632,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>9</v>
@@ -912,43 +909,69 @@
       <c r="A11" s="10">
         <v>43939</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>179</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>149</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>111</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>103</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="10">
+        <v>43940</v>
+      </c>
+      <c r="B12" s="7">
+        <v>184</v>
+      </c>
+      <c r="C12" s="7">
+        <v>150</v>
+      </c>
+      <c r="D12" s="3">
+        <v>109</v>
+      </c>
+      <c r="E12" s="3">
+        <v>101</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -965,13 +988,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -997,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>12</v>
@@ -2930,17 +2953,16 @@
         <v>43939</v>
       </c>
       <c r="B66" s="11">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C66" s="7">
-        <f>C65+B66</f>
-        <v>1155</v>
+        <v>1168</v>
       </c>
       <c r="D66" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E66" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F66" s="2">
         <v>104</v>
@@ -2959,8 +2981,40 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="7" t="s">
-        <v>14</v>
+      <c r="A67" s="10">
+        <v>43940</v>
+      </c>
+      <c r="B67" s="11">
+        <v>7</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1175</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4">
+        <v>184</v>
+      </c>
+      <c r="F67" s="2">
+        <v>102</v>
+      </c>
+      <c r="G67" s="2">
+        <v>95</v>
+      </c>
+      <c r="H67" s="2">
+        <v>7</v>
+      </c>
+      <c r="I67" s="2">
+        <v>2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B68" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2975,13 +3029,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2998,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>13</v>
@@ -3926,13 +3980,13 @@
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>43937</v>
       </c>
-      <c r="B39" s="13">
-        <v>0</v>
-      </c>
-      <c r="C39" s="13">
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
         <v>9</v>
       </c>
       <c r="D39" s="3">
@@ -3953,13 +4007,13 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>43938</v>
       </c>
-      <c r="B40" s="13">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
         <v>9</v>
       </c>
       <c r="D40" s="3">
@@ -3980,13 +4034,13 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>43939</v>
       </c>
-      <c r="B41" s="13">
-        <v>0</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
         <v>9</v>
       </c>
       <c r="D41" s="3">
@@ -4007,21 +4061,37 @@
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="10">
+        <v>43940</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3">
+        <v>7</v>
+      </c>
+      <c r="E42" s="7">
         <v>6</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2</v>
+      </c>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -4029,6 +4099,17 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -204,7 +204,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※36件調査中</t>
+    <t>※24・34・53・58・59・60・161例目は市外在住者です。</t>
+    <rPh sb="22" eb="23">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ザイジュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※34件調査中</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -635,10 +651,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,12 +983,12 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -178,33 +178,49 @@
     <t>軽症・中等症</t>
   </si>
   <si>
-    <t>※　24・34・53・58・59・60例目は市外在住者です。</t>
-    <rPh sb="19" eb="20">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ザイジュウシャ</t>
+    <t>入院中等</t>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入院中等</t>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナド</t>
+    <t>※24・34・53・58・59・60例目は市外在住者です。</t>
+    <rPh sb="18" eb="19">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ザイジュウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※33件調査中</t>
+    <t>※24・34・53・58・59・60・161例目は市外在住者です。</t>
+    <rPh sb="22" eb="23">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ザイジュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※34件調査中</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -282,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,9 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -635,13 +648,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>9</v>
@@ -912,44 +925,70 @@
       <c r="A11" s="10">
         <v>43939</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>179</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>149</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>111</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>103</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="10">
+        <v>43940</v>
+      </c>
+      <c r="B12" s="7">
+        <v>184</v>
+      </c>
+      <c r="C12" s="7">
+        <v>150</v>
+      </c>
+      <c r="D12" s="3">
+        <v>109</v>
+      </c>
+      <c r="E12" s="3">
+        <v>101</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -965,13 +1004,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -997,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>12</v>
@@ -2930,17 +2969,16 @@
         <v>43939</v>
       </c>
       <c r="B66" s="11">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C66" s="7">
-        <f>C65+B66</f>
-        <v>1155</v>
+        <v>1168</v>
       </c>
       <c r="D66" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E66" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F66" s="2">
         <v>104</v>
@@ -2959,8 +2997,40 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="7" t="s">
-        <v>14</v>
+      <c r="A67" s="10">
+        <v>43940</v>
+      </c>
+      <c r="B67" s="11">
+        <v>7</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1175</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4">
+        <v>184</v>
+      </c>
+      <c r="F67" s="2">
+        <v>102</v>
+      </c>
+      <c r="G67" s="2">
+        <v>95</v>
+      </c>
+      <c r="H67" s="2">
+        <v>7</v>
+      </c>
+      <c r="I67" s="2">
+        <v>2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B68" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2975,13 +3045,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2998,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>13</v>
@@ -3926,13 +3996,13 @@
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>43937</v>
       </c>
-      <c r="B39" s="13">
-        <v>0</v>
-      </c>
-      <c r="C39" s="13">
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
         <v>9</v>
       </c>
       <c r="D39" s="3">
@@ -3953,13 +4023,13 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>43938</v>
       </c>
-      <c r="B40" s="13">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
         <v>9</v>
       </c>
       <c r="D40" s="3">
@@ -3980,13 +4050,13 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>43939</v>
       </c>
-      <c r="B41" s="13">
-        <v>0</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
         <v>9</v>
       </c>
       <c r="D41" s="3">
@@ -4007,21 +4077,37 @@
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="10">
+        <v>43940</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3">
+        <v>7</v>
+      </c>
+      <c r="E42" s="7">
         <v>6</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2</v>
+      </c>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -4029,6 +4115,17 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -654,7 +654,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -906,10 +906,10 @@
         <v>146</v>
       </c>
       <c r="D10" s="4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="4">
         <v>8</v>
@@ -929,7 +929,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="7">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11" s="3">
         <v>111</v>
@@ -974,12 +974,30 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="10">
+        <v>43941</v>
+      </c>
+      <c r="B13" s="4">
+        <v>187</v>
+      </c>
+      <c r="C13" s="4">
+        <v>156</v>
+      </c>
+      <c r="D13" s="2">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2">
+        <v>96</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
@@ -1004,13 +1022,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2949,10 +2967,10 @@
         <v>166</v>
       </c>
       <c r="F65" s="4">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G65" s="4">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H65" s="4">
         <v>7</v>
@@ -2978,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="4">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F66" s="2">
         <v>104</v>
@@ -3001,13 +3019,13 @@
         <v>43940</v>
       </c>
       <c r="B67" s="11">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C67" s="7">
-        <v>1175</v>
+        <v>1211</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" s="4">
         <v>184</v>
@@ -3029,7 +3047,39 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="7" t="s">
+      <c r="A68" s="10">
+        <v>43941</v>
+      </c>
+      <c r="B68" s="11">
+        <v>16</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1227</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4">
+        <v>187</v>
+      </c>
+      <c r="F68" s="2">
+        <v>96</v>
+      </c>
+      <c r="G68" s="2">
+        <v>90</v>
+      </c>
+      <c r="H68" s="2">
+        <v>6</v>
+      </c>
+      <c r="I68" s="2">
+        <v>3</v>
+      </c>
+      <c r="J68" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B69" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3045,13 +3095,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3786,10 +3836,10 @@
         <v>43929</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3">
         <v>7</v>
@@ -3815,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3">
         <v>6</v>
@@ -3841,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3">
         <v>7</v>
@@ -3868,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3">
         <v>7</v>
@@ -3895,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="3">
         <v>7</v>
@@ -3922,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3">
         <v>7</v>
@@ -3949,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3">
         <v>7</v>
@@ -3973,10 +4023,10 @@
         <v>43936</v>
       </c>
       <c r="B38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3">
         <v>7</v>
@@ -4003,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3">
         <v>7</v>
@@ -4030,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D40" s="3">
         <v>7</v>
@@ -4057,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D41" s="3">
         <v>7</v>
@@ -4084,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D42" s="3">
         <v>7</v>
@@ -4104,21 +4154,37 @@
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="13">
+        <v>43941</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3">
+        <v>7</v>
+      </c>
+      <c r="E43" s="7">
         <v>6</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4</v>
+      </c>
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -4126,6 +4192,17 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -188,22 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※24・34・53・58・59・60例目は市外在住者です。</t>
-    <rPh sb="18" eb="19">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※24・34・53・58・59・60・161例目は市外在住者です。</t>
     <rPh sb="22" eb="23">
       <t>レイ</t>
@@ -231,6 +215,9 @@
       <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※24・34・53・58・59・60例目は市外在住者です。</t>
   </si>
 </sst>
 </file>
@@ -648,13 +635,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,13 +987,39 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
-        <v>16</v>
+      <c r="A14" s="10">
+        <v>43942</v>
+      </c>
+      <c r="B14" s="7">
+        <v>202</v>
+      </c>
+      <c r="C14" s="4">
+        <v>156</v>
+      </c>
+      <c r="D14" s="4">
+        <v>103</v>
+      </c>
+      <c r="E14" s="4">
+        <v>96</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1022,13 +1035,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2525,10 +2538,10 @@
         <v>507</v>
       </c>
       <c r="D52" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" s="3">
         <v>20</v>
@@ -2557,7 +2570,7 @@
         <v>517</v>
       </c>
       <c r="D53" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53" s="3">
         <v>51</v>
@@ -2929,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F64" s="7">
         <v>89</v>
@@ -2964,7 +2977,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="4">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F65" s="4">
         <v>101</v>
@@ -2996,7 +3009,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F66" s="2">
         <v>104</v>
@@ -3028,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F67" s="2">
         <v>102</v>
@@ -3054,13 +3067,13 @@
         <v>16</v>
       </c>
       <c r="C68" s="7">
-        <v>1227</v>
+        <v>1276</v>
       </c>
       <c r="D68" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E68" s="4">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F68" s="2">
         <v>96</v>
@@ -3079,8 +3092,40 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="7" t="s">
-        <v>15</v>
+      <c r="A69" s="10">
+        <v>43942</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1276</v>
+      </c>
+      <c r="D69" s="4">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4">
+        <v>202</v>
+      </c>
+      <c r="F69" s="2">
+        <v>96</v>
+      </c>
+      <c r="G69" s="2">
+        <v>90</v>
+      </c>
+      <c r="H69" s="2">
+        <v>6</v>
+      </c>
+      <c r="I69" s="2">
+        <v>3</v>
+      </c>
+      <c r="J69" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3098,10 +3143,10 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -188,22 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※24・34・53・58・59・60例目は市外在住者です。</t>
-    <rPh sb="18" eb="19">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※24・34・53・58・59・60・161例目は市外在住者です。</t>
     <rPh sb="22" eb="23">
       <t>レイ</t>
@@ -231,6 +215,9 @@
       <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※24・34・53・58・59・60例目は市外在住者です。</t>
   </si>
 </sst>
 </file>
@@ -648,13 +635,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -906,10 +893,10 @@
         <v>146</v>
       </c>
       <c r="D10" s="4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="4">
         <v>8</v>
@@ -929,7 +916,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="7">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11" s="3">
         <v>111</v>
@@ -974,21 +961,65 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="10">
+        <v>43941</v>
+      </c>
+      <c r="B13" s="4">
+        <v>187</v>
+      </c>
+      <c r="C13" s="4">
+        <v>156</v>
+      </c>
+      <c r="D13" s="2">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2">
+        <v>96</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
-        <v>16</v>
+      <c r="A14" s="10">
+        <v>43942</v>
+      </c>
+      <c r="B14" s="7">
+        <v>202</v>
+      </c>
+      <c r="C14" s="4">
+        <v>156</v>
+      </c>
+      <c r="D14" s="4">
+        <v>103</v>
+      </c>
+      <c r="E14" s="4">
+        <v>96</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1004,13 +1035,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2507,10 +2538,10 @@
         <v>507</v>
       </c>
       <c r="D52" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" s="3">
         <v>20</v>
@@ -2539,7 +2570,7 @@
         <v>517</v>
       </c>
       <c r="D53" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53" s="3">
         <v>51</v>
@@ -2911,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F64" s="7">
         <v>89</v>
@@ -2946,13 +2977,13 @@
         <v>12</v>
       </c>
       <c r="E65" s="4">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F65" s="4">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G65" s="4">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H65" s="4">
         <v>7</v>
@@ -3001,16 +3032,16 @@
         <v>43940</v>
       </c>
       <c r="B67" s="11">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C67" s="7">
-        <v>1175</v>
+        <v>1211</v>
       </c>
       <c r="D67" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F67" s="2">
         <v>102</v>
@@ -3029,8 +3060,72 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B68" s="7" t="s">
-        <v>15</v>
+      <c r="A68" s="10">
+        <v>43941</v>
+      </c>
+      <c r="B68" s="11">
+        <v>16</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1276</v>
+      </c>
+      <c r="D68" s="4">
+        <v>8</v>
+      </c>
+      <c r="E68" s="4">
+        <v>193</v>
+      </c>
+      <c r="F68" s="2">
+        <v>96</v>
+      </c>
+      <c r="G68" s="2">
+        <v>90</v>
+      </c>
+      <c r="H68" s="2">
+        <v>6</v>
+      </c>
+      <c r="I68" s="2">
+        <v>3</v>
+      </c>
+      <c r="J68" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="10">
+        <v>43942</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1276</v>
+      </c>
+      <c r="D69" s="4">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4">
+        <v>202</v>
+      </c>
+      <c r="F69" s="2">
+        <v>96</v>
+      </c>
+      <c r="G69" s="2">
+        <v>90</v>
+      </c>
+      <c r="H69" s="2">
+        <v>6</v>
+      </c>
+      <c r="I69" s="2">
+        <v>3</v>
+      </c>
+      <c r="J69" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3045,13 +3140,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3786,10 +3881,10 @@
         <v>43929</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3">
         <v>7</v>
@@ -3815,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3">
         <v>6</v>
@@ -3841,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3">
         <v>7</v>
@@ -3868,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3">
         <v>7</v>
@@ -3895,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="3">
         <v>7</v>
@@ -3922,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3">
         <v>7</v>
@@ -3949,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3">
         <v>7</v>
@@ -3973,10 +4068,10 @@
         <v>43936</v>
       </c>
       <c r="B38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3">
         <v>7</v>
@@ -4003,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3">
         <v>7</v>
@@ -4030,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D40" s="3">
         <v>7</v>
@@ -4057,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D41" s="3">
         <v>7</v>
@@ -4084,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D42" s="3">
         <v>7</v>
@@ -4104,21 +4199,37 @@
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="13">
+        <v>43941</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3">
+        <v>7</v>
+      </c>
+      <c r="E43" s="7">
         <v>6</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4</v>
+      </c>
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -4126,6 +4237,17 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -188,22 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※24・34・53・58・59・60・161例目は市外在住者です。</t>
-    <rPh sb="22" eb="23">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※34件調査中</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
@@ -218,6 +202,22 @@
   </si>
   <si>
     <t>※24・34・53・58・59・60例目は市外在住者です。</t>
+  </si>
+  <si>
+    <t>※24・34・53・58・59・60・158・161・163・192例目は市外在住者です。</t>
+    <rPh sb="34" eb="35">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ザイジュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -638,10 +638,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -994,16 +994,16 @@
         <v>202</v>
       </c>
       <c r="C14" s="4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D14" s="4">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E14" s="4">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F14" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" s="4">
         <v>3</v>
@@ -1014,12 +1014,12 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1038,10 +1038,10 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3064,7 +3064,7 @@
         <v>43941</v>
       </c>
       <c r="B68" s="11">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C68" s="7">
         <v>1276</v>
@@ -3108,13 +3108,13 @@
         <v>202</v>
       </c>
       <c r="F69" s="2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G69" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H69" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I69" s="2">
         <v>3</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3143,7 +3143,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H43" sqref="H43"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -188,19 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※34件調査中</t>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※24・34・53・58・59・60例目は市外在住者です。</t>
   </si>
   <si>
@@ -216,6 +203,19 @@
     </rPh>
     <rPh sb="39" eb="42">
       <t>ザイジュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※41件調査中</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -635,13 +635,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,13 +1013,39 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
-        <v>17</v>
+      <c r="A15" s="10">
+        <v>43943</v>
+      </c>
+      <c r="B15" s="7">
+        <v>213</v>
+      </c>
+      <c r="C15" s="4">
+        <v>185</v>
+      </c>
+      <c r="D15" s="4">
+        <v>118</v>
+      </c>
+      <c r="E15" s="4">
+        <v>108</v>
+      </c>
+      <c r="F15" s="4">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1035,13 +1061,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
+      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3096,16 +3122,16 @@
         <v>43942</v>
       </c>
       <c r="B69" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C69" s="7">
-        <v>1276</v>
+        <v>1366</v>
       </c>
       <c r="D69" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E69" s="4">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F69" s="2">
         <v>105</v>
@@ -3124,8 +3150,40 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="1" t="s">
-        <v>16</v>
+      <c r="A70" s="10">
+        <v>43943</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1366</v>
+      </c>
+      <c r="D70" s="4">
+        <v>6</v>
+      </c>
+      <c r="E70" s="4">
+        <v>213</v>
+      </c>
+      <c r="F70" s="2">
+        <v>111</v>
+      </c>
+      <c r="G70" s="2">
+        <v>102</v>
+      </c>
+      <c r="H70" s="2">
+        <v>9</v>
+      </c>
+      <c r="I70" s="2">
+        <v>3</v>
+      </c>
+      <c r="J70" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B71" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3140,13 +3198,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4226,28 +4284,82 @@
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="10">
+        <v>43942</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3">
+        <v>7</v>
+      </c>
+      <c r="E44" s="7">
         <v>6</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4</v>
+      </c>
       <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="A45" s="13">
+        <v>43943</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3">
+        <v>7</v>
+      </c>
+      <c r="E45" s="7">
+        <v>6</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4</v>
+      </c>
       <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$64</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -207,7 +207,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※41件調査中</t>
+    <t>※35件調査中</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -635,13 +635,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1039,12 +1039,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
-        <v>16</v>
+      <c r="A16" s="10">
+        <v>43944</v>
+      </c>
+      <c r="B16" s="7">
+        <v>225</v>
+      </c>
+      <c r="C16" s="4">
+        <v>190</v>
+      </c>
+      <c r="D16" s="4">
+        <v>123</v>
+      </c>
+      <c r="E16" s="4">
+        <v>113</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1061,13 +1087,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2592,7 +2618,8 @@
       <c r="B53" s="11">
         <v>10</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="7">
+        <f t="shared" ref="C53:C64" si="0">C52+B53</f>
         <v>517</v>
       </c>
       <c r="D53" s="11">
@@ -2624,7 +2651,8 @@
       <c r="B54" s="11">
         <v>25</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="7">
+        <f t="shared" si="0"/>
         <v>542</v>
       </c>
       <c r="D54" s="11">
@@ -2656,7 +2684,8 @@
       <c r="B55" s="11">
         <v>40</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="7">
+        <f t="shared" si="0"/>
         <v>582</v>
       </c>
       <c r="D55" s="11">
@@ -2688,7 +2717,8 @@
       <c r="B56" s="11">
         <v>43</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="7">
+        <f t="shared" si="0"/>
         <v>625</v>
       </c>
       <c r="D56" s="11">
@@ -2722,7 +2752,8 @@
       <c r="B57" s="11">
         <v>63</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="7">
+        <f t="shared" si="0"/>
         <v>688</v>
       </c>
       <c r="D57" s="11">
@@ -2756,7 +2787,8 @@
       <c r="B58" s="11">
         <v>30</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="7">
+        <f t="shared" si="0"/>
         <v>718</v>
       </c>
       <c r="D58" s="7">
@@ -2790,7 +2822,8 @@
       <c r="B59" s="11">
         <v>25</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="7">
+        <f t="shared" si="0"/>
         <v>743</v>
       </c>
       <c r="D59" s="7">
@@ -2824,7 +2857,8 @@
       <c r="B60" s="11">
         <v>47</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="7">
+        <f t="shared" si="0"/>
         <v>790</v>
       </c>
       <c r="D60" s="7">
@@ -2858,7 +2892,8 @@
       <c r="B61" s="11">
         <v>90</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="7">
+        <f t="shared" si="0"/>
         <v>880</v>
       </c>
       <c r="D61" s="7">
@@ -2892,7 +2927,8 @@
       <c r="B62" s="11">
         <v>69</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="7">
+        <f t="shared" si="0"/>
         <v>949</v>
       </c>
       <c r="D62" s="7">
@@ -2927,6 +2963,7 @@
         <v>56</v>
       </c>
       <c r="C63" s="7">
+        <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="D63" s="7">
@@ -2961,7 +2998,7 @@
         <v>82</v>
       </c>
       <c r="C64" s="7">
-        <f>C63+B64</f>
+        <f t="shared" si="0"/>
         <v>1087</v>
       </c>
       <c r="D64" s="7">
@@ -2996,7 +3033,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="7">
-        <f>C64+B65</f>
+        <f t="shared" ref="C65:C71" si="1">C64+B65</f>
         <v>1139</v>
       </c>
       <c r="D65" s="4">
@@ -3029,6 +3066,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="7">
+        <f t="shared" si="1"/>
         <v>1168</v>
       </c>
       <c r="D66" s="4">
@@ -3061,6 +3099,7 @@
         <v>43</v>
       </c>
       <c r="C67" s="7">
+        <f t="shared" si="1"/>
         <v>1211</v>
       </c>
       <c r="D67" s="4">
@@ -3093,6 +3132,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="7">
+        <f t="shared" si="1"/>
         <v>1276</v>
       </c>
       <c r="D68" s="4">
@@ -3125,6 +3165,7 @@
         <v>90</v>
       </c>
       <c r="C69" s="7">
+        <f t="shared" si="1"/>
         <v>1366</v>
       </c>
       <c r="D69" s="4">
@@ -3154,16 +3195,17 @@
         <v>43943</v>
       </c>
       <c r="B70" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C70" s="7">
-        <v>1366</v>
+        <f t="shared" si="1"/>
+        <v>1434</v>
       </c>
       <c r="D70" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E70" s="4">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F70" s="2">
         <v>111</v>
@@ -3182,7 +3224,38 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="10">
+        <v>43944</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7">
+        <f t="shared" si="1"/>
+        <v>1434</v>
+      </c>
+      <c r="D71" s="4">
+        <v>7</v>
+      </c>
+      <c r="E71" s="4">
+        <v>225</v>
+      </c>
+      <c r="F71" s="2">
+        <v>116</v>
+      </c>
+      <c r="G71" s="2">
+        <v>107</v>
+      </c>
+      <c r="H71" s="2">
+        <v>9</v>
+      </c>
+      <c r="I71" s="2">
+        <v>3</v>
+      </c>
+      <c r="J71" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3198,13 +3271,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4338,21 +4411,37 @@
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="10">
+        <v>43944</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>11</v>
+      </c>
+      <c r="D46" s="3">
+        <v>7</v>
+      </c>
+      <c r="E46" s="7">
         <v>6</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4</v>
+      </c>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -4360,6 +4449,17 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -638,10 +638,10 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1046,13 +1046,13 @@
         <v>225</v>
       </c>
       <c r="C16" s="4">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D16" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16" s="4">
         <v>10</v>
@@ -1061,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
@@ -1090,10 +1090,10 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3227,10 +3227,12 @@
       <c r="A71" s="10">
         <v>43944</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="7">
+        <v>113</v>
+      </c>
       <c r="C71" s="7">
         <f t="shared" si="1"/>
-        <v>1434</v>
+        <v>1547</v>
       </c>
       <c r="D71" s="4">
         <v>7</v>
@@ -3239,10 +3241,10 @@
         <v>225</v>
       </c>
       <c r="F71" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G71" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H71" s="2">
         <v>9</v>
@@ -3251,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
@@ -3274,10 +3276,10 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I51" sqref="I51"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$64</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -207,7 +207,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※41件調査中</t>
+    <t>※35件調査中</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -635,13 +635,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1039,12 +1039,38 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
-        <v>16</v>
+      <c r="A16" s="10">
+        <v>43944</v>
+      </c>
+      <c r="B16" s="7">
+        <v>225</v>
+      </c>
+      <c r="C16" s="4">
+        <v>196</v>
+      </c>
+      <c r="D16" s="4">
+        <v>125</v>
+      </c>
+      <c r="E16" s="4">
+        <v>115</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1061,13 +1087,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2592,7 +2618,8 @@
       <c r="B53" s="11">
         <v>10</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="7">
+        <f t="shared" ref="C53:C64" si="0">C52+B53</f>
         <v>517</v>
       </c>
       <c r="D53" s="11">
@@ -2624,7 +2651,8 @@
       <c r="B54" s="11">
         <v>25</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="7">
+        <f t="shared" si="0"/>
         <v>542</v>
       </c>
       <c r="D54" s="11">
@@ -2656,7 +2684,8 @@
       <c r="B55" s="11">
         <v>40</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="7">
+        <f t="shared" si="0"/>
         <v>582</v>
       </c>
       <c r="D55" s="11">
@@ -2688,7 +2717,8 @@
       <c r="B56" s="11">
         <v>43</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="7">
+        <f t="shared" si="0"/>
         <v>625</v>
       </c>
       <c r="D56" s="11">
@@ -2722,7 +2752,8 @@
       <c r="B57" s="11">
         <v>63</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="7">
+        <f t="shared" si="0"/>
         <v>688</v>
       </c>
       <c r="D57" s="11">
@@ -2756,7 +2787,8 @@
       <c r="B58" s="11">
         <v>30</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="7">
+        <f t="shared" si="0"/>
         <v>718</v>
       </c>
       <c r="D58" s="7">
@@ -2790,7 +2822,8 @@
       <c r="B59" s="11">
         <v>25</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="7">
+        <f t="shared" si="0"/>
         <v>743</v>
       </c>
       <c r="D59" s="7">
@@ -2824,7 +2857,8 @@
       <c r="B60" s="11">
         <v>47</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="7">
+        <f t="shared" si="0"/>
         <v>790</v>
       </c>
       <c r="D60" s="7">
@@ -2858,7 +2892,8 @@
       <c r="B61" s="11">
         <v>90</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="7">
+        <f t="shared" si="0"/>
         <v>880</v>
       </c>
       <c r="D61" s="7">
@@ -2892,7 +2927,8 @@
       <c r="B62" s="11">
         <v>69</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="7">
+        <f t="shared" si="0"/>
         <v>949</v>
       </c>
       <c r="D62" s="7">
@@ -2927,6 +2963,7 @@
         <v>56</v>
       </c>
       <c r="C63" s="7">
+        <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="D63" s="7">
@@ -2961,7 +2998,7 @@
         <v>82</v>
       </c>
       <c r="C64" s="7">
-        <f>C63+B64</f>
+        <f t="shared" si="0"/>
         <v>1087</v>
       </c>
       <c r="D64" s="7">
@@ -2996,7 +3033,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="7">
-        <f>C64+B65</f>
+        <f t="shared" ref="C65:C71" si="1">C64+B65</f>
         <v>1139</v>
       </c>
       <c r="D65" s="4">
@@ -3029,6 +3066,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="7">
+        <f t="shared" si="1"/>
         <v>1168</v>
       </c>
       <c r="D66" s="4">
@@ -3061,6 +3099,7 @@
         <v>43</v>
       </c>
       <c r="C67" s="7">
+        <f t="shared" si="1"/>
         <v>1211</v>
       </c>
       <c r="D67" s="4">
@@ -3093,6 +3132,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="7">
+        <f t="shared" si="1"/>
         <v>1276</v>
       </c>
       <c r="D68" s="4">
@@ -3125,6 +3165,7 @@
         <v>90</v>
       </c>
       <c r="C69" s="7">
+        <f t="shared" si="1"/>
         <v>1366</v>
       </c>
       <c r="D69" s="4">
@@ -3154,16 +3195,17 @@
         <v>43943</v>
       </c>
       <c r="B70" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C70" s="7">
-        <v>1366</v>
+        <f t="shared" si="1"/>
+        <v>1434</v>
       </c>
       <c r="D70" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E70" s="4">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F70" s="2">
         <v>111</v>
@@ -3182,7 +3224,40 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="10">
+        <v>43944</v>
+      </c>
+      <c r="B71" s="7">
+        <v>113</v>
+      </c>
+      <c r="C71" s="7">
+        <f t="shared" si="1"/>
+        <v>1547</v>
+      </c>
+      <c r="D71" s="4">
+        <v>7</v>
+      </c>
+      <c r="E71" s="4">
+        <v>225</v>
+      </c>
+      <c r="F71" s="2">
+        <v>118</v>
+      </c>
+      <c r="G71" s="2">
+        <v>109</v>
+      </c>
+      <c r="H71" s="2">
+        <v>9</v>
+      </c>
+      <c r="I71" s="2">
+        <v>3</v>
+      </c>
+      <c r="J71" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3198,13 +3273,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4338,21 +4413,37 @@
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="10">
+        <v>43944</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>11</v>
+      </c>
+      <c r="D46" s="3">
+        <v>7</v>
+      </c>
+      <c r="E46" s="7">
         <v>6</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4</v>
+      </c>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -4360,6 +4451,17 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$64</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -188,9 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※24・34・53・58・59・60例目は市外在住者です。</t>
-  </si>
-  <si>
     <t>※24・34・53・58・59・60・158・161・163・192例目は市外在住者です。</t>
     <rPh sb="34" eb="35">
       <t>レイ</t>
@@ -219,12 +216,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>※24・34・53・58・59・60・158・161・163・192例目は市外在住者です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,14 +255,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,11 +278,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -299,12 +289,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -635,443 +619,469 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="20.125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="20.125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>43930</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>76</v>
       </c>
-      <c r="C2" s="7">
-        <v>88</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="4">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2">
         <v>62</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>57</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>43931</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>90</v>
       </c>
       <c r="C3" s="4">
         <v>102</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>75</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>69</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>6</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>43932</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>113</v>
       </c>
       <c r="C4" s="4">
         <v>107</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>79</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>74</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>43933</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>121</v>
       </c>
       <c r="C5" s="4">
         <v>115</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>85</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>80</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>43934</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>128</v>
       </c>
       <c r="C6" s="4">
         <v>124</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>93</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>85</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>43935</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>138</v>
       </c>
       <c r="C7" s="4">
         <v>128</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>95</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>88</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>43936</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>141</v>
       </c>
       <c r="C8" s="4">
         <v>133</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>95</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>88</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>43937</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>157</v>
       </c>
       <c r="C9" s="4">
         <v>134</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>96</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>89</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>43938</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>166</v>
       </c>
       <c r="C10" s="4">
         <v>146</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>108</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>8</v>
       </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>43939</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>179</v>
       </c>
-      <c r="C11" s="7">
-        <v>146</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="4">
+        <v>149</v>
+      </c>
+      <c r="D11" s="2">
         <v>111</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>103</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>8</v>
       </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>43940</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>184</v>
       </c>
-      <c r="C12" s="7">
-        <v>150</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="4">
+        <v>152</v>
+      </c>
+      <c r="D12" s="2">
         <v>109</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>101</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>43941</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>187</v>
       </c>
       <c r="C13" s="4">
-        <v>156</v>
-      </c>
-      <c r="D13" s="2">
+        <v>160</v>
+      </c>
+      <c r="D13" s="1">
         <v>103</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>96</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>7</v>
       </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>43942</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>202</v>
       </c>
       <c r="C14" s="4">
-        <v>168</v>
-      </c>
-      <c r="D14" s="4">
+        <v>169</v>
+      </c>
+      <c r="D14" s="3">
         <v>112</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>104</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>8</v>
       </c>
-      <c r="G14" s="4">
-        <v>3</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>43943</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>213</v>
       </c>
       <c r="C15" s="4">
-        <v>185</v>
-      </c>
-      <c r="D15" s="4">
+        <v>186</v>
+      </c>
+      <c r="D15" s="3">
         <v>118</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>108</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>10</v>
       </c>
-      <c r="G15" s="4">
-        <v>3</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>43944</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>225</v>
       </c>
       <c r="C16" s="4">
-        <v>196</v>
-      </c>
-      <c r="D16" s="4">
+        <v>197</v>
+      </c>
+      <c r="D16" s="3">
         <v>125</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>115</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>10</v>
       </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>43945</v>
+      </c>
+      <c r="B17" s="4">
+        <v>242</v>
+      </c>
+      <c r="C17" s="4">
+        <v>211</v>
+      </c>
+      <c r="D17" s="3">
+        <v>122</v>
+      </c>
+      <c r="E17" s="3">
+        <v>112</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1087,1992 +1097,1897 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
-    <col min="3" max="10" width="20.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="4" customWidth="1"/>
+    <col min="3" max="10" width="20.25" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="4"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>43875</v>
       </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
         <f>B2</f>
         <v>2</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>43876</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>43877</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>43878</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>43879</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>43880</v>
       </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>43881</v>
       </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>43882</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>13</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>43883</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>43884</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>43885</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
         <v>18</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>43886</v>
       </c>
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
         <v>21</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>43887</v>
       </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
         <v>23</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>43888</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>5</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>28</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>43889</v>
       </c>
-      <c r="B16" s="3">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
         <v>31</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>43890</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>32</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>43891</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
         <v>32</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>43892</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>44</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>43893</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>11</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>55</v>
       </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>43894</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>60</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>43895</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>10</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>70</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
+      <c r="A23" s="7">
         <v>43896</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>18</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>88</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>43897</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
         <v>89</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>43898</v>
       </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
         <v>91</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>43899</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>28</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>119</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
         <v>4</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
         <v>43900</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>16</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>135</v>
       </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
         <v>6</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>6</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>43901</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>16</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>151</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>10</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>10</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
+      <c r="A29" s="7">
         <v>43902</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="8">
         <v>14</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>165</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>14</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>14</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>43903</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="8">
         <v>24</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <v>189</v>
       </c>
-      <c r="D30" s="11">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="8">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
         <v>16</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>16</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>43904</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>16</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <v>205</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>4</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>20</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>20</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <v>43905</v>
       </c>
-      <c r="B32" s="11">
-        <v>2</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8">
         <v>207</v>
       </c>
-      <c r="D32" s="11">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>21</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>20</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
+      <c r="A33" s="7">
         <v>43906</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="8">
         <v>23</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <v>230</v>
       </c>
-      <c r="D33" s="11">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
         <v>23</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>22</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="7">
         <v>43907</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="8">
         <v>21</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="8">
         <v>251</v>
       </c>
-      <c r="D34" s="11">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
         <v>24</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>21</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="10">
+      <c r="A35" s="7">
         <v>43908</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="8">
         <v>16</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="8">
         <v>267</v>
       </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
         <v>24</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>20</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="10">
+      <c r="A36" s="7">
         <v>43909</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>19</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <v>286</v>
       </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
         <v>24</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>19</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="10">
+      <c r="A37" s="7">
         <v>43910</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>10</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <v>296</v>
       </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
         <v>24</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>17</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>43911</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="8">
         <v>4</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="8">
         <v>300</v>
       </c>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
         <v>24</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>17</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="10">
+      <c r="A39" s="7">
         <v>43912</v>
       </c>
-      <c r="B39" s="11">
-        <v>3</v>
-      </c>
-      <c r="C39" s="11">
+      <c r="B39" s="8">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8">
         <v>303</v>
       </c>
-      <c r="D39" s="11">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
         <v>24</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>17</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="10">
+      <c r="A40" s="7">
         <v>43913</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="8">
         <v>24</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="8">
         <v>327</v>
       </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
         <v>24</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>17</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="10">
+      <c r="A41" s="7">
         <v>43914</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="8">
         <v>22</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="8">
         <v>349</v>
       </c>
-      <c r="D41" s="11">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
         <v>24</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>15</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="4">
         <v>13</v>
       </c>
-      <c r="H41" s="7">
-        <v>2</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="H41" s="4">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <v>43915</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="8">
         <v>10</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="8">
         <v>359</v>
       </c>
-      <c r="D42" s="11">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="8">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
         <v>24</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>12</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="4">
         <v>10</v>
       </c>
-      <c r="H42" s="7">
-        <v>2</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="H42" s="4">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="10">
+      <c r="A43" s="7">
         <v>43916</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="8">
         <v>17</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="8">
         <v>376</v>
       </c>
-      <c r="D43" s="11">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
         <v>25</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>9</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="4">
         <v>7</v>
       </c>
-      <c r="H43" s="7">
-        <v>2</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="H43" s="4">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="10">
+      <c r="A44" s="7">
         <v>43917</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="8">
         <v>13</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="8">
         <v>389</v>
       </c>
-      <c r="D44" s="11">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
         <v>26</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>11</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="4">
         <v>10</v>
       </c>
-      <c r="H44" s="7">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="10">
+      <c r="A45" s="7">
         <v>43918</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="8">
         <v>6</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="8">
         <v>395</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="8">
         <v>5</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>31</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>11</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="4">
         <v>10</v>
       </c>
-      <c r="H45" s="7">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
+      <c r="A46" s="7">
         <v>43919</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="8">
         <v>5</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="8">
         <v>400</v>
       </c>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
         <v>31</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>13</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="4">
         <v>12</v>
       </c>
-      <c r="H46" s="7">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="10">
+      <c r="A47" s="7">
         <v>43920</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="8">
         <v>17</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="8">
         <v>417</v>
       </c>
-      <c r="D47" s="11">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="8">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
         <v>31</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>13</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="4">
         <v>12</v>
       </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="10">
+      <c r="A48" s="7">
         <v>43921</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="8">
         <v>11</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="8">
         <v>428</v>
       </c>
-      <c r="D48" s="11">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="8">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
         <v>33</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>13</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="4">
         <v>11</v>
       </c>
-      <c r="H48" s="7">
-        <v>2</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="H48" s="4">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="10">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
         <v>43922</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="8">
         <v>20</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="8">
         <v>448</v>
       </c>
-      <c r="D49" s="11">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
         <v>34</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>13</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="4">
         <v>11</v>
       </c>
-      <c r="H49" s="7">
-        <v>2</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="H49" s="4">
+        <v>2</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="10">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
         <v>43923</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="8">
         <v>17</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="8">
         <v>465</v>
       </c>
-      <c r="D50" s="11">
-        <v>3</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50" s="8">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
         <v>37</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>14</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="4">
         <v>12</v>
       </c>
-      <c r="H50" s="7">
-        <v>2</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3">
+      <c r="H50" s="4">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="10">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
         <v>43924</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="8">
         <v>18</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="8">
         <v>483</v>
       </c>
-      <c r="D51" s="11">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D51" s="8">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
         <v>39</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>17</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="4">
         <v>15</v>
       </c>
-      <c r="H51" s="7">
-        <v>2</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3">
+      <c r="H51" s="4">
+        <v>2</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="10">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
         <v>43925</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="8">
         <v>24</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="8">
         <v>507</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="8">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>43</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>20</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="4">
         <v>18</v>
       </c>
-      <c r="H52" s="7">
-        <v>2</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="H52" s="4">
+        <v>2</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="10">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
         <v>43926</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="8">
         <v>10</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <f t="shared" ref="C53:C64" si="0">C52+B53</f>
         <v>517</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="8">
         <v>8</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>51</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>25</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="4">
         <v>22</v>
       </c>
-      <c r="H53" s="7">
-        <v>3</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
+      <c r="H53" s="4">
+        <v>3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="10">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
         <v>43927</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="8">
         <v>25</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="8">
         <v>5</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>56</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>34</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="4">
         <v>30</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="4">
         <v>4</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
         <v>43928</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="8">
         <v>40</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>582</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="8">
         <v>12</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>68</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>37</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="4">
         <v>33</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="4">
         <v>4</v>
       </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3">
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="10">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
         <v>43929</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="8">
         <v>43</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="4">
         <f t="shared" si="0"/>
         <v>625</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="8">
         <v>10</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>78</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>47</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="4">
         <v>43</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="4">
         <v>4</v>
       </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3">
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
         <v>23</v>
       </c>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="10">
+    </row>
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
         <v>43930</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="8">
         <v>63</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="4">
         <f t="shared" si="0"/>
         <v>688</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="8">
         <v>12</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>90</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>56</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="4">
         <v>52</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="4">
         <v>4</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
         <v>25</v>
       </c>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10">
+    </row>
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
         <v>43931</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="8">
         <v>30</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <f t="shared" si="0"/>
         <v>718</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="4">
         <v>9</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="4">
         <v>99</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="4">
         <v>68</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="4">
         <v>63</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="4">
         <v>5</v>
       </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7">
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
         <v>25</v>
       </c>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="10">
+    </row>
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
         <v>43932</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="8">
         <v>25</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="4">
         <f t="shared" si="0"/>
         <v>743</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="4">
         <v>21</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="4">
         <v>120</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="4">
         <v>72</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="4">
         <v>68</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="4">
         <v>4</v>
       </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7">
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
         <v>26</v>
       </c>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="10">
+    </row>
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="7">
         <v>43933</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="8">
         <v>47</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <f t="shared" si="0"/>
         <v>790</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="4">
         <v>7</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="4">
         <v>127</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="4">
         <v>78</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="4">
         <v>74</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="4">
         <v>4</v>
       </c>
-      <c r="I60" s="7">
-        <v>1</v>
-      </c>
-      <c r="J60" s="7">
+      <c r="I60" s="4">
+        <v>1</v>
+      </c>
+      <c r="J60" s="4">
         <v>27</v>
       </c>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="10">
+    </row>
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
         <v>43934</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="8">
         <v>90</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="4">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="4">
         <v>8</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="4">
         <v>135</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="4">
         <v>86</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="4">
         <v>79</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="4">
         <v>7</v>
       </c>
-      <c r="I61" s="7">
-        <v>1</v>
-      </c>
-      <c r="J61" s="7">
+      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4">
         <v>28</v>
       </c>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-    </row>
-    <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="10">
+    </row>
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="7">
         <v>43935</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="8">
         <v>69</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <f t="shared" si="0"/>
         <v>949</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="4">
         <v>7</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="4">
         <v>142</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="4">
         <v>88</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="4">
         <v>82</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="4">
         <v>6</v>
       </c>
-      <c r="I62" s="7">
-        <v>2</v>
-      </c>
-      <c r="J62" s="7">
+      <c r="I62" s="4">
+        <v>2</v>
+      </c>
+      <c r="J62" s="4">
         <v>29</v>
       </c>
-      <c r="K62" s="5"/>
-      <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="10">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="7">
         <v>43936</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="8">
         <v>56</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="4">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="4">
         <v>13</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="4">
         <v>155</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="4">
         <v>88</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="4">
         <v>82</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="4">
         <v>6</v>
       </c>
-      <c r="I63" s="7">
-        <v>2</v>
-      </c>
-      <c r="J63" s="7">
+      <c r="I63" s="4">
+        <v>2</v>
+      </c>
+      <c r="J63" s="4">
         <v>34</v>
       </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="6"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="10">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="7">
         <v>43937</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>82</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="4">
         <f t="shared" si="0"/>
         <v>1087</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="4">
         <v>6</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="4">
         <v>161</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="4">
         <v>89</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="4">
         <v>83</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="4">
         <v>6</v>
       </c>
-      <c r="I64" s="7">
-        <v>2</v>
-      </c>
-      <c r="J64" s="7">
+      <c r="I64" s="4">
+        <v>2</v>
+      </c>
+      <c r="J64" s="4">
         <v>34</v>
       </c>
-      <c r="K64" s="4"/>
-      <c r="L64" s="6"/>
+      <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="10">
+      <c r="A65" s="7">
         <v>43938</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="8">
         <v>52</v>
       </c>
-      <c r="C65" s="7">
-        <f t="shared" ref="C65:C71" si="1">C64+B65</f>
+      <c r="C65" s="4">
+        <f t="shared" ref="C65:C72" si="1">C64+B65</f>
         <v>1139</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>12</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>173</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>101</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>94</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <v>7</v>
       </c>
-      <c r="I65" s="4">
-        <v>2</v>
-      </c>
-      <c r="J65" s="4">
+      <c r="I65" s="3">
+        <v>2</v>
+      </c>
+      <c r="J65" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="10">
+      <c r="A66" s="7">
         <v>43939</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="8">
         <v>29</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="4">
         <f t="shared" si="1"/>
         <v>1168</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>9</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>182</v>
       </c>
       <c r="F66" s="2">
@@ -3092,20 +3007,20 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="10">
+      <c r="A67" s="7">
         <v>43940</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="8">
         <v>43</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="4">
         <f t="shared" si="1"/>
         <v>1211</v>
       </c>
-      <c r="D67" s="4">
-        <v>3</v>
-      </c>
-      <c r="E67" s="4">
+      <c r="D67" s="3">
+        <v>3</v>
+      </c>
+      <c r="E67" s="3">
         <v>185</v>
       </c>
       <c r="F67" s="2">
@@ -3125,20 +3040,20 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="10">
+      <c r="A68" s="7">
         <v>43941</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="8">
         <v>65</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="4">
         <f t="shared" si="1"/>
         <v>1276</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>8</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>193</v>
       </c>
       <c r="F68" s="2">
@@ -3158,20 +3073,20 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="10">
+      <c r="A69" s="7">
         <v>43942</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="4">
         <v>90</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="4">
         <f t="shared" si="1"/>
         <v>1366</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>14</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>207</v>
       </c>
       <c r="F69" s="2">
@@ -3191,20 +3106,20 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="10">
+      <c r="A70" s="7">
         <v>43943</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="4">
         <v>68</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="4">
         <f t="shared" si="1"/>
         <v>1434</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>11</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>218</v>
       </c>
       <c r="F70" s="2">
@@ -3224,21 +3139,21 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="10">
+      <c r="A71" s="7">
         <v>43944</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="4">
         <v>113</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="4">
         <f t="shared" si="1"/>
         <v>1547</v>
       </c>
-      <c r="D71" s="4">
-        <v>7</v>
-      </c>
-      <c r="E71" s="4">
-        <v>225</v>
+      <c r="D71" s="3">
+        <v>22</v>
+      </c>
+      <c r="E71" s="3">
+        <v>240</v>
       </c>
       <c r="F71" s="2">
         <v>118</v>
@@ -3257,8 +3172,40 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="1" t="s">
-        <v>15</v>
+      <c r="A72" s="7">
+        <v>43945</v>
+      </c>
+      <c r="B72" s="8">
+        <v>49</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1596</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="4">
+        <v>227</v>
+      </c>
+      <c r="F72" s="2">
+        <v>116</v>
+      </c>
+      <c r="G72" s="2">
+        <v>107</v>
+      </c>
+      <c r="H72" s="2">
+        <v>9</v>
+      </c>
+      <c r="I72" s="2">
+        <v>3</v>
+      </c>
+      <c r="J72" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B73" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3273,1195 +3220,1222 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="20.75" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="8" width="20.75" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>43900</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>43901</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>43902</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>43903</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>43904</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>43905</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>43906</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>43907</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>43908</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>43909</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>43910</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>43911</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>43912</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>43913</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>43914</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>43915</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>43916</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>43917</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>43918</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>43919</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>43920</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
+      <c r="A23" s="7">
         <v>43921</v>
       </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>5</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="4">
         <v>4</v>
       </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>43922</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
         <v>6</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>5</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="4">
         <v>4</v>
       </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>43923</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
         <v>6</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>5</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="4">
         <v>4</v>
       </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>43924</v>
       </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
         <v>6</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>5</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
         <v>43925</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
         <v>6</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>5</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <v>4</v>
       </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>43926</v>
       </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
         <v>6</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>5</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="4">
         <v>4</v>
       </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
+      <c r="A29" s="7">
         <v>43927</v>
       </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
         <v>6</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>5</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="4">
         <v>4</v>
       </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>43928</v>
       </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
         <v>6</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>5</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="4">
         <v>4</v>
       </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>43929</v>
       </c>
-      <c r="B31" s="3">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
         <v>9</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>7</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="4">
         <v>6</v>
       </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <v>43930</v>
       </c>
-      <c r="B32" s="3">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
         <v>9</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>6</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="4">
         <v>5</v>
       </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
+      <c r="A33" s="7">
         <v>43931</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
         <v>10</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>7</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="4">
         <v>6</v>
       </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2</v>
-      </c>
-      <c r="I33" s="7"/>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="7">
         <v>43932</v>
       </c>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
         <v>10</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>7</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="4">
         <v>6</v>
       </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2</v>
-      </c>
-      <c r="I34" s="7"/>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="10">
+      <c r="A35" s="7">
         <v>43933</v>
       </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
         <v>10</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>7</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="4">
         <v>6</v>
       </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-      <c r="I35" s="7"/>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="10">
+      <c r="A36" s="7">
         <v>43934</v>
       </c>
-      <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
         <v>10</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>7</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="4">
         <v>6</v>
       </c>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>2</v>
-      </c>
-      <c r="I36" s="7"/>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="10">
+      <c r="A37" s="7">
         <v>43935</v>
       </c>
-      <c r="B37" s="3">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
         <v>10</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>7</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="4">
         <v>6</v>
       </c>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7"/>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>43936</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
         <v>11</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>7</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="4">
         <v>6</v>
       </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7"/>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="13">
+      <c r="A39" s="10">
         <v>43937</v>
       </c>
-      <c r="B39" s="3">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
         <v>11</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>7</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="4">
         <v>6</v>
       </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2</v>
-      </c>
-      <c r="I39" s="7"/>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="13">
+      <c r="A40" s="10">
         <v>43938</v>
       </c>
-      <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
         <v>11</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>7</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="4">
         <v>6</v>
       </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="7"/>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2</v>
+      </c>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="13">
+      <c r="A41" s="10">
         <v>43939</v>
       </c>
-      <c r="B41" s="3">
-        <v>0</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
         <v>11</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>7</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="4">
         <v>6</v>
       </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2</v>
-      </c>
-      <c r="I41" s="7"/>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2</v>
+      </c>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <v>43940</v>
       </c>
-      <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
         <v>11</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>7</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="4">
         <v>6</v>
       </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>2</v>
-      </c>
-      <c r="I42" s="7"/>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2</v>
+      </c>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="13">
+      <c r="A43" s="10">
         <v>43941</v>
       </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
         <v>11</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>7</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="4">
         <v>6</v>
       </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
         <v>4</v>
       </c>
-      <c r="I43" s="7"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="10">
+      <c r="A44" s="7">
         <v>43942</v>
       </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
         <v>11</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>7</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="4">
         <v>6</v>
       </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
         <v>4</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="13">
+      <c r="A45" s="10">
         <v>43943</v>
       </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
         <v>11</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>7</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="4">
         <v>6</v>
       </c>
-      <c r="F45" s="7">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
         <v>4</v>
       </c>
-      <c r="I45" s="7"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
+      <c r="A46" s="7">
         <v>43944</v>
       </c>
-      <c r="B46" s="3">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
         <v>11</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>7</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="4">
         <v>6</v>
       </c>
-      <c r="F46" s="7">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
         <v>4</v>
       </c>
-      <c r="I46" s="7"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="7">
+        <v>43945</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2">
         <v>6</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="E47" s="4">
+        <v>5</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>5</v>
+      </c>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -218,6 +218,13 @@
   </si>
   <si>
     <t>※24・34・53・58・59・60・158・161・163・192例目は市外在住者です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院・入居中</t>
+    <rPh sb="3" eb="6">
+      <t>ニュウキョチュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,13 +626,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
@@ -1075,12 +1082,38 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
-        <v>15</v>
+      <c r="A18" s="7">
+        <v>43946</v>
+      </c>
+      <c r="B18" s="4">
+        <v>247</v>
+      </c>
+      <c r="C18" s="4">
+        <v>211</v>
+      </c>
+      <c r="D18" s="3">
+        <v>122</v>
+      </c>
+      <c r="E18" s="3">
+        <v>112</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1097,13 +1130,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2948,7 +2981,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" ref="C65:C72" si="1">C64+B65</f>
+        <f t="shared" ref="C65:C71" si="1">C64+B65</f>
         <v>1139</v>
       </c>
       <c r="D65" s="3">
@@ -3182,10 +3215,10 @@
         <v>1596</v>
       </c>
       <c r="D72" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E72" s="4">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F72" s="2">
         <v>116</v>
@@ -3204,7 +3237,37 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="7">
+        <v>43946</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="4">
+        <v>1596</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4">
+        <v>247</v>
+      </c>
+      <c r="F73" s="2">
+        <v>116</v>
+      </c>
+      <c r="G73" s="2">
+        <v>107</v>
+      </c>
+      <c r="H73" s="2">
+        <v>9</v>
+      </c>
+      <c r="I73" s="2">
+        <v>3</v>
+      </c>
+      <c r="J73" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B74" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3220,13 +3283,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4414,21 +4477,37 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="7">
+        <v>43946</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2">
         <v>6</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="E48" s="4">
+        <v>5</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>5</v>
+      </c>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4436,6 +4515,17 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$64</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -632,7 +632,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,6 +673,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="4">
+        <f t="shared" ref="C2:C17" si="0">SUM(D2,G2:H2)</f>
         <v>89</v>
       </c>
       <c r="D2" s="2">
@@ -699,6 +700,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="4">
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="D3" s="1">
@@ -725,6 +727,7 @@
         <v>113</v>
       </c>
       <c r="C4" s="4">
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="D4" s="1">
@@ -751,6 +754,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="4">
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="D5" s="1">
@@ -777,6 +781,7 @@
         <v>128</v>
       </c>
       <c r="C6" s="4">
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="D6" s="1">
@@ -803,6 +808,7 @@
         <v>138</v>
       </c>
       <c r="C7" s="4">
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="D7" s="1">
@@ -829,6 +835,7 @@
         <v>141</v>
       </c>
       <c r="C8" s="4">
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="D8" s="1">
@@ -855,6 +862,7 @@
         <v>157</v>
       </c>
       <c r="C9" s="4">
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="D9" s="1">
@@ -881,6 +889,7 @@
         <v>166</v>
       </c>
       <c r="C10" s="4">
+        <f t="shared" si="0"/>
         <v>146</v>
       </c>
       <c r="D10" s="3">
@@ -907,6 +916,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="4">
+        <f t="shared" si="0"/>
         <v>149</v>
       </c>
       <c r="D11" s="2">
@@ -933,13 +943,14 @@
         <v>184</v>
       </c>
       <c r="C12" s="4">
-        <v>152</v>
+        <f t="shared" si="0"/>
+        <v>156</v>
       </c>
       <c r="D12" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2">
         <v>8</v>
@@ -959,13 +970,14 @@
         <v>187</v>
       </c>
       <c r="C13" s="4">
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>175</v>
       </c>
       <c r="D13" s="1">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F13" s="1">
         <v>7</v>
@@ -985,13 +997,14 @@
         <v>202</v>
       </c>
       <c r="C14" s="4">
-        <v>169</v>
+        <f t="shared" si="0"/>
+        <v>176</v>
       </c>
       <c r="D14" s="3">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E14" s="3">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F14" s="3">
         <v>8</v>
@@ -1011,13 +1024,14 @@
         <v>213</v>
       </c>
       <c r="C15" s="4">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>195</v>
       </c>
       <c r="D15" s="3">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E15" s="3">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F15" s="3">
         <v>10</v>
@@ -1037,13 +1051,14 @@
         <v>225</v>
       </c>
       <c r="C16" s="4">
-        <v>197</v>
+        <f t="shared" si="0"/>
+        <v>206</v>
       </c>
       <c r="D16" s="3">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E16" s="3">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F16" s="3">
         <v>10</v>
@@ -1063,13 +1078,14 @@
         <v>242</v>
       </c>
       <c r="C17" s="4">
-        <v>211</v>
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="D17" s="3">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E17" s="3">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F17" s="3">
         <v>10</v>
@@ -1089,13 +1105,14 @@
         <v>247</v>
       </c>
       <c r="C18" s="4">
-        <v>211</v>
+        <f>SUM(D18,G18:H18)</f>
+        <v>220</v>
       </c>
       <c r="D18" s="3">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E18" s="3">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F18" s="3">
         <v>10</v>
@@ -1104,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1133,10 +1150,10 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3057,10 +3074,10 @@
         <v>185</v>
       </c>
       <c r="F67" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G67" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H67" s="2">
         <v>7</v>
@@ -3090,10 +3107,10 @@
         <v>193</v>
       </c>
       <c r="F68" s="2">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G68" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H68" s="2">
         <v>6</v>
@@ -3123,10 +3140,10 @@
         <v>207</v>
       </c>
       <c r="F69" s="2">
+        <v>112</v>
+      </c>
+      <c r="G69" s="2">
         <v>105</v>
-      </c>
-      <c r="G69" s="2">
-        <v>98</v>
       </c>
       <c r="H69" s="2">
         <v>7</v>
@@ -3156,10 +3173,10 @@
         <v>218</v>
       </c>
       <c r="F70" s="2">
+        <v>120</v>
+      </c>
+      <c r="G70" s="2">
         <v>111</v>
-      </c>
-      <c r="G70" s="2">
-        <v>102</v>
       </c>
       <c r="H70" s="2">
         <v>9</v>
@@ -3189,10 +3206,10 @@
         <v>240</v>
       </c>
       <c r="F71" s="2">
+        <v>127</v>
+      </c>
+      <c r="G71" s="2">
         <v>118</v>
-      </c>
-      <c r="G71" s="2">
-        <v>109</v>
       </c>
       <c r="H71" s="2">
         <v>9</v>
@@ -3221,10 +3238,10 @@
         <v>245</v>
       </c>
       <c r="F72" s="2">
+        <v>125</v>
+      </c>
+      <c r="G72" s="2">
         <v>116</v>
-      </c>
-      <c r="G72" s="2">
-        <v>107</v>
       </c>
       <c r="H72" s="2">
         <v>9</v>
@@ -3240,9 +3257,11 @@
       <c r="A73" s="7">
         <v>43946</v>
       </c>
-      <c r="B73" s="8"/>
+      <c r="B73" s="8">
+        <v>36</v>
+      </c>
       <c r="C73" s="4">
-        <v>1596</v>
+        <v>1632</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
@@ -3251,10 +3270,10 @@
         <v>247</v>
       </c>
       <c r="F73" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G73" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H73" s="2">
         <v>9</v>
@@ -3263,7 +3282,7 @@
         <v>3</v>
       </c>
       <c r="J73" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -3286,10 +3305,10 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -629,10 +629,10 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,7 +673,6 @@
         <v>76</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:C17" si="0">SUM(D2,G2:H2)</f>
         <v>89</v>
       </c>
       <c r="D2" s="2">
@@ -700,7 +699,6 @@
         <v>90</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="D3" s="1">
@@ -727,7 +725,6 @@
         <v>113</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="D4" s="1">
@@ -754,7 +751,6 @@
         <v>121</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="D5" s="1">
@@ -781,7 +777,6 @@
         <v>128</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="D6" s="1">
@@ -808,7 +803,6 @@
         <v>138</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="D7" s="1">
@@ -835,7 +829,6 @@
         <v>141</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="D8" s="1">
@@ -862,7 +855,6 @@
         <v>157</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="D9" s="1">
@@ -889,7 +881,6 @@
         <v>166</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="0"/>
         <v>146</v>
       </c>
       <c r="D10" s="3">
@@ -916,7 +907,6 @@
         <v>179</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="0"/>
         <v>149</v>
       </c>
       <c r="D11" s="2">
@@ -943,7 +933,6 @@
         <v>184</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="0"/>
         <v>156</v>
       </c>
       <c r="D12" s="2">
@@ -970,7 +959,6 @@
         <v>187</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="D13" s="1">
@@ -997,7 +985,6 @@
         <v>202</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="0"/>
         <v>176</v>
       </c>
       <c r="D14" s="3">
@@ -1024,7 +1011,6 @@
         <v>213</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="D15" s="3">
@@ -1051,7 +1037,6 @@
         <v>225</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="0"/>
         <v>206</v>
       </c>
       <c r="D16" s="3">
@@ -1078,7 +1063,6 @@
         <v>242</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="D17" s="3">
@@ -1105,7 +1089,6 @@
         <v>247</v>
       </c>
       <c r="C18" s="4">
-        <f>SUM(D18,G18:H18)</f>
         <v>220</v>
       </c>
       <c r="D18" s="3">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$64</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -626,13 +626,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1108,12 +1108,38 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
-        <v>15</v>
+      <c r="A19" s="7">
+        <v>43947</v>
+      </c>
+      <c r="B19" s="4">
+        <v>251</v>
+      </c>
+      <c r="C19" s="4">
+        <v>224</v>
+      </c>
+      <c r="D19" s="3">
+        <v>133</v>
+      </c>
+      <c r="E19" s="3">
+        <v>123</v>
+      </c>
+      <c r="F19" s="3">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1130,13 +1156,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3247,10 +3273,10 @@
         <v>1632</v>
       </c>
       <c r="D73" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E73" s="4">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F73" s="2">
         <v>124</v>
@@ -3269,7 +3295,40 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="7">
+        <v>43947</v>
+      </c>
+      <c r="B74" s="8">
+        <v>49</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1681</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>251</v>
+      </c>
+      <c r="F74" s="2">
+        <v>128</v>
+      </c>
+      <c r="G74" s="2">
+        <v>119</v>
+      </c>
+      <c r="H74" s="2">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2">
+        <v>3</v>
+      </c>
+      <c r="J74" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" s="7"/>
+      <c r="B75" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3285,13 +3344,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4506,21 +4565,37 @@
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="7">
+        <v>43947</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5</v>
+      </c>
+      <c r="E49" s="4">
+        <v>4</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
         <v>6</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4528,6 +4603,17 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -626,13 +626,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1134,12 +1134,38 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
-        <v>15</v>
+      <c r="A20" s="7">
+        <v>43948</v>
+      </c>
+      <c r="B20" s="4">
+        <v>251</v>
+      </c>
+      <c r="C20" s="4">
+        <v>224</v>
+      </c>
+      <c r="D20" s="3">
+        <v>133</v>
+      </c>
+      <c r="E20" s="3">
+        <v>123</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1156,13 +1182,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3327,8 +3353,38 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" s="7"/>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="7">
+        <v>43948</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="4">
+        <v>1681</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>251</v>
+      </c>
+      <c r="F75" s="2">
+        <v>128</v>
+      </c>
+      <c r="G75" s="2">
+        <v>119</v>
+      </c>
+      <c r="H75" s="2">
+        <v>9</v>
+      </c>
+      <c r="I75" s="2">
+        <v>3</v>
+      </c>
+      <c r="J75" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="7"/>
+      <c r="B76" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3344,13 +3400,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4592,21 +4648,37 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="7">
+        <v>43948</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
+      </c>
+      <c r="E50" s="4">
+        <v>4</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
         <v>6</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4614,6 +4686,17 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -629,10 +629,10 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1141,13 +1141,13 @@
         <v>251</v>
       </c>
       <c r="C20" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D20" s="3">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="3">
         <v>10</v>
@@ -1156,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1185,10 +1185,10 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3356,9 +3356,11 @@
       <c r="A75" s="7">
         <v>43948</v>
       </c>
-      <c r="B75" s="8"/>
+      <c r="B75" s="8">
+        <v>91</v>
+      </c>
       <c r="C75" s="4">
-        <v>1681</v>
+        <v>1772</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -3367,10 +3369,10 @@
         <v>251</v>
       </c>
       <c r="F75" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G75" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H75" s="2">
         <v>9</v>
@@ -3379,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -3403,7 +3405,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H54" sqref="H54"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -204,7 +204,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※35件調査中</t>
+    <t>※24・34・53・58・59・60・158・161・163・192例目は市外在住者です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院・入居中</t>
+    <rPh sb="3" eb="6">
+      <t>ニュウキョチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※30件調査中</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -213,17 +224,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※24・34・53・58・59・60・158・161・163・192例目は市外在住者です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入院・入居中</t>
-    <rPh sb="3" eb="6">
-      <t>ニュウキョチュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,13 +626,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
@@ -1160,13 +1160,39 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
-        <v>15</v>
+      <c r="A21" s="7">
+        <v>43949</v>
+      </c>
+      <c r="B21" s="4">
+        <v>254</v>
+      </c>
+      <c r="C21" s="4">
+        <v>225</v>
+      </c>
+      <c r="D21" s="3">
+        <v>132</v>
+      </c>
+      <c r="E21" s="3">
+        <v>122</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1182,13 +1208,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3363,10 +3389,10 @@
         <v>1772</v>
       </c>
       <c r="D75" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75" s="4">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F75" s="2">
         <v>127</v>
@@ -3385,9 +3411,41 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="7"/>
-      <c r="B76" s="4" t="s">
-        <v>17</v>
+      <c r="A76" s="7">
+        <v>43949</v>
+      </c>
+      <c r="B76" s="8">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1772</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>254</v>
+      </c>
+      <c r="F76" s="2">
+        <v>127</v>
+      </c>
+      <c r="G76" s="2">
+        <v>118</v>
+      </c>
+      <c r="H76" s="2">
+        <v>9</v>
+      </c>
+      <c r="I76" s="2">
+        <v>3</v>
+      </c>
+      <c r="J76" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="7"/>
+      <c r="B77" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3402,13 +3460,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4677,21 +4735,37 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
+      <c r="A51" s="7">
+        <v>43949</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+      <c r="E51" s="4">
+        <v>4</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
         <v>6</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4699,6 +4773,17 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -215,7 +215,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※30件調査中</t>
+    <t>※14件調査中</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -632,7 +632,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1167,22 +1167,22 @@
         <v>254</v>
       </c>
       <c r="C21" s="4">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D21" s="3">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E21" s="3">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="3">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
@@ -3415,10 +3415,10 @@
         <v>43949</v>
       </c>
       <c r="B76" s="8">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C76" s="4">
-        <v>1772</v>
+        <v>1854</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -3427,19 +3427,19 @@
         <v>254</v>
       </c>
       <c r="F76" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G76" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H76" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I76" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J76" s="2">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -3463,10 +3463,10 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4745,10 +4745,10 @@
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I51" s="4"/>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -215,7 +215,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※14件調査中</t>
+    <t>※15件調査中</t>
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
@@ -626,13 +626,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1186,12 +1186,38 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
-        <v>15</v>
+      <c r="A22" s="7">
+        <v>43950</v>
+      </c>
+      <c r="B22" s="4">
+        <v>256</v>
+      </c>
+      <c r="C22" s="4">
+        <v>242</v>
+      </c>
+      <c r="D22" s="3">
+        <v>130</v>
+      </c>
+      <c r="E22" s="3">
+        <v>121</v>
+      </c>
+      <c r="F22" s="3">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1208,13 +1234,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3421,10 +3447,10 @@
         <v>1854</v>
       </c>
       <c r="D76" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" s="4">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F76" s="2">
         <v>125</v>
@@ -3443,8 +3469,40 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="7"/>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="7">
+        <v>43950</v>
+      </c>
+      <c r="B77" s="8">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1854</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>256</v>
+      </c>
+      <c r="F77" s="2">
+        <v>126</v>
+      </c>
+      <c r="G77" s="2">
+        <v>118</v>
+      </c>
+      <c r="H77" s="2">
+        <v>8</v>
+      </c>
+      <c r="I77" s="2">
+        <v>4</v>
+      </c>
+      <c r="J77" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="7"/>
+      <c r="B78" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3460,13 +3518,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4762,21 +4820,37 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="A52" s="7">
+        <v>43950</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>11</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>7</v>
+      </c>
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4784,6 +4858,17 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -215,14 +215,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※15件調査中</t>
-    <rPh sb="3" eb="4">
+    <t>※9件調査中</t>
+    <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="3" eb="5">
       <t>チョウサ</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="5" eb="6">
       <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
@@ -1193,22 +1193,22 @@
         <v>256</v>
       </c>
       <c r="C22" s="4">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D22" s="3">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E22" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F22" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1237,10 +1237,10 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3473,10 +3473,10 @@
         <v>43950</v>
       </c>
       <c r="B77" s="8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C77" s="4">
-        <v>1854</v>
+        <v>1883</v>
       </c>
       <c r="D77" s="3">
         <v>0</v>
@@ -3485,19 +3485,19 @@
         <v>256</v>
       </c>
       <c r="F77" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G77" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H77" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I77" s="2">
         <v>4</v>
       </c>
       <c r="J77" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -3521,10 +3521,10 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -626,13 +626,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1118,10 +1118,10 @@
         <v>224</v>
       </c>
       <c r="D19" s="3">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E19" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="3">
         <v>10</v>
@@ -1144,10 +1144,10 @@
         <v>225</v>
       </c>
       <c r="D20" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="3">
         <v>10</v>
@@ -1167,13 +1167,13 @@
         <v>254</v>
       </c>
       <c r="C21" s="4">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D21" s="3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21" s="3">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F21" s="3">
         <v>9</v>
@@ -1193,13 +1193,13 @@
         <v>256</v>
       </c>
       <c r="C22" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D22" s="3">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E22" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="3">
         <v>10</v>
@@ -1212,12 +1212,38 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>15</v>
+      <c r="A23" s="7">
+        <v>43951</v>
+      </c>
+      <c r="B23" s="4">
+        <v>257</v>
+      </c>
+      <c r="C23" s="4">
+        <v>249</v>
+      </c>
+      <c r="D23" s="3">
+        <v>135</v>
+      </c>
+      <c r="E23" s="3">
+        <v>125</v>
+      </c>
+      <c r="F23" s="3">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1234,13 +1260,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3479,10 +3505,10 @@
         <v>1883</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="4">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F77" s="2">
         <v>130</v>
@@ -3501,8 +3527,40 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="7"/>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="7">
+        <v>43951</v>
+      </c>
+      <c r="B78" s="8">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1883</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>257</v>
+      </c>
+      <c r="F78" s="2">
+        <v>130</v>
+      </c>
+      <c r="G78" s="2">
+        <v>121</v>
+      </c>
+      <c r="H78" s="2">
+        <v>9</v>
+      </c>
+      <c r="I78" s="2">
+        <v>4</v>
+      </c>
+      <c r="J78" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="7"/>
+      <c r="B79" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3518,13 +3576,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4743,16 +4801,16 @@
         <v>43947</v>
       </c>
       <c r="B49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2">
+        <v>6</v>
+      </c>
+      <c r="E49" s="4">
         <v>5</v>
-      </c>
-      <c r="E49" s="4">
-        <v>4</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -4773,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2">
+        <v>6</v>
+      </c>
+      <c r="E50" s="4">
         <v>5</v>
-      </c>
-      <c r="E50" s="4">
-        <v>4</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -4800,13 +4858,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2">
+        <v>5</v>
+      </c>
+      <c r="E51" s="4">
         <v>4</v>
-      </c>
-      <c r="E51" s="4">
-        <v>3</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -4827,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2">
+        <v>5</v>
+      </c>
+      <c r="E52" s="4">
         <v>4</v>
-      </c>
-      <c r="E52" s="4">
-        <v>3</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -4847,21 +4905,37 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="A53" s="7">
+        <v>43951</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5</v>
+      </c>
+      <c r="E53" s="4">
+        <v>4</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>7</v>
+      </c>
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4869,6 +4943,17 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -189,22 +189,6 @@
   </si>
   <si>
     <t>※24・34・53・58・59・60・158・161・163・192例目は市外在住者です。</t>
-    <rPh sb="34" eb="35">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※24・34・53・58・59・60・158・161・163・192例目は市外在住者です。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -215,7 +199,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※9件調査中</t>
+    <t>※4件調査中</t>
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
@@ -224,6 +208,22 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※24・34・53・58・59・60・158・161・163・192・248例目は市外在住者です。</t>
+    <rPh sb="38" eb="39">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ザイジュウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -628,11 +628,11 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
@@ -1219,32 +1219,32 @@
         <v>257</v>
       </c>
       <c r="C23" s="4">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D23" s="3">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="3">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F23" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G23" s="3">
         <v>4</v>
       </c>
       <c r="H23" s="3">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1263,10 +1263,10 @@
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3531,10 +3531,10 @@
         <v>43951</v>
       </c>
       <c r="B78" s="8">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C78" s="4">
-        <v>1883</v>
+        <v>1950</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
@@ -3543,25 +3543,25 @@
         <v>257</v>
       </c>
       <c r="F78" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G78" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H78" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I78" s="2">
         <v>4</v>
       </c>
       <c r="J78" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3578,11 +3578,11 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -626,13 +626,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1066,10 +1066,10 @@
         <v>220</v>
       </c>
       <c r="D17" s="3">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F17" s="3">
         <v>10</v>
@@ -1089,13 +1089,13 @@
         <v>247</v>
       </c>
       <c r="C18" s="4">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="3">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="3">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" s="3">
         <v>10</v>
@@ -1115,13 +1115,13 @@
         <v>251</v>
       </c>
       <c r="C19" s="4">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19" s="3">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="3">
         <v>10</v>
@@ -1141,13 +1141,13 @@
         <v>251</v>
       </c>
       <c r="C20" s="4">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" s="3">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="3">
         <v>10</v>
@@ -1167,13 +1167,13 @@
         <v>254</v>
       </c>
       <c r="C21" s="4">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D21" s="3">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" s="3">
         <v>9</v>
@@ -1193,13 +1193,13 @@
         <v>256</v>
       </c>
       <c r="C22" s="4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D22" s="3">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="3">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" s="3">
         <v>10</v>
@@ -1216,16 +1216,16 @@
         <v>43951</v>
       </c>
       <c r="B23" s="4">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C23" s="4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D23" s="3">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="3">
         <v>13</v>
@@ -1238,12 +1238,38 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="4" t="s">
-        <v>18</v>
+      <c r="A24" s="7">
+        <v>43952</v>
+      </c>
+      <c r="B24" s="4">
+        <v>259</v>
+      </c>
+      <c r="C24" s="4">
+        <v>254</v>
+      </c>
+      <c r="D24" s="3">
+        <v>134</v>
+      </c>
+      <c r="E24" s="3">
+        <v>121</v>
+      </c>
+      <c r="F24" s="3">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1260,13 +1286,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3351,10 +3377,10 @@
         <v>245</v>
       </c>
       <c r="F72" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G72" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H72" s="2">
         <v>9</v>
@@ -3383,10 +3409,10 @@
         <v>251</v>
       </c>
       <c r="F73" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G73" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H73" s="2">
         <v>9</v>
@@ -3415,10 +3441,10 @@
         <v>251</v>
       </c>
       <c r="F74" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G74" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H74" s="2">
         <v>9</v>
@@ -3447,10 +3473,10 @@
         <v>253</v>
       </c>
       <c r="F75" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G75" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H75" s="2">
         <v>9</v>
@@ -3479,10 +3505,10 @@
         <v>256</v>
       </c>
       <c r="F76" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G76" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H76" s="2">
         <v>8</v>
@@ -3511,10 +3537,10 @@
         <v>257</v>
       </c>
       <c r="F77" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G77" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H77" s="2">
         <v>9</v>
@@ -3537,16 +3563,16 @@
         <v>1950</v>
       </c>
       <c r="D78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="4">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F78" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G78" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H78" s="2">
         <v>12</v>
@@ -3559,8 +3585,40 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="7"/>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="7">
+        <v>43952</v>
+      </c>
+      <c r="B79" s="8">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1950</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>259</v>
+      </c>
+      <c r="F79" s="2">
+        <v>129</v>
+      </c>
+      <c r="G79" s="2">
+        <v>117</v>
+      </c>
+      <c r="H79" s="2">
+        <v>12</v>
+      </c>
+      <c r="I79" s="2">
+        <v>4</v>
+      </c>
+      <c r="J79" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="7"/>
+      <c r="B80" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3576,13 +3634,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4932,21 +4990,37 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="A54" s="7">
+        <v>43952</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4">
+        <v>4</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>7</v>
+      </c>
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4954,6 +5028,17 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※24・34・53・58・59・60・158・161・163・192例目は市外在住者です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入院・入居中</t>
     <rPh sb="3" eb="6">
       <t>ニュウキョチュウ</t>
@@ -199,31 +195,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※4件調査中</t>
-    <rPh sb="2" eb="3">
+    <t>※　24・34・53・58・59・60・158・161・163・192・237・248例目（計12件）は市外在住者です。（すべて報告済み）</t>
+    <rPh sb="43" eb="44">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
       <t>ケン</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※24・34・53・58・59・60・158・161・163・192・248例目は市外在住者です。</t>
-    <rPh sb="38" eb="39">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
+    <rPh sb="52" eb="54">
       <t>シガイ</t>
     </rPh>
-    <rPh sb="43" eb="46">
+    <rPh sb="54" eb="57">
       <t>ザイジュウシャ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -629,10 +624,10 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>9</v>
@@ -1245,13 +1240,13 @@
         <v>259</v>
       </c>
       <c r="C24" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D24" s="3">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E24" s="3">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F24" s="3">
         <v>13</v>
@@ -1260,17 +1255,15 @@
         <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1286,13 +1279,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3589,10 +3582,10 @@
         <v>43952</v>
       </c>
       <c r="B79" s="8">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C79" s="4">
-        <v>1950</v>
+        <v>2102</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -3601,10 +3594,10 @@
         <v>259</v>
       </c>
       <c r="F79" s="2">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G79" s="2">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H79" s="2">
         <v>12</v>
@@ -3613,13 +3606,15 @@
         <v>4</v>
       </c>
       <c r="J79" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
-      <c r="B80" s="4" t="s">
-        <v>15</v>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3634,13 +3629,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5018,9 +5013,6 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -5039,6 +5031,11 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -621,13 +621,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1237,7 +1237,7 @@
         <v>43952</v>
       </c>
       <c r="B24" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C24" s="4">
         <v>255</v>
@@ -1259,10 +1259,36 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="4"/>
+      <c r="A25" s="7">
+        <v>43953</v>
+      </c>
+      <c r="B25" s="4">
+        <v>260</v>
+      </c>
+      <c r="C25" s="4">
+        <v>255</v>
+      </c>
+      <c r="D25" s="3">
+        <v>128</v>
+      </c>
+      <c r="E25" s="3">
+        <v>116</v>
+      </c>
+      <c r="F25" s="3">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1279,13 +1305,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomRight" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3588,10 +3614,10 @@
         <v>2102</v>
       </c>
       <c r="D79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F79" s="2">
         <v>124</v>
@@ -3610,10 +3636,42 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="7"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="4" t="s">
+      <c r="A80" s="7">
+        <v>43953</v>
+      </c>
+      <c r="B80" s="8">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
+        <v>2102</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>260</v>
+      </c>
+      <c r="F80" s="2">
+        <v>123</v>
+      </c>
+      <c r="G80" s="2">
+        <v>112</v>
+      </c>
+      <c r="H80" s="2">
+        <v>11</v>
+      </c>
+      <c r="I80" s="2">
+        <v>5</v>
+      </c>
+      <c r="J80" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3629,13 +3687,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5012,18 +5070,34 @@
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="A55" s="7">
+        <v>43953</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4">
+        <v>4</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>7</v>
+      </c>
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -5033,7 +5107,18 @@
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="4" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -623,11 +623,11 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1308,10 +1308,10 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J80" sqref="J80"/>
+      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3640,10 +3640,10 @@
         <v>43953</v>
       </c>
       <c r="B80" s="8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C80" s="4">
-        <v>2102</v>
+        <v>2135</v>
       </c>
       <c r="D80" s="3">
         <v>0</v>
@@ -3689,8 +3689,8 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E57" sqref="E57"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -624,10 +624,10 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1285,7 +1285,30 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="4"/>
+      <c r="A26" s="7">
+        <v>43954</v>
+      </c>
+      <c r="B26" s="4">
+        <v>263</v>
+      </c>
+      <c r="C26" s="3">
+        <v>255</v>
+      </c>
+      <c r="D26" s="3">
+        <v>128</v>
+      </c>
+      <c r="E26" s="3">
+        <v>116</v>
+      </c>
+      <c r="F26" s="3">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
@@ -1305,13 +1328,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3646,10 +3669,10 @@
         <v>2135</v>
       </c>
       <c r="D80" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E80" s="4">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F80" s="2">
         <v>123</v>
@@ -3667,11 +3690,41 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="7"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="4" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
+        <v>43954</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="4">
+        <v>2135</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>263</v>
+      </c>
+      <c r="F81" s="2">
+        <v>123</v>
+      </c>
+      <c r="G81" s="2">
+        <v>112</v>
+      </c>
+      <c r="H81" s="2">
+        <v>11</v>
+      </c>
+      <c r="I81" s="2">
+        <v>5</v>
+      </c>
+      <c r="J81" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B83" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3693,7 +3746,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5097,13 +5150,30 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="A56" s="7">
+        <v>43954</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5</v>
+      </c>
+      <c r="E56" s="4">
+        <v>4</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>7</v>
+      </c>
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -623,11 +623,11 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1289,25 +1289,25 @@
         <v>43954</v>
       </c>
       <c r="B26" s="4">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C26" s="3">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D26" s="3">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E26" s="3">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F26" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="3">
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1330,11 +1330,11 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3694,30 +3694,32 @@
       <c r="A81" s="7">
         <v>43954</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="8">
+        <v>58</v>
+      </c>
       <c r="C81" s="4">
-        <v>2135</v>
+        <v>2193</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81" s="4">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F81" s="2">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G81" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H81" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I81" s="2">
         <v>5</v>
       </c>
       <c r="J81" s="2">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -621,13 +621,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1289,7 +1289,7 @@
         <v>43954</v>
       </c>
       <c r="B26" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="3">
         <v>259</v>
@@ -1311,7 +1311,33 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="7">
+        <v>43955</v>
+      </c>
+      <c r="B27" s="4">
+        <v>266</v>
+      </c>
+      <c r="C27" s="3">
+        <v>259</v>
+      </c>
+      <c r="D27" s="3">
+        <v>119</v>
+      </c>
+      <c r="E27" s="3">
+        <v>108</v>
+      </c>
+      <c r="F27" s="3">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1328,13 +1354,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3701,10 +3727,10 @@
         <v>2193</v>
       </c>
       <c r="D81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F81" s="2">
         <v>114</v>
@@ -3723,10 +3749,42 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="7"/>
+      <c r="A82" s="7">
+        <v>43955</v>
+      </c>
+      <c r="B82" s="8">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4">
+        <v>2193</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>266</v>
+      </c>
+      <c r="F82" s="2">
+        <v>114</v>
+      </c>
+      <c r="G82" s="2">
+        <v>104</v>
+      </c>
+      <c r="H82" s="2">
+        <v>10</v>
+      </c>
+      <c r="I82" s="2">
+        <v>5</v>
+      </c>
+      <c r="J82" s="2">
+        <v>128</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B84" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3742,13 +3800,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56:H56"/>
+      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5179,18 +5237,45 @@
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="A57" s="7">
+        <v>43955</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5</v>
+      </c>
+      <c r="E57" s="4">
+        <v>4</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>7</v>
+      </c>
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -624,10 +624,10 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1318,19 +1318,19 @@
         <v>266</v>
       </c>
       <c r="C27" s="3">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D27" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E27" s="3">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F27" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27" s="3">
         <v>135</v>
@@ -1357,10 +1357,10 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3753,10 +3753,10 @@
         <v>43955</v>
       </c>
       <c r="B82" s="8">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C82" s="4">
-        <v>2193</v>
+        <v>2242</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -3765,16 +3765,16 @@
         <v>266</v>
       </c>
       <c r="F82" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G82" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H82" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I82" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J82" s="2">
         <v>128</v>
@@ -3803,7 +3803,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E62" sqref="E62"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -621,13 +621,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1337,7 +1337,33 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="7">
+        <v>43956</v>
+      </c>
+      <c r="B28" s="4">
+        <v>269</v>
+      </c>
+      <c r="C28" s="3">
+        <v>263</v>
+      </c>
+      <c r="D28" s="3">
+        <v>121</v>
+      </c>
+      <c r="E28" s="3">
+        <v>112</v>
+      </c>
+      <c r="F28" s="3">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1354,13 +1380,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3759,7 +3785,7 @@
         <v>2242</v>
       </c>
       <c r="D82" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82" s="4">
         <v>266</v>
@@ -3781,10 +3807,40 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="7"/>
+      <c r="A83" s="7">
+        <v>43956</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="4">
+        <v>2242</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>269</v>
+      </c>
+      <c r="F83" s="2">
+        <v>116</v>
+      </c>
+      <c r="G83" s="2">
+        <v>108</v>
+      </c>
+      <c r="H83" s="2">
+        <v>8</v>
+      </c>
+      <c r="I83" s="2">
+        <v>7</v>
+      </c>
+      <c r="J83" s="2">
+        <v>128</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="4" t="s">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B85" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3800,13 +3856,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5264,18 +5320,45 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="A58" s="7">
+        <v>43956</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5</v>
+      </c>
+      <c r="E58" s="4">
+        <v>4</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>7</v>
+      </c>
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -624,10 +624,10 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,19 +1347,19 @@
         <v>263</v>
       </c>
       <c r="D28" s="3">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E28" s="3">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F28" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3">
         <v>7</v>
       </c>
       <c r="H28" s="3">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1386,7 +1386,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
+      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3810,9 +3810,11 @@
       <c r="A83" s="7">
         <v>43956</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="8">
+        <v>37</v>
+      </c>
       <c r="C83" s="4">
-        <v>2242</v>
+        <v>2279</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
@@ -3821,10 +3823,10 @@
         <v>269</v>
       </c>
       <c r="F83" s="2">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G83" s="2">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H83" s="2">
         <v>8</v>
@@ -3833,7 +3835,7 @@
         <v>7</v>
       </c>
       <c r="J83" s="2">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -624,10 +624,10 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1341,7 +1341,7 @@
         <v>43956</v>
       </c>
       <c r="B28" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" s="3">
         <v>263</v>
@@ -1386,7 +1386,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3817,10 +3817,10 @@
         <v>2279</v>
       </c>
       <c r="D83" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F83" s="2">
         <v>92</v>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -195,30 +195,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※　24・34・53・58・59・60・158・161・163・192・237・248例目（計12件）は市外在住者です。（すべて報告済み）</t>
-    <rPh sb="43" eb="44">
+    <t>※　24・34・53・58・59・60・158・161・163・192・237・248・268・272例目（計14件）は市外在住者です。</t>
+    <rPh sb="51" eb="52">
       <t>レイ</t>
     </rPh>
-    <rPh sb="44" eb="45">
+    <rPh sb="52" eb="53">
       <t>メ</t>
     </rPh>
-    <rPh sb="46" eb="47">
+    <rPh sb="54" eb="55">
       <t>ケイ</t>
     </rPh>
-    <rPh sb="49" eb="50">
+    <rPh sb="57" eb="58">
       <t>ケン</t>
     </rPh>
-    <rPh sb="52" eb="54">
+    <rPh sb="60" eb="62">
       <t>シガイ</t>
     </rPh>
-    <rPh sb="54" eb="57">
+    <rPh sb="62" eb="65">
       <t>ザイジュウシャ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -621,10 +615,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
@@ -1363,7 +1357,33 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="7">
+        <v>43957</v>
+      </c>
+      <c r="B29" s="4">
+        <v>272</v>
+      </c>
+      <c r="C29" s="3">
+        <v>268</v>
+      </c>
+      <c r="D29" s="3">
+        <v>102</v>
+      </c>
+      <c r="E29" s="3">
+        <v>92</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1383,10 +1403,10 @@
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3829,7 +3849,7 @@
         <v>83</v>
       </c>
       <c r="H83" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I83" s="2">
         <v>7</v>
@@ -3839,7 +3859,36 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="7"/>
+      <c r="A84" s="7">
+        <v>43957</v>
+      </c>
+      <c r="B84" s="4">
+        <v>72</v>
+      </c>
+      <c r="C84" s="4">
+        <v>2351</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4">
+        <v>272</v>
+      </c>
+      <c r="F84" s="4">
+        <v>97</v>
+      </c>
+      <c r="G84" s="4">
+        <v>88</v>
+      </c>
+      <c r="H84" s="4">
+        <v>9</v>
+      </c>
+      <c r="I84" s="4">
+        <v>7</v>
+      </c>
+      <c r="J84" s="4">
+        <v>152</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
@@ -3861,10 +3910,10 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5349,14 +5398,30 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="A59" s="7">
+        <v>43957</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5</v>
+      </c>
+      <c r="E59" s="4">
+        <v>4</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>7</v>
+      </c>
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1383,7 +1383,33 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="7">
+        <v>43958</v>
+      </c>
+      <c r="B30" s="4">
+        <v>272</v>
+      </c>
+      <c r="C30" s="3">
+        <v>268</v>
+      </c>
+      <c r="D30" s="3">
+        <v>101</v>
+      </c>
+      <c r="E30" s="3">
+        <v>92</v>
+      </c>
+      <c r="F30" s="3">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1400,13 +1426,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3891,7 +3917,39 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="4" t="s">
+      <c r="A85" s="7">
+        <v>43958</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4">
+        <v>2351</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>272</v>
+      </c>
+      <c r="F85" s="4">
+        <v>96</v>
+      </c>
+      <c r="G85" s="4">
+        <v>88</v>
+      </c>
+      <c r="H85" s="4">
+        <v>8</v>
+      </c>
+      <c r="I85" s="4">
+        <v>8</v>
+      </c>
+      <c r="J85" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B86" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3907,13 +3965,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5425,7 +5483,33 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="7">
+        <v>43958</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2">
+        <v>5</v>
+      </c>
+      <c r="E60" s="4">
+        <v>4</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -618,10 +618,10 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1393,19 +1393,19 @@
         <v>268</v>
       </c>
       <c r="D30" s="3">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E30" s="3">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F30" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="3">
         <v>8</v>
       </c>
       <c r="H30" s="3">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1429,10 +1429,10 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3921,10 +3921,10 @@
         <v>43958</v>
       </c>
       <c r="B85" s="4">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C85" s="4">
-        <v>2351</v>
+        <v>2417</v>
       </c>
       <c r="D85" s="4">
         <v>0</v>
@@ -3933,19 +3933,19 @@
         <v>272</v>
       </c>
       <c r="F85" s="4">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G85" s="4">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H85" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I85" s="4">
         <v>8</v>
       </c>
       <c r="J85" s="4">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,7 +1387,7 @@
         <v>43958</v>
       </c>
       <c r="B30" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C30" s="3">
         <v>268</v>
@@ -1409,7 +1409,33 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="7">
+        <v>43959</v>
+      </c>
+      <c r="B31" s="4">
+        <v>273</v>
+      </c>
+      <c r="C31" s="3">
+        <v>268</v>
+      </c>
+      <c r="D31" s="3">
+        <v>79</v>
+      </c>
+      <c r="E31" s="3">
+        <v>69</v>
+      </c>
+      <c r="F31" s="3">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3">
+        <v>8</v>
+      </c>
+      <c r="H31" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1426,13 +1452,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
+      <selection pane="bottomRight" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3927,10 +3953,10 @@
         <v>2417</v>
       </c>
       <c r="D85" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F85" s="4">
         <v>74</v>
@@ -3949,7 +3975,39 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="7">
+        <v>43959</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4">
+        <v>2417</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>273</v>
+      </c>
+      <c r="F86" s="4">
+        <v>74</v>
+      </c>
+      <c r="G86" s="4">
+        <v>65</v>
+      </c>
+      <c r="H86" s="4">
+        <v>9</v>
+      </c>
+      <c r="I86" s="4">
+        <v>8</v>
+      </c>
+      <c r="J86" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B87" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3965,13 +4023,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60:H60"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5509,7 +5567,33 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="7">
+        <v>43959</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5</v>
+      </c>
+      <c r="E61" s="4">
+        <v>4</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -618,10 +618,10 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1416,13 +1416,13 @@
         <v>273</v>
       </c>
       <c r="C31" s="3">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D31" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3">
         <v>10</v>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="H31" s="3">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1455,10 +1455,10 @@
   <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A86" sqref="A86"/>
+      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3979,10 +3979,10 @@
         <v>43959</v>
       </c>
       <c r="B86" s="4">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C86" s="4">
-        <v>2417</v>
+        <v>2480</v>
       </c>
       <c r="D86" s="4">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>273</v>
       </c>
       <c r="F86" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G86" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H86" s="4">
         <v>9</v>
@@ -4026,10 +4026,10 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2">
         <v>5</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1435,7 +1435,33 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="7">
+        <v>43960</v>
+      </c>
+      <c r="B32" s="4">
+        <v>276</v>
+      </c>
+      <c r="C32" s="3">
+        <v>271</v>
+      </c>
+      <c r="D32" s="3">
+        <v>80</v>
+      </c>
+      <c r="E32" s="3">
+        <v>70</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1452,13 +1478,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3985,10 +4011,10 @@
         <v>2480</v>
       </c>
       <c r="D86" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E86" s="4">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F86" s="4">
         <v>75</v>
@@ -4007,7 +4033,39 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="4" t="s">
+      <c r="A87" s="7">
+        <v>43960</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="4">
+        <v>2480</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>276</v>
+      </c>
+      <c r="F87" s="4">
+        <v>75</v>
+      </c>
+      <c r="G87" s="4">
+        <v>66</v>
+      </c>
+      <c r="H87" s="4">
+        <v>9</v>
+      </c>
+      <c r="I87" s="4">
+        <v>8</v>
+      </c>
+      <c r="J87" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B88" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4023,13 +4081,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5593,7 +5651,33 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="7">
+        <v>43960</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5</v>
+      </c>
+      <c r="E62" s="4">
+        <v>4</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -617,8 +617,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
@@ -1442,13 +1442,13 @@
         <v>276</v>
       </c>
       <c r="C32" s="3">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D32" s="3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E32" s="3">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F32" s="3">
         <v>10</v>
@@ -1457,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="3">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
@@ -4037,10 +4037,10 @@
         <v>43960</v>
       </c>
       <c r="B87" s="4">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C87" s="4">
-        <v>2480</v>
+        <v>2562</v>
       </c>
       <c r="D87" s="4">
         <v>0</v>
@@ -4049,10 +4049,10 @@
         <v>276</v>
       </c>
       <c r="F87" s="4">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G87" s="4">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H87" s="4">
         <v>9</v>
@@ -4061,7 +4061,7 @@
         <v>8</v>
       </c>
       <c r="J87" s="4">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -4083,7 +4083,7 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1460,8 +1460,34 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>43961</v>
+      </c>
+      <c r="B33" s="4">
+        <v>277</v>
+      </c>
+      <c r="C33" s="3">
+        <v>272</v>
+      </c>
+      <c r="D33" s="3">
+        <v>77</v>
+      </c>
+      <c r="E33" s="3">
+        <v>67</v>
+      </c>
+      <c r="F33" s="3">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1478,13 +1504,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomRight" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4043,10 +4069,10 @@
         <v>2562</v>
       </c>
       <c r="D87" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F87" s="4">
         <v>72</v>
@@ -4065,7 +4091,39 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="4" t="s">
+      <c r="A88" s="7">
+        <v>43961</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4">
+        <v>2562</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>277</v>
+      </c>
+      <c r="F88" s="4">
+        <v>72</v>
+      </c>
+      <c r="G88" s="4">
+        <v>63</v>
+      </c>
+      <c r="H88" s="4">
+        <v>9</v>
+      </c>
+      <c r="I88" s="4">
+        <v>8</v>
+      </c>
+      <c r="J88" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B89" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4081,13 +4139,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5677,7 +5735,33 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="7">
+        <v>43961</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>14</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5</v>
+      </c>
+      <c r="E63" s="4">
+        <v>4</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -212,6 +212,28 @@
       <t>シガイ</t>
     </rPh>
     <rPh sb="62" eb="65">
+      <t>ザイジュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※　24・34・53・58・59・60・158・161・163・192・237・248・268・272・277例目（計15件）は市外在住者です。</t>
+    <rPh sb="55" eb="56">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
       <t>ザイジュウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -617,11 +639,11 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1468,27 +1490,27 @@
         <v>277</v>
       </c>
       <c r="C33" s="3">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D33" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E33" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" s="3">
         <v>8</v>
       </c>
       <c r="H33" s="3">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1507,10 +1529,10 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K88" sqref="K88"/>
+      <selection pane="bottomRight" activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4095,10 +4117,10 @@
         <v>43961</v>
       </c>
       <c r="B88" s="4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C88" s="4">
-        <v>2562</v>
+        <v>2600</v>
       </c>
       <c r="D88" s="4">
         <v>0</v>
@@ -4107,19 +4129,19 @@
         <v>277</v>
       </c>
       <c r="F88" s="4">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G88" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H88" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I88" s="4">
         <v>8</v>
       </c>
       <c r="J88" s="4">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -4141,8 +4163,8 @@
   </sheetPr>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A63" sqref="A63"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -637,13 +637,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1509,7 +1509,33 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="7">
+        <v>43962</v>
+      </c>
+      <c r="B34" s="4">
+        <v>278</v>
+      </c>
+      <c r="C34" s="3">
+        <v>274</v>
+      </c>
+      <c r="D34" s="3">
+        <v>80</v>
+      </c>
+      <c r="E34" s="3">
+        <v>69</v>
+      </c>
+      <c r="F34" s="3">
+        <v>11</v>
+      </c>
+      <c r="G34" s="3">
+        <v>8</v>
+      </c>
+      <c r="H34" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1526,13 +1552,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J90" sqref="J90"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4123,10 +4149,10 @@
         <v>2600</v>
       </c>
       <c r="D88" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="4">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F88" s="4">
         <v>75</v>
@@ -4145,7 +4171,39 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="7">
+        <v>43962</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="4">
+        <v>2600</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>278</v>
+      </c>
+      <c r="F89" s="4">
+        <v>75</v>
+      </c>
+      <c r="G89" s="4">
+        <v>65</v>
+      </c>
+      <c r="H89" s="4">
+        <v>10</v>
+      </c>
+      <c r="I89" s="4">
+        <v>8</v>
+      </c>
+      <c r="J89" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B90" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4161,13 +4219,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5783,7 +5841,33 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="7">
+        <v>43962</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5</v>
+      </c>
+      <c r="E64" s="4">
+        <v>4</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -195,45 +195,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※　24・34・53・58・59・60・158・161・163・192・237・248・268・272例目（計14件）は市外在住者です。</t>
-    <rPh sb="51" eb="52">
+    <t>※　24・34・53・58・59・60・158・161・163・192・237・248・268・272・276・277例目（計16件）は市外在住者です。</t>
+    <rPh sb="59" eb="60">
       <t>レイ</t>
     </rPh>
-    <rPh sb="52" eb="53">
+    <rPh sb="60" eb="61">
       <t>メ</t>
     </rPh>
-    <rPh sb="54" eb="55">
+    <rPh sb="62" eb="63">
       <t>ケイ</t>
     </rPh>
-    <rPh sb="57" eb="58">
+    <rPh sb="65" eb="66">
       <t>ケン</t>
     </rPh>
-    <rPh sb="60" eb="62">
+    <rPh sb="68" eb="70">
       <t>シガイ</t>
     </rPh>
-    <rPh sb="62" eb="65">
-      <t>ザイジュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※　24・34・53・58・59・60・158・161・163・192・237・248・268・272・277例目（計15件）は市外在住者です。</t>
-    <rPh sb="55" eb="56">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>シガイ</t>
-    </rPh>
-    <rPh sb="66" eb="69">
+    <rPh sb="70" eb="73">
       <t>ザイジュウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -639,11 +617,11 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1516,13 +1494,13 @@
         <v>278</v>
       </c>
       <c r="C34" s="3">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D34" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="3">
         <v>11</v>
@@ -1536,7 +1514,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1554,11 +1532,11 @@
   </sheetPr>
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3855,10 +3833,10 @@
         <v>43952</v>
       </c>
       <c r="B79" s="8">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C79" s="4">
-        <v>2102</v>
+        <v>2092</v>
       </c>
       <c r="D79" s="3">
         <v>2</v>
@@ -3890,7 +3868,7 @@
         <v>33</v>
       </c>
       <c r="C80" s="4">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D80" s="3">
         <v>3</v>
@@ -3922,7 +3900,7 @@
         <v>58</v>
       </c>
       <c r="C81" s="4">
-        <v>2193</v>
+        <v>2183</v>
       </c>
       <c r="D81" s="3">
         <v>3</v>
@@ -3954,7 +3932,7 @@
         <v>49</v>
       </c>
       <c r="C82" s="4">
-        <v>2242</v>
+        <v>2232</v>
       </c>
       <c r="D82" s="3">
         <v>2</v>
@@ -3986,7 +3964,7 @@
         <v>37</v>
       </c>
       <c r="C83" s="4">
-        <v>2279</v>
+        <v>2269</v>
       </c>
       <c r="D83" s="3">
         <v>2</v>
@@ -4018,7 +3996,7 @@
         <v>72</v>
       </c>
       <c r="C84" s="4">
-        <v>2351</v>
+        <v>2341</v>
       </c>
       <c r="D84" s="4">
         <v>2</v>
@@ -4050,7 +4028,7 @@
         <v>66</v>
       </c>
       <c r="C85" s="4">
-        <v>2417</v>
+        <v>2407</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -4082,7 +4060,7 @@
         <v>63</v>
       </c>
       <c r="C86" s="4">
-        <v>2480</v>
+        <v>2470</v>
       </c>
       <c r="D86" s="4">
         <v>3</v>
@@ -4114,7 +4092,7 @@
         <v>82</v>
       </c>
       <c r="C87" s="4">
-        <v>2562</v>
+        <v>2552</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -4146,7 +4124,7 @@
         <v>38</v>
       </c>
       <c r="C88" s="4">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -4175,10 +4153,10 @@
         <v>43962</v>
       </c>
       <c r="B89" s="4">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C89" s="4">
-        <v>2600</v>
+        <v>2659</v>
       </c>
       <c r="D89" s="4">
         <v>0</v>
@@ -4187,10 +4165,10 @@
         <v>278</v>
       </c>
       <c r="F89" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G89" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H89" s="4">
         <v>10</v>
@@ -4222,10 +4200,10 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomRight" activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="other" sheetId="4" r:id="rId3"/>
     <sheet name="＿" sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$64</definedName>
   </definedNames>
@@ -325,6 +328,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="検査件数 (累計)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -615,13 +631,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1513,7 +1529,33 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="7">
+        <v>43963</v>
+      </c>
+      <c r="B35" s="4">
+        <v>278</v>
+      </c>
+      <c r="C35" s="3">
+        <v>275</v>
+      </c>
+      <c r="D35" s="3">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3">
+        <v>69</v>
+      </c>
+      <c r="F35" s="3">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3">
+        <v>9</v>
+      </c>
+      <c r="H35" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1530,13 +1572,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomRight" activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4181,7 +4223,39 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="4" t="s">
+      <c r="A90" s="7">
+        <v>43963</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4">
+        <v>2659</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>278</v>
+      </c>
+      <c r="F90" s="4">
+        <v>75</v>
+      </c>
+      <c r="G90" s="4">
+        <v>65</v>
+      </c>
+      <c r="H90" s="4">
+        <v>10</v>
+      </c>
+      <c r="I90" s="4">
+        <v>9</v>
+      </c>
+      <c r="J90" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B91" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4197,13 +4271,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J64" sqref="J64"/>
+      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5844,8 +5918,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="4" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="7">
+        <v>43963</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>14</v>
+      </c>
+      <c r="D65" s="2">
+        <v>5</v>
+      </c>
+      <c r="E65" s="4">
+        <v>4</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B66" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -17,9 +17,6 @@
     <sheet name="other" sheetId="4" r:id="rId3"/>
     <sheet name="＿" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">kobe!$A$1:$J$64</definedName>
   </definedNames>
@@ -328,19 +325,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="検査件数 (累計)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -634,7 +618,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
@@ -1536,13 +1520,13 @@
         <v>278</v>
       </c>
       <c r="C35" s="3">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D35" s="3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" s="3">
         <v>11</v>
@@ -1551,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="H35" s="3">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1575,7 +1559,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J90" sqref="J90"/>
@@ -4227,10 +4211,10 @@
         <v>43963</v>
       </c>
       <c r="B90" s="4">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C90" s="4">
-        <v>2659</v>
+        <v>2713</v>
       </c>
       <c r="D90" s="4">
         <v>0</v>
@@ -4239,10 +4223,10 @@
         <v>278</v>
       </c>
       <c r="F90" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G90" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H90" s="4">
         <v>10</v>
@@ -4251,7 +4235,7 @@
         <v>9</v>
       </c>
       <c r="J90" s="4">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1539,7 +1539,33 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="7">
+        <v>43964</v>
+      </c>
+      <c r="B36" s="4">
+        <v>278</v>
+      </c>
+      <c r="C36" s="3">
+        <v>276</v>
+      </c>
+      <c r="D36" s="3">
+        <v>79</v>
+      </c>
+      <c r="E36" s="3">
+        <v>68</v>
+      </c>
+      <c r="F36" s="3">
+        <v>11</v>
+      </c>
+      <c r="G36" s="3">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1556,13 +1582,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J90" sqref="J90"/>
+      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4217,10 +4243,10 @@
         <v>2713</v>
       </c>
       <c r="D90" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F90" s="4">
         <v>74</v>
@@ -4239,7 +4265,36 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="7">
+        <v>43964</v>
+      </c>
+      <c r="C91" s="4">
+        <v>2713</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" s="4">
+        <v>281</v>
+      </c>
+      <c r="F91" s="4">
+        <v>74</v>
+      </c>
+      <c r="G91" s="4">
+        <v>64</v>
+      </c>
+      <c r="H91" s="4">
+        <v>10</v>
+      </c>
+      <c r="I91" s="4">
+        <v>9</v>
+      </c>
+      <c r="J91" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B92" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4255,13 +4310,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5929,7 +5984,33 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="7">
+        <v>43964</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>14</v>
+      </c>
+      <c r="D66" s="2">
+        <v>5</v>
+      </c>
+      <c r="E66" s="4">
+        <v>4</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B67" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -617,7 +617,7 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1584,11 +1584,11 @@
   </sheetPr>
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
+      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4267,6 +4267,9 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="7">
         <v>43964</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
       </c>
       <c r="C91" s="4">
         <v>2713</v>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -617,11 +617,11 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1549,16 +1549,16 @@
         <v>276</v>
       </c>
       <c r="D36" s="3">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="3">
+        <v>10</v>
+      </c>
+      <c r="G36" s="3">
         <v>11</v>
-      </c>
-      <c r="G36" s="3">
-        <v>9</v>
       </c>
       <c r="H36" s="3">
         <v>188</v>
@@ -1584,11 +1584,11 @@
   </sheetPr>
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomRight" activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4269,10 +4269,10 @@
         <v>43964</v>
       </c>
       <c r="B91" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C91" s="4">
-        <v>2713</v>
+        <v>2743</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
@@ -4281,16 +4281,16 @@
         <v>281</v>
       </c>
       <c r="F91" s="4">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G91" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H91" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I91" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J91" s="4">
         <v>179</v>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1565,7 +1565,33 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="7">
+        <v>43965</v>
+      </c>
+      <c r="B37" s="4">
+        <v>278</v>
+      </c>
+      <c r="C37" s="3">
+        <v>276</v>
+      </c>
+      <c r="D37" s="3">
+        <v>77</v>
+      </c>
+      <c r="E37" s="3">
+        <v>67</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10</v>
+      </c>
+      <c r="G37" s="3">
+        <v>11</v>
+      </c>
+      <c r="H37" s="3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1582,13 +1608,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J91" sqref="J91"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4297,7 +4323,39 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="7">
+        <v>43965</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4">
+        <v>2743</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>281</v>
+      </c>
+      <c r="F92" s="4">
+        <v>72</v>
+      </c>
+      <c r="G92" s="4">
+        <v>63</v>
+      </c>
+      <c r="H92" s="4">
+        <v>9</v>
+      </c>
+      <c r="I92" s="4">
+        <v>11</v>
+      </c>
+      <c r="J92" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B93" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4313,13 +4371,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6013,7 +6071,33 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="7">
+        <v>43965</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>14</v>
+      </c>
+      <c r="D67" s="2">
+        <v>5</v>
+      </c>
+      <c r="E67" s="4">
+        <v>4</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -617,11 +617,11 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1543,7 +1543,7 @@
         <v>43964</v>
       </c>
       <c r="B36" s="4">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C36" s="3">
         <v>276</v>
@@ -1569,16 +1569,16 @@
         <v>43965</v>
       </c>
       <c r="B37" s="4">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C37" s="3">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D37" s="3">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F37" s="3">
         <v>10</v>
@@ -1587,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="3">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1610,11 +1610,11 @@
   </sheetPr>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4327,10 +4327,10 @@
         <v>43965</v>
       </c>
       <c r="B92" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C92" s="4">
-        <v>2743</v>
+        <v>2771</v>
       </c>
       <c r="D92" s="4">
         <v>0</v>
@@ -4339,10 +4339,10 @@
         <v>281</v>
       </c>
       <c r="F92" s="4">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G92" s="4">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H92" s="4">
         <v>9</v>
@@ -4351,7 +4351,7 @@
         <v>11</v>
       </c>
       <c r="J92" s="4">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1591,7 +1591,33 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="7">
+        <v>43966</v>
+      </c>
+      <c r="B38" s="4">
+        <v>281</v>
+      </c>
+      <c r="C38" s="3">
+        <v>277</v>
+      </c>
+      <c r="D38" s="3">
+        <v>64</v>
+      </c>
+      <c r="E38" s="3">
+        <v>54</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3">
+        <v>11</v>
+      </c>
+      <c r="H38" s="3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1608,13 +1634,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H84" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J92" sqref="J92"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4355,7 +4381,39 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="7">
+        <v>43966</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>2771</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>281</v>
+      </c>
+      <c r="F93" s="4">
+        <v>59</v>
+      </c>
+      <c r="G93" s="4">
+        <v>50</v>
+      </c>
+      <c r="H93" s="4">
+        <v>9</v>
+      </c>
+      <c r="I93" s="4">
+        <v>11</v>
+      </c>
+      <c r="J93" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B94" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4371,13 +4429,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6097,7 +6155,33 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="7">
+        <v>43966</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2">
+        <v>5</v>
+      </c>
+      <c r="E68" s="4">
+        <v>4</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -617,11 +617,11 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="H38" activeCellId="2" sqref="D38 G38 H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1598,13 +1598,13 @@
         <v>281</v>
       </c>
       <c r="C38" s="3">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D38" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="3">
         <v>10</v>
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="H38" s="3">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1637,10 +1637,10 @@
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4385,10 +4385,10 @@
         <v>43966</v>
       </c>
       <c r="B93" s="4">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C93" s="4">
-        <v>2771</v>
+        <v>2813</v>
       </c>
       <c r="D93" s="4">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>59</v>
       </c>
       <c r="G93" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H93" s="4">
         <v>9</v>
@@ -4409,7 +4409,7 @@
         <v>11</v>
       </c>
       <c r="J93" s="4">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -4431,11 +4431,11 @@
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\広報課業務\ホームページ関連\HP定例更新\0516_1200\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" activeCellId="2" sqref="D38 G38 H38"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1617,7 +1617,33 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="7">
+        <v>43967</v>
+      </c>
+      <c r="B39" s="4">
+        <v>282</v>
+      </c>
+      <c r="C39" s="3">
+        <v>278</v>
+      </c>
+      <c r="D39" s="3">
+        <v>63</v>
+      </c>
+      <c r="E39" s="3">
+        <v>53</v>
+      </c>
+      <c r="F39" s="3">
+        <v>10</v>
+      </c>
+      <c r="G39" s="3">
+        <v>11</v>
+      </c>
+      <c r="H39" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1634,13 +1660,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomRight" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4391,13 +4417,13 @@
         <v>2813</v>
       </c>
       <c r="D93" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="4">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F93" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G93" s="4">
         <v>49</v>
@@ -4413,7 +4439,39 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="4" t="s">
+      <c r="A94" s="7">
+        <v>43967</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="4">
+        <v>2813</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>282</v>
+      </c>
+      <c r="F94" s="4">
+        <v>58</v>
+      </c>
+      <c r="G94" s="4">
+        <v>49</v>
+      </c>
+      <c r="H94" s="4">
+        <v>9</v>
+      </c>
+      <c r="I94" s="4">
+        <v>11</v>
+      </c>
+      <c r="J94" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B95" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4429,13 +4487,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6181,7 +6239,33 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B69" s="4" t="s">
+      <c r="A69" s="7">
+        <v>43967</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>14</v>
+      </c>
+      <c r="D69" s="2">
+        <v>5</v>
+      </c>
+      <c r="E69" s="4">
+        <v>4</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\広報課業務\ホームページ関連\HP定例更新\0516_1200\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -617,7 +617,7 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1624,22 +1624,22 @@
         <v>282</v>
       </c>
       <c r="C39" s="3">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D39" s="3">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E39" s="3">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F39" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G39" s="3">
         <v>11</v>
       </c>
       <c r="H39" s="3">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1663,10 +1663,10 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A94" sqref="A94"/>
+      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4443,10 +4443,10 @@
         <v>43967</v>
       </c>
       <c r="B94" s="4">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C94" s="4">
-        <v>2813</v>
+        <v>2840</v>
       </c>
       <c r="D94" s="4">
         <v>0</v>
@@ -4455,19 +4455,19 @@
         <v>282</v>
       </c>
       <c r="F94" s="4">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G94" s="4">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H94" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I94" s="4">
         <v>11</v>
       </c>
       <c r="J94" s="4">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -4489,7 +4489,7 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1643,7 +1643,33 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="7">
+        <v>43968</v>
+      </c>
+      <c r="B40" s="4">
+        <v>283</v>
+      </c>
+      <c r="C40" s="3">
+        <v>280</v>
+      </c>
+      <c r="D40" s="3">
+        <v>51</v>
+      </c>
+      <c r="E40" s="3">
+        <v>44</v>
+      </c>
+      <c r="F40" s="3">
+        <v>7</v>
+      </c>
+      <c r="G40" s="3">
+        <v>11</v>
+      </c>
+      <c r="H40" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1660,13 +1686,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
+      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4449,16 +4475,16 @@
         <v>2840</v>
       </c>
       <c r="D94" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F94" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G94" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H94" s="4">
         <v>6</v>
@@ -4467,11 +4493,43 @@
         <v>11</v>
       </c>
       <c r="J94" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="7">
+        <v>43968</v>
+      </c>
+      <c r="B95" s="4">
+        <v>25</v>
+      </c>
+      <c r="C95" s="4">
+        <v>2865</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>283</v>
+      </c>
+      <c r="F95" s="4">
+        <v>46</v>
+      </c>
+      <c r="G95" s="4">
+        <v>40</v>
+      </c>
+      <c r="H95" s="4">
+        <v>6</v>
+      </c>
+      <c r="I95" s="4">
+        <v>11</v>
+      </c>
+      <c r="J95" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B96" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4489,7 +4547,7 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -873,10 +873,10 @@
         <v>146</v>
       </c>
       <c r="D10" s="3">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F10" s="3">
         <v>8</v>
@@ -885,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="3">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -899,10 +899,10 @@
         <v>149</v>
       </c>
       <c r="D11" s="2">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F11" s="2">
         <v>8</v>
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -925,10 +925,10 @@
         <v>156</v>
       </c>
       <c r="D12" s="2">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F12" s="2">
         <v>8</v>
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -951,10 +951,10 @@
         <v>175</v>
       </c>
       <c r="D13" s="1">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1">
         <v>7</v>
@@ -963,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -977,10 +977,10 @@
         <v>176</v>
       </c>
       <c r="D14" s="3">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E14" s="3">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F14" s="3">
         <v>8</v>
@@ -989,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1003,10 +1003,10 @@
         <v>195</v>
       </c>
       <c r="D15" s="3">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E15" s="3">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F15" s="3">
         <v>10</v>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1029,10 +1029,10 @@
         <v>206</v>
       </c>
       <c r="D16" s="3">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E16" s="3">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F16" s="3">
         <v>10</v>
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1055,10 +1055,10 @@
         <v>220</v>
       </c>
       <c r="D17" s="3">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E17" s="3">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F17" s="3">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1081,10 +1081,10 @@
         <v>219</v>
       </c>
       <c r="D18" s="3">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E18" s="3">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F18" s="3">
         <v>10</v>
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1107,10 +1107,10 @@
         <v>223</v>
       </c>
       <c r="D19" s="3">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E19" s="3">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F19" s="3">
         <v>10</v>
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="3">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1133,10 +1133,10 @@
         <v>224</v>
       </c>
       <c r="D20" s="3">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E20" s="3">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F20" s="3">
         <v>10</v>
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="3">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1156,13 +1156,13 @@
         <v>254</v>
       </c>
       <c r="C21" s="4">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D21" s="3">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E21" s="3">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F21" s="3">
         <v>9</v>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="3">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1182,13 +1182,13 @@
         <v>256</v>
       </c>
       <c r="C22" s="4">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D22" s="3">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E22" s="3">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F22" s="3">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1208,13 +1208,13 @@
         <v>258</v>
       </c>
       <c r="C23" s="4">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D23" s="3">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E23" s="3">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F23" s="3">
         <v>13</v>
@@ -1223,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="3">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1234,13 +1234,13 @@
         <v>260</v>
       </c>
       <c r="C24" s="4">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D24" s="3">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E24" s="3">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F24" s="3">
         <v>13</v>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1260,13 +1260,13 @@
         <v>260</v>
       </c>
       <c r="C25" s="4">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D25" s="3">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F25" s="3">
         <v>12</v>
@@ -1275,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="3">
-        <v>122</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1286,13 +1286,13 @@
         <v>266</v>
       </c>
       <c r="C26" s="3">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D26" s="3">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E26" s="3">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F26" s="3">
         <v>11</v>
@@ -1301,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1312,13 +1312,13 @@
         <v>266</v>
       </c>
       <c r="C27" s="3">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D27" s="3">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E27" s="3">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F27" s="3">
         <v>10</v>
@@ -1327,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1338,13 +1338,13 @@
         <v>270</v>
       </c>
       <c r="C28" s="3">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D28" s="3">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E28" s="3">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F28" s="3">
         <v>10</v>
@@ -1353,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="3">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1364,13 +1364,13 @@
         <v>272</v>
       </c>
       <c r="C29" s="3">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D29" s="3">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E29" s="3">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F29" s="3">
         <v>10</v>
@@ -1379,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="3">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1390,13 +1390,13 @@
         <v>273</v>
       </c>
       <c r="C30" s="3">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D30" s="3">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E30" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="3">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="3">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1416,13 +1416,13 @@
         <v>273</v>
       </c>
       <c r="C31" s="3">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D31" s="3">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E31" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="3">
         <v>10</v>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="H31" s="3">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1442,13 +1442,13 @@
         <v>276</v>
       </c>
       <c r="C32" s="3">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D32" s="3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E32" s="3">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" s="3">
         <v>10</v>
@@ -1457,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="3">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1468,13 +1468,13 @@
         <v>277</v>
       </c>
       <c r="C33" s="3">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D33" s="3">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E33" s="3">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F33" s="3">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="3">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1494,13 +1494,13 @@
         <v>278</v>
       </c>
       <c r="C34" s="3">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D34" s="3">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E34" s="3">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F34" s="3">
         <v>11</v>
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="3">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1520,13 +1520,13 @@
         <v>278</v>
       </c>
       <c r="C35" s="3">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D35" s="3">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E35" s="3">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F35" s="3">
         <v>11</v>
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="H35" s="3">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1546,13 +1546,13 @@
         <v>281</v>
       </c>
       <c r="C36" s="3">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D36" s="3">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E36" s="3">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F36" s="3">
         <v>10</v>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="3">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1572,13 +1572,13 @@
         <v>281</v>
       </c>
       <c r="C37" s="3">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D37" s="3">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E37" s="3">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F37" s="3">
         <v>10</v>
@@ -1587,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="3">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1598,13 +1598,13 @@
         <v>281</v>
       </c>
       <c r="C38" s="3">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D38" s="3">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E38" s="3">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F38" s="3">
         <v>10</v>
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="H38" s="3">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1627,10 +1627,10 @@
         <v>280</v>
       </c>
       <c r="D39" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="3">
         <v>7</v>
@@ -1639,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="3">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1669,7 +1669,33 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="7">
+        <v>43969</v>
+      </c>
+      <c r="B41" s="4">
+        <v>283</v>
+      </c>
+      <c r="C41" s="3">
+        <v>280</v>
+      </c>
+      <c r="D41" s="3">
+        <v>51</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3">
+        <v>11</v>
+      </c>
+      <c r="H41" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1686,13 +1712,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2765,10 +2791,10 @@
         <v>24</v>
       </c>
       <c r="F41" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" s="4">
         <v>2</v>
@@ -2777,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -2829,10 +2855,10 @@
         <v>25</v>
       </c>
       <c r="F43" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G43" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H43" s="4">
         <v>2</v>
@@ -2841,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -2893,10 +2919,10 @@
         <v>31</v>
       </c>
       <c r="F45" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G45" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H45" s="4">
         <v>1</v>
@@ -2905,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -2989,11 +3015,11 @@
         <v>33</v>
       </c>
       <c r="F48" s="2">
+        <v>15</v>
+      </c>
+      <c r="G48" s="4">
         <v>13</v>
       </c>
-      <c r="G48" s="4">
-        <v>11</v>
-      </c>
       <c r="H48" s="4">
         <v>2</v>
       </c>
@@ -3001,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -3053,10 +3079,10 @@
         <v>37</v>
       </c>
       <c r="F50" s="2">
+        <v>16</v>
+      </c>
+      <c r="G50" s="4">
         <v>14</v>
-      </c>
-      <c r="G50" s="4">
-        <v>12</v>
       </c>
       <c r="H50" s="4">
         <v>2</v>
@@ -3117,10 +3143,10 @@
         <v>43</v>
       </c>
       <c r="F52" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="4">
         <v>2</v>
@@ -3150,10 +3176,10 @@
         <v>51</v>
       </c>
       <c r="F53" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G53" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H53" s="4">
         <v>3</v>
@@ -3183,10 +3209,10 @@
         <v>56</v>
       </c>
       <c r="F54" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G54" s="4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H54" s="4">
         <v>4</v>
@@ -3216,10 +3242,10 @@
         <v>68</v>
       </c>
       <c r="F55" s="2">
+        <v>41</v>
+      </c>
+      <c r="G55" s="4">
         <v>37</v>
-      </c>
-      <c r="G55" s="4">
-        <v>33</v>
       </c>
       <c r="H55" s="4">
         <v>4</v>
@@ -3249,10 +3275,10 @@
         <v>78</v>
       </c>
       <c r="F56" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G56" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H56" s="4">
         <v>4</v>
@@ -3282,10 +3308,10 @@
         <v>90</v>
       </c>
       <c r="F57" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G57" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H57" s="4">
         <v>4</v>
@@ -3348,10 +3374,10 @@
         <v>120</v>
       </c>
       <c r="F59" s="4">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G59" s="4">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H59" s="4">
         <v>4</v>
@@ -3381,10 +3407,10 @@
         <v>127</v>
       </c>
       <c r="F60" s="4">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G60" s="4">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H60" s="4">
         <v>4</v>
@@ -3393,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3414,10 +3440,10 @@
         <v>135</v>
       </c>
       <c r="F61" s="4">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G61" s="4">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H61" s="4">
         <v>7</v>
@@ -3426,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3447,10 +3473,10 @@
         <v>142</v>
       </c>
       <c r="F62" s="4">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G62" s="4">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H62" s="4">
         <v>6</v>
@@ -3459,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
@@ -3480,10 +3506,10 @@
         <v>155</v>
       </c>
       <c r="F63" s="4">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="G63" s="4">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="H63" s="4">
         <v>6</v>
@@ -3492,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="4">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -3513,10 +3539,10 @@
         <v>161</v>
       </c>
       <c r="F64" s="4">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G64" s="4">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H64" s="4">
         <v>6</v>
@@ -3525,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="4">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K64" s="3"/>
     </row>
@@ -3547,10 +3573,10 @@
         <v>173</v>
       </c>
       <c r="F65" s="3">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G65" s="3">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H65" s="3">
         <v>7</v>
@@ -3559,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="3">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -3580,10 +3606,10 @@
         <v>182</v>
       </c>
       <c r="F66" s="2">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G66" s="2">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H66" s="2">
         <v>7</v>
@@ -3592,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="J66" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -3613,10 +3639,10 @@
         <v>185</v>
       </c>
       <c r="F67" s="2">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G67" s="2">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="H67" s="2">
         <v>7</v>
@@ -3625,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -3646,10 +3672,10 @@
         <v>193</v>
       </c>
       <c r="F68" s="2">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G68" s="2">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H68" s="2">
         <v>6</v>
@@ -3658,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="J68" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -3679,10 +3705,10 @@
         <v>207</v>
       </c>
       <c r="F69" s="2">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G69" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H69" s="2">
         <v>7</v>
@@ -3691,7 +3717,7 @@
         <v>3</v>
       </c>
       <c r="J69" s="2">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -3712,10 +3738,10 @@
         <v>218</v>
       </c>
       <c r="F70" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G70" s="2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H70" s="2">
         <v>9</v>
@@ -3724,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
@@ -3745,10 +3771,10 @@
         <v>240</v>
       </c>
       <c r="F71" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G71" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H71" s="2">
         <v>9</v>
@@ -3757,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
@@ -3777,10 +3803,10 @@
         <v>245</v>
       </c>
       <c r="F72" s="2">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G72" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H72" s="2">
         <v>9</v>
@@ -3789,7 +3815,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -3809,10 +3835,10 @@
         <v>251</v>
       </c>
       <c r="F73" s="2">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G73" s="2">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="H73" s="2">
         <v>9</v>
@@ -3821,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="J73" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -3841,10 +3867,10 @@
         <v>251</v>
       </c>
       <c r="F74" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G74" s="2">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="H74" s="2">
         <v>9</v>
@@ -3853,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="J74" s="2">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
@@ -3873,10 +3899,10 @@
         <v>253</v>
       </c>
       <c r="F75" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G75" s="2">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H75" s="2">
         <v>9</v>
@@ -3885,7 +3911,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="2">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -3905,10 +3931,10 @@
         <v>256</v>
       </c>
       <c r="F76" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G76" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H76" s="2">
         <v>8</v>
@@ -3917,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="2">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -3937,10 +3963,10 @@
         <v>257</v>
       </c>
       <c r="F77" s="2">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G77" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H77" s="2">
         <v>9</v>
@@ -3949,7 +3975,7 @@
         <v>4</v>
       </c>
       <c r="J77" s="2">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -3969,10 +3995,10 @@
         <v>258</v>
       </c>
       <c r="F78" s="2">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G78" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H78" s="2">
         <v>12</v>
@@ -3981,7 +4007,7 @@
         <v>4</v>
       </c>
       <c r="J78" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -4001,10 +4027,10 @@
         <v>260</v>
       </c>
       <c r="F79" s="2">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G79" s="2">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H79" s="2">
         <v>12</v>
@@ -4013,7 +4039,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="2">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -4033,10 +4059,10 @@
         <v>263</v>
       </c>
       <c r="F80" s="2">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="G80" s="2">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="H80" s="2">
         <v>11</v>
@@ -4045,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="J80" s="2">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -4065,10 +4091,10 @@
         <v>266</v>
       </c>
       <c r="F81" s="2">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G81" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="H81" s="2">
         <v>10</v>
@@ -4077,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="2">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -4097,10 +4123,10 @@
         <v>266</v>
       </c>
       <c r="F82" s="2">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="G82" s="2">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H82" s="2">
         <v>9</v>
@@ -4109,7 +4135,7 @@
         <v>6</v>
       </c>
       <c r="J82" s="2">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -4129,10 +4155,10 @@
         <v>270</v>
       </c>
       <c r="F83" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G83" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H83" s="2">
         <v>9</v>
@@ -4141,7 +4167,7 @@
         <v>7</v>
       </c>
       <c r="J83" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
@@ -4161,10 +4187,10 @@
         <v>272</v>
       </c>
       <c r="F84" s="4">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G84" s="4">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H84" s="4">
         <v>9</v>
@@ -4173,7 +4199,7 @@
         <v>7</v>
       </c>
       <c r="J84" s="4">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
@@ -4193,10 +4219,10 @@
         <v>273</v>
       </c>
       <c r="F85" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G85" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H85" s="4">
         <v>9</v>
@@ -4205,7 +4231,7 @@
         <v>8</v>
       </c>
       <c r="J85" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
@@ -4225,10 +4251,10 @@
         <v>276</v>
       </c>
       <c r="F86" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G86" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H86" s="4">
         <v>9</v>
@@ -4237,7 +4263,7 @@
         <v>8</v>
       </c>
       <c r="J86" s="4">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
@@ -4257,10 +4283,10 @@
         <v>277</v>
       </c>
       <c r="F87" s="4">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G87" s="4">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H87" s="4">
         <v>9</v>
@@ -4269,7 +4295,7 @@
         <v>8</v>
       </c>
       <c r="J87" s="4">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -4289,10 +4315,10 @@
         <v>278</v>
       </c>
       <c r="F88" s="4">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G88" s="4">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H88" s="4">
         <v>10</v>
@@ -4301,7 +4327,7 @@
         <v>8</v>
       </c>
       <c r="J88" s="4">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -4321,10 +4347,10 @@
         <v>278</v>
       </c>
       <c r="F89" s="4">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G89" s="4">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H89" s="4">
         <v>10</v>
@@ -4333,7 +4359,7 @@
         <v>8</v>
       </c>
       <c r="J89" s="4">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -4353,10 +4379,10 @@
         <v>279</v>
       </c>
       <c r="F90" s="4">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G90" s="4">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H90" s="4">
         <v>10</v>
@@ -4365,7 +4391,7 @@
         <v>9</v>
       </c>
       <c r="J90" s="4">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -4385,10 +4411,10 @@
         <v>281</v>
       </c>
       <c r="F91" s="4">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G91" s="4">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H91" s="4">
         <v>9</v>
@@ -4397,7 +4423,7 @@
         <v>11</v>
       </c>
       <c r="J91" s="4">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -4417,10 +4443,10 @@
         <v>281</v>
       </c>
       <c r="F92" s="4">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G92" s="4">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H92" s="4">
         <v>9</v>
@@ -4429,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="J92" s="4">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
@@ -4449,10 +4475,10 @@
         <v>282</v>
       </c>
       <c r="F93" s="4">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G93" s="4">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H93" s="4">
         <v>9</v>
@@ -4461,7 +4487,7 @@
         <v>11</v>
       </c>
       <c r="J93" s="4">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -4529,7 +4555,39 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="7">
+        <v>43969</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+      <c r="C96" s="4">
+        <v>2865</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>283</v>
+      </c>
+      <c r="F96" s="4">
+        <v>46</v>
+      </c>
+      <c r="G96" s="4">
+        <v>40</v>
+      </c>
+      <c r="H96" s="4">
+        <v>6</v>
+      </c>
+      <c r="I96" s="4">
+        <v>11</v>
+      </c>
+      <c r="J96" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4545,13 +4603,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6323,7 +6381,59 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B70" s="4" t="s">
+      <c r="A70" s="7">
+        <v>43968</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2">
+        <v>5</v>
+      </c>
+      <c r="E70" s="4">
+        <v>4</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>43969</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2">
+        <v>5</v>
+      </c>
+      <c r="E71" s="4">
+        <v>4</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B72" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -618,10 +618,10 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1676,13 +1676,13 @@
         <v>283</v>
       </c>
       <c r="C41" s="3">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D41" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E41" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" s="3">
         <v>7</v>
@@ -1715,10 +1715,10 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
+      <selection pane="bottomRight" activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4559,10 +4559,10 @@
         <v>43969</v>
       </c>
       <c r="B96" s="4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C96" s="4">
-        <v>2865</v>
+        <v>2896</v>
       </c>
       <c r="D96" s="4">
         <v>0</v>
@@ -4571,10 +4571,10 @@
         <v>283</v>
       </c>
       <c r="F96" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G96" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H96" s="4">
         <v>6</v>
@@ -4606,7 +4606,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A70" sqref="A70"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -615,13 +615,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1695,7 +1695,31 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="7">
+        <v>43970</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="3">
+        <v>281</v>
+      </c>
+      <c r="D42" s="3">
+        <v>52</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45</v>
+      </c>
+      <c r="F42" s="3">
+        <v>7</v>
+      </c>
+      <c r="G42" s="3">
+        <v>11</v>
+      </c>
+      <c r="H42" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1712,13 +1736,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E93" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J96" sqref="J96"/>
+      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4586,8 +4610,37 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" s="4" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>43970</v>
+      </c>
+      <c r="C97" s="4">
+        <v>2896</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <v>283</v>
+      </c>
+      <c r="F97" s="4">
+        <v>47</v>
+      </c>
+      <c r="G97" s="4">
+        <v>41</v>
+      </c>
+      <c r="H97" s="4">
+        <v>6</v>
+      </c>
+      <c r="I97" s="4">
+        <v>11</v>
+      </c>
+      <c r="J97" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B98" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4603,13 +4656,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6433,7 +6486,33 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="7">
+        <v>43970</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2">
+        <v>5</v>
+      </c>
+      <c r="E72" s="4">
+        <v>4</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B73" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -617,11 +617,11 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1698,7 +1698,9 @@
       <c r="A42" s="7">
         <v>43970</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4">
+        <v>283</v>
+      </c>
       <c r="C42" s="3">
         <v>281</v>
       </c>
@@ -1738,11 +1740,11 @@
   </sheetPr>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4613,6 +4615,9 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="7">
         <v>43970</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0</v>
       </c>
       <c r="C97" s="4">
         <v>2896</v>
@@ -4662,7 +4667,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -618,10 +618,10 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="H42" activeCellId="2" sqref="D42 G42 H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1705,19 +1705,19 @@
         <v>281</v>
       </c>
       <c r="D42" s="3">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E42" s="3">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F42" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G42" s="3">
         <v>11</v>
       </c>
       <c r="H42" s="3">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -1741,10 +1741,10 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomRight" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4617,10 +4617,10 @@
         <v>43970</v>
       </c>
       <c r="B97" s="4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C97" s="4">
-        <v>2896</v>
+        <v>2922</v>
       </c>
       <c r="D97" s="4">
         <v>0</v>
@@ -4629,19 +4629,19 @@
         <v>283</v>
       </c>
       <c r="F97" s="4">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G97" s="4">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H97" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I97" s="4">
         <v>11</v>
       </c>
       <c r="J97" s="4">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -4664,7 +4664,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A72" sqref="A72"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -221,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +251,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,12 +277,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,9 +319,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H42" activeCellId="2" sqref="D42 G42 H42"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1289,10 +1310,10 @@
         <v>266</v>
       </c>
       <c r="D26" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3">
         <v>11</v>
@@ -1315,10 +1336,10 @@
         <v>267</v>
       </c>
       <c r="D27" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="3">
         <v>10</v>
@@ -1341,10 +1362,10 @@
         <v>269</v>
       </c>
       <c r="D28" s="3">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" s="3">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28" s="3">
         <v>10</v>
@@ -1367,10 +1388,10 @@
         <v>270</v>
       </c>
       <c r="D29" s="3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3">
         <v>10</v>
@@ -1393,10 +1414,10 @@
         <v>271</v>
       </c>
       <c r="D30" s="3">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="3">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F30" s="3">
         <v>10</v>
@@ -1419,10 +1440,10 @@
         <v>275</v>
       </c>
       <c r="D31" s="3">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E31" s="3">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F31" s="3">
         <v>10</v>
@@ -1445,10 +1466,10 @@
         <v>275</v>
       </c>
       <c r="D32" s="3">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E32" s="3">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F32" s="3">
         <v>10</v>
@@ -1471,10 +1492,10 @@
         <v>276</v>
       </c>
       <c r="D33" s="3">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E33" s="3">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F33" s="3">
         <v>11</v>
@@ -1497,10 +1518,10 @@
         <v>276</v>
       </c>
       <c r="D34" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E34" s="3">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F34" s="3">
         <v>11</v>
@@ -1523,10 +1544,10 @@
         <v>277</v>
       </c>
       <c r="D35" s="3">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E35" s="3">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F35" s="3">
         <v>11</v>
@@ -1549,10 +1570,10 @@
         <v>279</v>
       </c>
       <c r="D36" s="3">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E36" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F36" s="3">
         <v>10</v>
@@ -1575,10 +1596,10 @@
         <v>279</v>
       </c>
       <c r="D37" s="3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E37" s="3">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F37" s="3">
         <v>10</v>
@@ -1601,10 +1622,10 @@
         <v>280</v>
       </c>
       <c r="D38" s="3">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E38" s="3">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F38" s="3">
         <v>10</v>
@@ -1627,10 +1648,10 @@
         <v>280</v>
       </c>
       <c r="D39" s="3">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E39" s="3">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F39" s="3">
         <v>7</v>
@@ -1653,10 +1674,10 @@
         <v>280</v>
       </c>
       <c r="D40" s="3">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E40" s="3">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F40" s="3">
         <v>7</v>
@@ -1679,10 +1700,10 @@
         <v>281</v>
       </c>
       <c r="D41" s="3">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E41" s="3">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F41" s="3">
         <v>7</v>
@@ -1721,7 +1742,33 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="7">
+        <v>43971</v>
+      </c>
+      <c r="B43" s="4">
+        <v>283</v>
+      </c>
+      <c r="C43" s="3">
+        <v>281</v>
+      </c>
+      <c r="D43" s="3">
+        <v>39</v>
+      </c>
+      <c r="E43" s="3">
+        <v>34</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>11</v>
+      </c>
+      <c r="H43" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1738,13 +1785,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B98" sqref="B98"/>
+      <selection pane="bottomRight" activeCell="F79" sqref="F79:J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4117,10 +4164,10 @@
         <v>266</v>
       </c>
       <c r="F81" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G81" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H81" s="2">
         <v>10</v>
@@ -4149,10 +4196,10 @@
         <v>266</v>
       </c>
       <c r="F82" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H82" s="2">
         <v>9</v>
@@ -4181,10 +4228,10 @@
         <v>270</v>
       </c>
       <c r="F83" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G83" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H83" s="2">
         <v>9</v>
@@ -4213,10 +4260,10 @@
         <v>272</v>
       </c>
       <c r="F84" s="4">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G84" s="4">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H84" s="4">
         <v>9</v>
@@ -4245,10 +4292,10 @@
         <v>273</v>
       </c>
       <c r="F85" s="4">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G85" s="4">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H85" s="4">
         <v>9</v>
@@ -4277,10 +4324,10 @@
         <v>276</v>
       </c>
       <c r="F86" s="4">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G86" s="4">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H86" s="4">
         <v>9</v>
@@ -4309,10 +4356,10 @@
         <v>277</v>
       </c>
       <c r="F87" s="4">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G87" s="4">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H87" s="4">
         <v>9</v>
@@ -4341,10 +4388,10 @@
         <v>278</v>
       </c>
       <c r="F88" s="4">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G88" s="4">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H88" s="4">
         <v>10</v>
@@ -4373,10 +4420,10 @@
         <v>278</v>
       </c>
       <c r="F89" s="4">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G89" s="4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H89" s="4">
         <v>10</v>
@@ -4405,10 +4452,10 @@
         <v>279</v>
       </c>
       <c r="F90" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G90" s="4">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H90" s="4">
         <v>10</v>
@@ -4437,10 +4484,10 @@
         <v>281</v>
       </c>
       <c r="F91" s="4">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G91" s="4">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H91" s="4">
         <v>9</v>
@@ -4469,10 +4516,10 @@
         <v>281</v>
       </c>
       <c r="F92" s="4">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G92" s="4">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H92" s="4">
         <v>9</v>
@@ -4501,10 +4548,10 @@
         <v>282</v>
       </c>
       <c r="F93" s="4">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G93" s="4">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H93" s="4">
         <v>9</v>
@@ -4533,10 +4580,10 @@
         <v>283</v>
       </c>
       <c r="F94" s="4">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G94" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H94" s="4">
         <v>6</v>
@@ -4565,10 +4612,10 @@
         <v>283</v>
       </c>
       <c r="F95" s="4">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G95" s="4">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H95" s="4">
         <v>6</v>
@@ -4597,10 +4644,10 @@
         <v>283</v>
       </c>
       <c r="F96" s="4">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G96" s="4">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H96" s="4">
         <v>6</v>
@@ -4644,8 +4691,40 @@
         <v>222</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B98" s="4" t="s">
+    <row r="98" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="13">
+        <v>43971</v>
+      </c>
+      <c r="B98" s="12">
+        <v>0</v>
+      </c>
+      <c r="C98" s="12">
+        <v>2922</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0</v>
+      </c>
+      <c r="E98" s="12">
+        <v>283</v>
+      </c>
+      <c r="F98" s="12">
+        <v>34</v>
+      </c>
+      <c r="G98" s="12">
+        <v>30</v>
+      </c>
+      <c r="H98" s="12">
+        <v>4</v>
+      </c>
+      <c r="I98" s="12">
+        <v>11</v>
+      </c>
+      <c r="J98" s="12">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B99" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4661,13 +4740,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6516,8 +6595,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B73" s="4" t="s">
+    <row r="73" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="13">
+        <v>43971</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>14</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5</v>
+      </c>
+      <c r="E73" s="12">
+        <v>4</v>
+      </c>
+      <c r="F73" s="12">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -638,11 +638,11 @@
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1374,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="3">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="3">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="3">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1452,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="H31" s="3">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1478,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="3">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1504,7 +1504,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="3">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1530,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="3">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1556,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="H35" s="3">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1582,7 +1582,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="3">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1608,7 +1608,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="3">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1634,7 +1634,7 @@
         <v>11</v>
       </c>
       <c r="H38" s="3">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1660,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="3">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1671,7 +1671,7 @@
         <v>283</v>
       </c>
       <c r="C40" s="3">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D40" s="3">
         <v>42</v>
@@ -1686,7 +1686,7 @@
         <v>11</v>
       </c>
       <c r="H40" s="3">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -1712,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="H41" s="3">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -1788,10 +1788,10 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F79" sqref="F79:J98"/>
+      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4176,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -4193,7 +4193,7 @@
         <v>2</v>
       </c>
       <c r="E82" s="4">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F82" s="2">
         <v>91</v>
@@ -4208,7 +4208,7 @@
         <v>6</v>
       </c>
       <c r="J82" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -4240,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="J83" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
@@ -4272,7 +4272,7 @@
         <v>7</v>
       </c>
       <c r="J84" s="4">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
@@ -4304,7 +4304,7 @@
         <v>8</v>
       </c>
       <c r="J85" s="4">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
@@ -4336,7 +4336,7 @@
         <v>8</v>
       </c>
       <c r="J86" s="4">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
@@ -4368,7 +4368,7 @@
         <v>8</v>
       </c>
       <c r="J87" s="4">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -4400,7 +4400,7 @@
         <v>8</v>
       </c>
       <c r="J88" s="4">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -4432,7 +4432,7 @@
         <v>8</v>
       </c>
       <c r="J89" s="4">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -4464,7 +4464,7 @@
         <v>9</v>
       </c>
       <c r="J90" s="4">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -4496,7 +4496,7 @@
         <v>11</v>
       </c>
       <c r="J91" s="4">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -4528,7 +4528,7 @@
         <v>11</v>
       </c>
       <c r="J92" s="4">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
@@ -4560,7 +4560,7 @@
         <v>11</v>
       </c>
       <c r="J93" s="4">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -4592,7 +4592,7 @@
         <v>11</v>
       </c>
       <c r="J94" s="4">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -4624,7 +4624,7 @@
         <v>11</v>
       </c>
       <c r="J95" s="4">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
@@ -4656,7 +4656,7 @@
         <v>11</v>
       </c>
       <c r="J96" s="4">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -4742,11 +4742,11 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -638,11 +638,11 @@
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1787,11 +1787,11 @@
   </sheetPr>
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
+      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4696,10 +4696,10 @@
         <v>43971</v>
       </c>
       <c r="B98" s="12">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C98" s="12">
-        <v>2922</v>
+        <v>2956</v>
       </c>
       <c r="D98" s="12">
         <v>0</v>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -195,23 +195,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※　24・34・53・58・59・60・158・161・163・192・237・248・268・272・276・277例目（計16件）は市外在住者です。</t>
-    <rPh sb="59" eb="60">
+    <t>※　24・34・53・58・59・60・158・161・163・192・237・248・268・272・276・277・285例目（計17件）は市外在住者です。</t>
+    <rPh sb="63" eb="64">
       <t>レイ</t>
     </rPh>
-    <rPh sb="60" eb="61">
+    <rPh sb="64" eb="65">
       <t>メ</t>
     </rPh>
-    <rPh sb="62" eb="63">
+    <rPh sb="66" eb="67">
       <t>ケイ</t>
     </rPh>
-    <rPh sb="65" eb="66">
+    <rPh sb="69" eb="70">
       <t>ケン</t>
     </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="72" eb="74">
       <t>シガイ</t>
     </rPh>
-    <rPh sb="70" eb="73">
+    <rPh sb="74" eb="77">
       <t>ザイジュウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1768,7 +1768,33 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="13">
+        <v>43972</v>
+      </c>
+      <c r="B44" s="12">
+        <v>285</v>
+      </c>
+      <c r="C44" s="11">
+        <v>282</v>
+      </c>
+      <c r="D44" s="11">
+        <v>40</v>
+      </c>
+      <c r="E44" s="11">
+        <v>35</v>
+      </c>
+      <c r="F44" s="11">
+        <v>5</v>
+      </c>
+      <c r="G44" s="11">
+        <v>11</v>
+      </c>
+      <c r="H44" s="11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1785,13 +1811,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomRight" activeCell="F99" activeCellId="1" sqref="I99:J99 F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4702,10 +4728,10 @@
         <v>2956</v>
       </c>
       <c r="D98" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98" s="12">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F98" s="12">
         <v>34</v>
@@ -4723,8 +4749,40 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B99" s="4" t="s">
+    <row r="99" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="13">
+        <v>43972</v>
+      </c>
+      <c r="B99" s="12">
+        <v>0</v>
+      </c>
+      <c r="C99" s="12">
+        <v>2956</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12">
+        <v>285</v>
+      </c>
+      <c r="F99" s="12">
+        <v>35</v>
+      </c>
+      <c r="G99" s="12">
+        <v>31</v>
+      </c>
+      <c r="H99" s="12">
+        <v>4</v>
+      </c>
+      <c r="I99" s="12">
+        <v>11</v>
+      </c>
+      <c r="J99" s="12">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B100" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4740,13 +4798,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6621,8 +6679,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B74" s="4" t="s">
+    <row r="74" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="13">
+        <v>43972</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>14</v>
+      </c>
+      <c r="D74" s="2">
+        <v>5</v>
+      </c>
+      <c r="E74" s="12">
+        <v>4</v>
+      </c>
+      <c r="F74" s="12">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -638,11 +638,11 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="D44" activeCellId="2" sqref="H44 G44 D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1778,10 +1778,10 @@
         <v>282</v>
       </c>
       <c r="D44" s="11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E44" s="11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F44" s="11">
         <v>5</v>
@@ -1790,7 +1790,7 @@
         <v>11</v>
       </c>
       <c r="H44" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -1813,11 +1813,11 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F99" activeCellId="1" sqref="I99:J99 F99"/>
+      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4754,10 +4754,10 @@
         <v>43972</v>
       </c>
       <c r="B99" s="12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C99" s="12">
-        <v>2956</v>
+        <v>2982</v>
       </c>
       <c r="D99" s="12">
         <v>0</v>
@@ -4766,10 +4766,10 @@
         <v>285</v>
       </c>
       <c r="F99" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G99" s="12">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H99" s="12">
         <v>4</v>
@@ -4778,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="J99" s="12">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
@@ -4804,7 +4804,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" activeCellId="2" sqref="H44 G44 D44"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1794,7 +1794,33 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="13">
+        <v>43973</v>
+      </c>
+      <c r="B45" s="12">
+        <v>285</v>
+      </c>
+      <c r="C45" s="11">
+        <v>282</v>
+      </c>
+      <c r="D45" s="11">
+        <v>37</v>
+      </c>
+      <c r="E45" s="11">
+        <v>32</v>
+      </c>
+      <c r="F45" s="11">
+        <v>5</v>
+      </c>
+      <c r="G45" s="11">
+        <v>11</v>
+      </c>
+      <c r="H45" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1811,13 +1837,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
+      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4781,8 +4807,40 @@
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B100" s="4" t="s">
+    <row r="100" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="13">
+        <v>43973</v>
+      </c>
+      <c r="B100" s="12">
+        <v>0</v>
+      </c>
+      <c r="C100" s="12">
+        <v>2982</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0</v>
+      </c>
+      <c r="E100" s="12">
+        <v>285</v>
+      </c>
+      <c r="F100" s="12">
+        <v>32</v>
+      </c>
+      <c r="G100" s="12">
+        <v>28</v>
+      </c>
+      <c r="H100" s="12">
+        <v>4</v>
+      </c>
+      <c r="I100" s="12">
+        <v>11</v>
+      </c>
+      <c r="J100" s="12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B101" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4798,13 +4856,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6705,8 +6763,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B75" s="4" t="s">
+    <row r="75" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="13">
+        <v>43973</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2">
+        <v>5</v>
+      </c>
+      <c r="E75" s="12">
+        <v>4</v>
+      </c>
+      <c r="F75" s="12">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B76" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -639,10 +639,10 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1804,16 +1804,16 @@
         <v>282</v>
       </c>
       <c r="D45" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="11">
         <v>32</v>
       </c>
       <c r="F45" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" s="11">
         <v>234</v>
@@ -1843,7 +1843,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomRight" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4780,10 +4780,10 @@
         <v>43972</v>
       </c>
       <c r="B99" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C99" s="12">
-        <v>2982</v>
+        <v>2987</v>
       </c>
       <c r="D99" s="12">
         <v>0</v>
@@ -4812,10 +4812,10 @@
         <v>43973</v>
       </c>
       <c r="B100" s="12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C100" s="12">
-        <v>2982</v>
+        <v>3010</v>
       </c>
       <c r="D100" s="12">
         <v>0</v>
@@ -4824,16 +4824,16 @@
         <v>285</v>
       </c>
       <c r="F100" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" s="12">
         <v>28</v>
       </c>
       <c r="H100" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J100" s="12">
         <v>225</v>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1820,7 +1820,33 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="13">
+        <v>43974</v>
+      </c>
+      <c r="B46" s="12">
+        <v>285</v>
+      </c>
+      <c r="C46" s="11">
+        <v>282</v>
+      </c>
+      <c r="D46" s="11">
+        <v>36</v>
+      </c>
+      <c r="E46" s="11">
+        <v>32</v>
+      </c>
+      <c r="F46" s="11">
+        <v>4</v>
+      </c>
+      <c r="G46" s="11">
+        <v>12</v>
+      </c>
+      <c r="H46" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1837,13 +1863,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4839,8 +4865,40 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="4" t="s">
+    <row r="101" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="13">
+        <v>43974</v>
+      </c>
+      <c r="B101" s="12">
+        <v>0</v>
+      </c>
+      <c r="C101" s="12">
+        <v>3010</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+      <c r="E101" s="12">
+        <v>285</v>
+      </c>
+      <c r="F101" s="12">
+        <v>31</v>
+      </c>
+      <c r="G101" s="12">
+        <v>28</v>
+      </c>
+      <c r="H101" s="12">
+        <v>3</v>
+      </c>
+      <c r="I101" s="12">
+        <v>12</v>
+      </c>
+      <c r="J101" s="12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B102" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4856,13 +4914,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6789,8 +6847,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B76" s="4" t="s">
+    <row r="76" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="13">
+        <v>43974</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5</v>
+      </c>
+      <c r="E76" s="12">
+        <v>4</v>
+      </c>
+      <c r="F76" s="12">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -639,10 +639,10 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1830,10 +1830,10 @@
         <v>282</v>
       </c>
       <c r="D46" s="11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E46" s="11">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F46" s="11">
         <v>4</v>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="11">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -1869,7 +1869,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
+      <selection pane="bottomRight" activeCell="J101" activeCellId="2" sqref="F101 I101 J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4870,10 +4870,10 @@
         <v>43974</v>
       </c>
       <c r="B101" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C101" s="12">
-        <v>3010</v>
+        <v>3021</v>
       </c>
       <c r="D101" s="12">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>285</v>
       </c>
       <c r="F101" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G101" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H101" s="12">
         <v>3</v>
@@ -4894,7 +4894,7 @@
         <v>12</v>
       </c>
       <c r="J101" s="12">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1846,7 +1846,33 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="13">
+        <v>43975</v>
+      </c>
+      <c r="B47" s="12">
+        <v>285</v>
+      </c>
+      <c r="C47" s="11">
+        <v>282</v>
+      </c>
+      <c r="D47" s="11">
+        <v>32</v>
+      </c>
+      <c r="E47" s="11">
+        <v>28</v>
+      </c>
+      <c r="F47" s="11">
+        <v>4</v>
+      </c>
+      <c r="G47" s="11">
+        <v>12</v>
+      </c>
+      <c r="H47" s="11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1863,13 +1889,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J101" activeCellId="2" sqref="F101 I101 J101"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4897,8 +4923,40 @@
         <v>229</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B102" s="4" t="s">
+    <row r="102" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="13">
+        <v>43975</v>
+      </c>
+      <c r="B102" s="12">
+        <v>0</v>
+      </c>
+      <c r="C102" s="12">
+        <v>3021</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12">
+        <v>285</v>
+      </c>
+      <c r="F102" s="12">
+        <v>27</v>
+      </c>
+      <c r="G102" s="12">
+        <v>24</v>
+      </c>
+      <c r="H102" s="12">
+        <v>3</v>
+      </c>
+      <c r="I102" s="12">
+        <v>12</v>
+      </c>
+      <c r="J102" s="12">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B103" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4914,13 +4972,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6873,8 +6931,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B77" s="4" t="s">
+    <row r="77" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="13">
+        <v>43975</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2">
+        <v>5</v>
+      </c>
+      <c r="E77" s="12">
+        <v>4</v>
+      </c>
+      <c r="F77" s="12">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B78" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -642,7 +642,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1856,10 +1856,10 @@
         <v>282</v>
       </c>
       <c r="D47" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E47" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F47" s="11">
         <v>4</v>
@@ -1868,7 +1868,7 @@
         <v>12</v>
       </c>
       <c r="H47" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -4978,7 +4978,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6942,10 +6942,10 @@
         <v>14</v>
       </c>
       <c r="D77" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" s="12">
         <v>1</v>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\209059\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>検査実施人数（累計）　　</t>
     <phoneticPr fontId="1"/>
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,7 +683,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2">
         <v>62</v>
@@ -891,7 +891,7 @@
         <v>166</v>
       </c>
       <c r="C10" s="4">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="D10" s="3">
         <v>127</v>
@@ -917,7 +917,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="4">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2">
         <v>126</v>
@@ -943,7 +943,7 @@
         <v>184</v>
       </c>
       <c r="C12" s="4">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D12" s="2">
         <v>129</v>
@@ -969,7 +969,7 @@
         <v>187</v>
       </c>
       <c r="C13" s="4">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D13" s="1">
         <v>134</v>
@@ -995,7 +995,7 @@
         <v>202</v>
       </c>
       <c r="C14" s="4">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D14" s="3">
         <v>136</v>
@@ -1021,7 +1021,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="4">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D15" s="3">
         <v>139</v>
@@ -1047,7 +1047,7 @@
         <v>225</v>
       </c>
       <c r="C16" s="4">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D16" s="3">
         <v>141</v>
@@ -1073,7 +1073,7 @@
         <v>242</v>
       </c>
       <c r="C17" s="4">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D17" s="3">
         <v>144</v>
@@ -1226,7 +1226,7 @@
         <v>43951</v>
       </c>
       <c r="B23" s="4">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" s="4">
         <v>258</v>
@@ -1252,7 +1252,7 @@
         <v>43952</v>
       </c>
       <c r="B24" s="4">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C24" s="4">
         <v>260</v>
@@ -1284,10 +1284,10 @@
         <v>263</v>
       </c>
       <c r="D25" s="3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="3">
         <v>12</v>
@@ -1296,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="3">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1304,16 +1304,16 @@
         <v>43954</v>
       </c>
       <c r="B26" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="3">
         <v>266</v>
       </c>
       <c r="D26" s="3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="3">
         <v>11</v>
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1336,10 +1336,10 @@
         <v>267</v>
       </c>
       <c r="D27" s="3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="3">
         <v>10</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1356,16 +1356,16 @@
         <v>43956</v>
       </c>
       <c r="B28" s="4">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="3">
         <v>269</v>
       </c>
       <c r="D28" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="3">
         <v>10</v>
@@ -1374,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="3">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1388,10 +1388,10 @@
         <v>270</v>
       </c>
       <c r="D29" s="3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="3">
         <v>10</v>
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="3">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1408,16 +1408,16 @@
         <v>43958</v>
       </c>
       <c r="B30" s="4">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C30" s="3">
         <v>271</v>
       </c>
       <c r="D30" s="3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="3">
         <v>10</v>
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="3">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1440,10 +1440,10 @@
         <v>275</v>
       </c>
       <c r="D31" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="3">
         <v>10</v>
@@ -1452,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="H31" s="3">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1466,10 +1466,10 @@
         <v>275</v>
       </c>
       <c r="D32" s="3">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" s="3">
         <v>10</v>
@@ -1478,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="H32" s="3">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1492,10 +1492,10 @@
         <v>276</v>
       </c>
       <c r="D33" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" s="3">
         <v>11</v>
@@ -1504,7 +1504,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="3">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1518,10 +1518,10 @@
         <v>276</v>
       </c>
       <c r="D34" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E34" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F34" s="3">
         <v>11</v>
@@ -1530,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="3">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1544,10 +1544,10 @@
         <v>277</v>
       </c>
       <c r="D35" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E35" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35" s="3">
         <v>11</v>
@@ -1556,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="H35" s="3">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1570,10 +1570,10 @@
         <v>279</v>
       </c>
       <c r="D36" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F36" s="3">
         <v>10</v>
@@ -1582,7 +1582,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="3">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1596,10 +1596,10 @@
         <v>279</v>
       </c>
       <c r="D37" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" s="3">
         <v>10</v>
@@ -1608,7 +1608,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="3">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1622,10 +1622,10 @@
         <v>280</v>
       </c>
       <c r="D38" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38" s="3">
         <v>10</v>
@@ -1634,7 +1634,7 @@
         <v>11</v>
       </c>
       <c r="H38" s="3">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1648,10 +1648,10 @@
         <v>280</v>
       </c>
       <c r="D39" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" s="3">
         <v>7</v>
@@ -1660,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="3">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1674,10 +1674,10 @@
         <v>281</v>
       </c>
       <c r="D40" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F40" s="3">
         <v>7</v>
@@ -1686,7 +1686,7 @@
         <v>11</v>
       </c>
       <c r="H40" s="3">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -1700,10 +1700,10 @@
         <v>281</v>
       </c>
       <c r="D41" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E41" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F41" s="3">
         <v>7</v>
@@ -1712,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="H41" s="3">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -1726,10 +1726,10 @@
         <v>281</v>
       </c>
       <c r="D42" s="3">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E42" s="3">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F42" s="3">
         <v>5</v>
@@ -1738,7 +1738,7 @@
         <v>11</v>
       </c>
       <c r="H42" s="3">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -1749,13 +1749,13 @@
         <v>283</v>
       </c>
       <c r="C43" s="3">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D43" s="3">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E43" s="3">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F43" s="3">
         <v>5</v>
@@ -1764,7 +1764,7 @@
         <v>11</v>
       </c>
       <c r="H43" s="3">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -1778,10 +1778,10 @@
         <v>282</v>
       </c>
       <c r="D44" s="11">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E44" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F44" s="11">
         <v>5</v>
@@ -1790,7 +1790,7 @@
         <v>11</v>
       </c>
       <c r="H44" s="11">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -1804,10 +1804,10 @@
         <v>282</v>
       </c>
       <c r="D45" s="11">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E45" s="11">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F45" s="11">
         <v>4</v>
@@ -1816,12 +1816,12 @@
         <v>12</v>
       </c>
       <c r="H45" s="11">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B46" s="12">
         <v>285</v>
@@ -1830,10 +1830,10 @@
         <v>282</v>
       </c>
       <c r="D46" s="11">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E46" s="11">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F46" s="11">
         <v>4</v>
@@ -1842,12 +1842,12 @@
         <v>12</v>
       </c>
       <c r="H46" s="11">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B47" s="12">
         <v>285</v>
@@ -1856,10 +1856,10 @@
         <v>282</v>
       </c>
       <c r="D47" s="11">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E47" s="11">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F47" s="11">
         <v>4</v>
@@ -1868,12 +1868,59 @@
         <v>12</v>
       </c>
       <c r="H47" s="11">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="4" t="s">
-        <v>16</v>
+      <c r="A48" s="13">
+        <v>43975</v>
+      </c>
+      <c r="B48" s="12">
+        <v>285</v>
+      </c>
+      <c r="C48" s="11">
+        <v>282</v>
+      </c>
+      <c r="D48" s="11">
+        <v>21</v>
+      </c>
+      <c r="E48" s="11">
+        <v>17</v>
+      </c>
+      <c r="F48" s="11">
+        <v>4</v>
+      </c>
+      <c r="G48" s="11">
+        <v>12</v>
+      </c>
+      <c r="H48" s="11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="13">
+        <v>43976</v>
+      </c>
+      <c r="B49" s="4">
+        <v>285</v>
+      </c>
+      <c r="C49" s="3">
+        <v>282</v>
+      </c>
+      <c r="D49" s="3">
+        <v>20</v>
+      </c>
+      <c r="E49" s="3">
+        <v>17</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
+        <v>12</v>
+      </c>
+      <c r="H49" s="3">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1889,13 +1936,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1944,7 +1991,6 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <f>B2</f>
         <v>2</v>
       </c>
       <c r="D2" s="2">
@@ -3343,7 +3389,6 @@
         <v>10</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" ref="C53:C64" si="0">C52+B53</f>
         <v>517</v>
       </c>
       <c r="D53" s="8">
@@ -3376,7 +3421,6 @@
         <v>25</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="0"/>
         <v>542</v>
       </c>
       <c r="D54" s="8">
@@ -3409,7 +3453,6 @@
         <v>40</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="0"/>
         <v>582</v>
       </c>
       <c r="D55" s="8">
@@ -3442,7 +3485,6 @@
         <v>43</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="0"/>
         <v>625</v>
       </c>
       <c r="D56" s="8">
@@ -3475,7 +3517,6 @@
         <v>63</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="0"/>
         <v>688</v>
       </c>
       <c r="D57" s="8">
@@ -3508,7 +3549,6 @@
         <v>30</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="0"/>
         <v>718</v>
       </c>
       <c r="D58" s="4">
@@ -3541,7 +3581,6 @@
         <v>25</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="0"/>
         <v>743</v>
       </c>
       <c r="D59" s="4">
@@ -3574,7 +3613,6 @@
         <v>47</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="0"/>
         <v>790</v>
       </c>
       <c r="D60" s="4">
@@ -3607,7 +3645,6 @@
         <v>90</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="0"/>
         <v>880</v>
       </c>
       <c r="D61" s="4">
@@ -3640,7 +3677,6 @@
         <v>69</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="0"/>
         <v>949</v>
       </c>
       <c r="D62" s="4">
@@ -3673,7 +3709,6 @@
         <v>56</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="D63" s="4">
@@ -3706,7 +3741,6 @@
         <v>82</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="0"/>
         <v>1087</v>
       </c>
       <c r="D64" s="4">
@@ -3740,7 +3774,6 @@
         <v>52</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" ref="C65:C71" si="1">C64+B65</f>
         <v>1139</v>
       </c>
       <c r="D65" s="3">
@@ -3773,7 +3806,6 @@
         <v>29</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="1"/>
         <v>1168</v>
       </c>
       <c r="D66" s="3">
@@ -3806,7 +3838,6 @@
         <v>43</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="1"/>
         <v>1211</v>
       </c>
       <c r="D67" s="3">
@@ -3839,7 +3870,6 @@
         <v>65</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="1"/>
         <v>1276</v>
       </c>
       <c r="D68" s="3">
@@ -3872,7 +3902,6 @@
         <v>90</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="1"/>
         <v>1366</v>
       </c>
       <c r="D69" s="3">
@@ -3905,7 +3934,6 @@
         <v>68</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="1"/>
         <v>1434</v>
       </c>
       <c r="D70" s="3">
@@ -3938,7 +3966,6 @@
         <v>113</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="1"/>
         <v>1547</v>
       </c>
       <c r="D71" s="3">
@@ -4236,10 +4263,10 @@
         <v>263</v>
       </c>
       <c r="F80" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G80" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H80" s="2">
         <v>11</v>
@@ -4248,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="J80" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -4268,10 +4295,10 @@
         <v>266</v>
       </c>
       <c r="F81" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G81" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H81" s="2">
         <v>10</v>
@@ -4280,7 +4307,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -4300,10 +4327,10 @@
         <v>268</v>
       </c>
       <c r="F82" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G82" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H82" s="2">
         <v>9</v>
@@ -4312,7 +4339,7 @@
         <v>6</v>
       </c>
       <c r="J82" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
@@ -4332,10 +4359,10 @@
         <v>270</v>
       </c>
       <c r="F83" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G83" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H83" s="2">
         <v>9</v>
@@ -4344,7 +4371,7 @@
         <v>7</v>
       </c>
       <c r="J83" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
@@ -4364,10 +4391,10 @@
         <v>272</v>
       </c>
       <c r="F84" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G84" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H84" s="4">
         <v>9</v>
@@ -4376,7 +4403,7 @@
         <v>7</v>
       </c>
       <c r="J84" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
@@ -4396,10 +4423,10 @@
         <v>273</v>
       </c>
       <c r="F85" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G85" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H85" s="4">
         <v>9</v>
@@ -4408,7 +4435,7 @@
         <v>8</v>
       </c>
       <c r="J85" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
@@ -4428,10 +4455,10 @@
         <v>276</v>
       </c>
       <c r="F86" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G86" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H86" s="4">
         <v>9</v>
@@ -4440,7 +4467,7 @@
         <v>8</v>
       </c>
       <c r="J86" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
@@ -4460,10 +4487,10 @@
         <v>277</v>
       </c>
       <c r="F87" s="4">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G87" s="4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H87" s="4">
         <v>9</v>
@@ -4472,7 +4499,7 @@
         <v>8</v>
       </c>
       <c r="J87" s="4">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
@@ -4492,10 +4519,10 @@
         <v>278</v>
       </c>
       <c r="F88" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G88" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H88" s="4">
         <v>10</v>
@@ -4504,7 +4531,7 @@
         <v>8</v>
       </c>
       <c r="J88" s="4">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
@@ -4517,17 +4544,14 @@
       <c r="C89" s="4">
         <v>2659</v>
       </c>
-      <c r="D89" s="4">
-        <v>0</v>
-      </c>
       <c r="E89" s="4">
         <v>278</v>
       </c>
       <c r="F89" s="4">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G89" s="4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H89" s="4">
         <v>10</v>
@@ -4536,7 +4560,7 @@
         <v>8</v>
       </c>
       <c r="J89" s="4">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -4556,10 +4580,10 @@
         <v>279</v>
       </c>
       <c r="F90" s="4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G90" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H90" s="4">
         <v>10</v>
@@ -4568,7 +4592,7 @@
         <v>9</v>
       </c>
       <c r="J90" s="4">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
@@ -4588,10 +4612,10 @@
         <v>281</v>
       </c>
       <c r="F91" s="4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G91" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H91" s="4">
         <v>9</v>
@@ -4600,7 +4624,7 @@
         <v>11</v>
       </c>
       <c r="J91" s="4">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -4613,17 +4637,14 @@
       <c r="C92" s="4">
         <v>2771</v>
       </c>
-      <c r="D92" s="4">
-        <v>0</v>
-      </c>
       <c r="E92" s="4">
         <v>281</v>
       </c>
       <c r="F92" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G92" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H92" s="4">
         <v>9</v>
@@ -4632,7 +4653,7 @@
         <v>11</v>
       </c>
       <c r="J92" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
@@ -4652,10 +4673,10 @@
         <v>282</v>
       </c>
       <c r="F93" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G93" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H93" s="4">
         <v>9</v>
@@ -4664,7 +4685,7 @@
         <v>11</v>
       </c>
       <c r="J93" s="4">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -4684,10 +4705,10 @@
         <v>283</v>
       </c>
       <c r="F94" s="4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G94" s="4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H94" s="4">
         <v>6</v>
@@ -4696,7 +4717,7 @@
         <v>11</v>
       </c>
       <c r="J94" s="4">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -4709,17 +4730,14 @@
       <c r="C95" s="4">
         <v>2865</v>
       </c>
-      <c r="D95" s="4">
-        <v>0</v>
-      </c>
       <c r="E95" s="4">
         <v>283</v>
       </c>
       <c r="F95" s="4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G95" s="4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H95" s="4">
         <v>6</v>
@@ -4728,7 +4746,7 @@
         <v>11</v>
       </c>
       <c r="J95" s="4">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
@@ -4741,17 +4759,14 @@
       <c r="C96" s="4">
         <v>2896</v>
       </c>
-      <c r="D96" s="4">
-        <v>0</v>
-      </c>
       <c r="E96" s="4">
         <v>283</v>
       </c>
       <c r="F96" s="4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G96" s="4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H96" s="4">
         <v>6</v>
@@ -4760,7 +4775,7 @@
         <v>11</v>
       </c>
       <c r="J96" s="4">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -4773,17 +4788,14 @@
       <c r="C97" s="4">
         <v>2922</v>
       </c>
-      <c r="D97" s="4">
-        <v>0</v>
-      </c>
       <c r="E97" s="4">
         <v>283</v>
       </c>
       <c r="F97" s="4">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G97" s="4">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H97" s="4">
         <v>4</v>
@@ -4792,7 +4804,7 @@
         <v>11</v>
       </c>
       <c r="J97" s="4">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -4812,10 +4824,10 @@
         <v>285</v>
       </c>
       <c r="F98" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G98" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H98" s="12">
         <v>4</v>
@@ -4824,7 +4836,7 @@
         <v>11</v>
       </c>
       <c r="J98" s="12">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -4837,17 +4849,14 @@
       <c r="C99" s="12">
         <v>2987</v>
       </c>
-      <c r="D99" s="12">
-        <v>0</v>
-      </c>
       <c r="E99" s="12">
         <v>285</v>
       </c>
       <c r="F99" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G99" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H99" s="12">
         <v>4</v>
@@ -4856,7 +4865,7 @@
         <v>11</v>
       </c>
       <c r="J99" s="12">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -4869,17 +4878,14 @@
       <c r="C100" s="12">
         <v>3010</v>
       </c>
-      <c r="D100" s="12">
-        <v>0</v>
-      </c>
       <c r="E100" s="12">
         <v>285</v>
       </c>
       <c r="F100" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G100" s="12">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H100" s="12">
         <v>3</v>
@@ -4888,7 +4894,7 @@
         <v>12</v>
       </c>
       <c r="J100" s="12">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -4901,17 +4907,14 @@
       <c r="C101" s="12">
         <v>3021</v>
       </c>
-      <c r="D101" s="12">
-        <v>0</v>
-      </c>
       <c r="E101" s="12">
         <v>285</v>
       </c>
       <c r="F101" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G101" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H101" s="12">
         <v>3</v>
@@ -4920,7 +4923,7 @@
         <v>12</v>
       </c>
       <c r="J101" s="12">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -4928,22 +4931,19 @@
         <v>43975</v>
       </c>
       <c r="B102" s="12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C102" s="12">
-        <v>3021</v>
-      </c>
-      <c r="D102" s="12">
-        <v>0</v>
+        <v>3035</v>
       </c>
       <c r="E102" s="12">
         <v>285</v>
       </c>
       <c r="F102" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G102" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H102" s="12">
         <v>3</v>
@@ -4952,11 +4952,40 @@
         <v>12</v>
       </c>
       <c r="J102" s="12">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B103" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="13">
+        <v>43976</v>
+      </c>
+      <c r="B103" s="12">
+        <v>20</v>
+      </c>
+      <c r="C103" s="12">
+        <v>3055</v>
+      </c>
+      <c r="E103" s="12">
+        <v>285</v>
+      </c>
+      <c r="F103" s="12">
+        <v>17</v>
+      </c>
+      <c r="G103" s="12">
+        <v>15</v>
+      </c>
+      <c r="H103" s="12">
+        <v>2</v>
+      </c>
+      <c r="I103" s="12">
+        <v>12</v>
+      </c>
+      <c r="J103" s="12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B104" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4972,13 +5001,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6035,10 +6064,10 @@
         <v>43941</v>
       </c>
       <c r="B43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2">
         <v>7</v>
@@ -6065,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2">
         <v>7</v>
@@ -6092,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2">
         <v>7</v>
@@ -6116,10 +6145,10 @@
         <v>43944</v>
       </c>
       <c r="B46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2">
         <v>7</v>
@@ -6146,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2">
         <v>6</v>
@@ -6173,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2">
         <v>6</v>
@@ -6200,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2">
         <v>6</v>
@@ -6227,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2">
         <v>6</v>
@@ -6254,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2">
         <v>5</v>
@@ -6281,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
@@ -6308,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -6335,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2">
         <v>5</v>
@@ -6362,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2">
         <v>5</v>
@@ -6389,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>
@@ -6416,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
@@ -6443,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2">
         <v>5</v>
@@ -6470,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2">
         <v>5</v>
@@ -6497,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
@@ -6957,8 +6986,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B78" s="4" t="s">
+    <row r="78" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="13">
+        <v>43976</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>14</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3</v>
+      </c>
+      <c r="E78" s="12">
+        <v>2</v>
+      </c>
+      <c r="F78" s="12">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B79" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\209059\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\08_健康局\01_政策課\新型コロナ対応\06.広報支援チーム\03.広報課ホームページ関係資料\HP掲載用Excelデータ（5月25日～）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1920,6 +1920,32 @@
         <v>12</v>
       </c>
       <c r="H49" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="13">
+        <v>43977</v>
+      </c>
+      <c r="B50" s="12">
+        <v>285</v>
+      </c>
+      <c r="C50" s="11">
+        <v>282</v>
+      </c>
+      <c r="D50" s="11">
+        <v>20</v>
+      </c>
+      <c r="E50" s="11">
+        <v>17</v>
+      </c>
+      <c r="F50" s="11">
+        <v>3</v>
+      </c>
+      <c r="G50" s="11">
+        <v>12</v>
+      </c>
+      <c r="H50" s="11">
         <v>250</v>
       </c>
     </row>
@@ -1936,13 +1962,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4984,8 +5010,37 @@
         <v>239</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B104" s="4" t="s">
+    <row r="104" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="13">
+        <v>43977</v>
+      </c>
+      <c r="B104" s="12">
+        <v>25</v>
+      </c>
+      <c r="C104" s="12">
+        <v>3080</v>
+      </c>
+      <c r="E104" s="12">
+        <v>285</v>
+      </c>
+      <c r="F104" s="12">
+        <v>17</v>
+      </c>
+      <c r="G104" s="12">
+        <v>15</v>
+      </c>
+      <c r="H104" s="12">
+        <v>2</v>
+      </c>
+      <c r="I104" s="12">
+        <v>12</v>
+      </c>
+      <c r="J104" s="12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B105" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5001,13 +5056,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7012,8 +7067,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B79" s="4" t="s">
+    <row r="79" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="13">
+        <v>43977</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12">
+        <v>2</v>
+      </c>
+      <c r="F79" s="12">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B80" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B46" s="12">
         <v>285</v>
@@ -1830,10 +1830,10 @@
         <v>282</v>
       </c>
       <c r="D46" s="11">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E46" s="11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F46" s="11">
         <v>4</v>
@@ -1842,12 +1842,12 @@
         <v>12</v>
       </c>
       <c r="H46" s="11">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B47" s="12">
         <v>285</v>
@@ -1856,10 +1856,10 @@
         <v>282</v>
       </c>
       <c r="D47" s="11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" s="11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F47" s="11">
         <v>4</v>
@@ -1868,84 +1868,58 @@
         <v>12</v>
       </c>
       <c r="H47" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
-        <v>43975</v>
-      </c>
-      <c r="B48" s="12">
+        <v>43976</v>
+      </c>
+      <c r="B48" s="4">
         <v>285</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="3">
         <v>282</v>
       </c>
-      <c r="D48" s="11">
-        <v>21</v>
-      </c>
-      <c r="E48" s="11">
+      <c r="D48" s="3">
+        <v>20</v>
+      </c>
+      <c r="E48" s="3">
         <v>17</v>
       </c>
-      <c r="F48" s="11">
-        <v>4</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3">
         <v>12</v>
       </c>
-      <c r="H48" s="11">
-        <v>249</v>
+      <c r="H48" s="3">
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
-        <v>43976</v>
-      </c>
-      <c r="B49" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B49" s="12">
         <v>285</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="11">
         <v>282</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="11">
         <v>20</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="11">
         <v>17</v>
       </c>
-      <c r="F49" s="3">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="F49" s="11">
+        <v>3</v>
+      </c>
+      <c r="G49" s="11">
         <v>12</v>
       </c>
-      <c r="H49" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="13">
-        <v>43977</v>
-      </c>
-      <c r="B50" s="12">
-        <v>285</v>
-      </c>
-      <c r="C50" s="11">
-        <v>282</v>
-      </c>
-      <c r="D50" s="11">
-        <v>20</v>
-      </c>
-      <c r="E50" s="11">
-        <v>17</v>
-      </c>
-      <c r="F50" s="11">
-        <v>3</v>
-      </c>
-      <c r="G50" s="11">
-        <v>12</v>
-      </c>
-      <c r="H50" s="11">
+      <c r="H49" s="11">
         <v>250</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1921,6 +1921,32 @@
       </c>
       <c r="H49" s="11">
         <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="13">
+        <v>43978</v>
+      </c>
+      <c r="B50" s="3">
+        <v>285</v>
+      </c>
+      <c r="C50" s="3">
+        <v>282</v>
+      </c>
+      <c r="D50" s="3">
+        <v>18</v>
+      </c>
+      <c r="E50" s="3">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3</v>
+      </c>
+      <c r="G50" s="3">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1936,13 +1962,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E108" sqref="E108"/>
+      <selection pane="bottomRight" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5013,8 +5039,37 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B105" s="4" t="s">
+    <row r="105" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="13">
+        <v>43978</v>
+      </c>
+      <c r="B105" s="12">
+        <v>26</v>
+      </c>
+      <c r="C105" s="12">
+        <v>3106</v>
+      </c>
+      <c r="E105" s="12">
+        <v>285</v>
+      </c>
+      <c r="F105" s="12">
+        <v>15</v>
+      </c>
+      <c r="G105" s="12">
+        <v>13</v>
+      </c>
+      <c r="H105" s="12">
+        <v>2</v>
+      </c>
+      <c r="I105" s="12">
+        <v>12</v>
+      </c>
+      <c r="J105" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B106" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5030,13 +5085,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7067,8 +7122,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B80" s="4" t="s">
+    <row r="80" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="13">
+        <v>43978</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>14</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3</v>
+      </c>
+      <c r="E80" s="12">
+        <v>2</v>
+      </c>
+      <c r="F80" s="12">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\209059\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\08_健康局\01_政策課\新型コロナ対応\06.広報支援チーム\03.広報課ホームページ関係資料\HP掲載用Excelデータ（5月25日～）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B46" s="12">
         <v>285</v>
@@ -1830,10 +1830,10 @@
         <v>282</v>
       </c>
       <c r="D46" s="11">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E46" s="11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F46" s="11">
         <v>4</v>
@@ -1842,12 +1842,12 @@
         <v>12</v>
       </c>
       <c r="H46" s="11">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B47" s="12">
         <v>285</v>
@@ -1856,10 +1856,10 @@
         <v>282</v>
       </c>
       <c r="D47" s="11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" s="11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F47" s="11">
         <v>4</v>
@@ -1868,59 +1868,85 @@
         <v>12</v>
       </c>
       <c r="H47" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
-        <v>43975</v>
-      </c>
-      <c r="B48" s="12">
+        <v>43976</v>
+      </c>
+      <c r="B48" s="4">
         <v>285</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="3">
         <v>282</v>
       </c>
-      <c r="D48" s="11">
-        <v>21</v>
-      </c>
-      <c r="E48" s="11">
+      <c r="D48" s="3">
+        <v>20</v>
+      </c>
+      <c r="E48" s="3">
         <v>17</v>
       </c>
-      <c r="F48" s="11">
-        <v>4</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3">
         <v>12</v>
       </c>
-      <c r="H48" s="11">
-        <v>249</v>
+      <c r="H48" s="3">
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
-        <v>43976</v>
-      </c>
-      <c r="B49" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B49" s="12">
         <v>285</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="11">
         <v>282</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="11">
         <v>20</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="11">
         <v>17</v>
       </c>
-      <c r="F49" s="3">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="F49" s="11">
+        <v>3</v>
+      </c>
+      <c r="G49" s="11">
         <v>12</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="11">
         <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="13">
+        <v>43978</v>
+      </c>
+      <c r="B50" s="3">
+        <v>285</v>
+      </c>
+      <c r="C50" s="3">
+        <v>282</v>
+      </c>
+      <c r="D50" s="3">
+        <v>18</v>
+      </c>
+      <c r="E50" s="3">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3</v>
+      </c>
+      <c r="G50" s="3">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1936,13 +1962,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4984,8 +5010,66 @@
         <v>239</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B104" s="4" t="s">
+    <row r="104" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="13">
+        <v>43977</v>
+      </c>
+      <c r="B104" s="12">
+        <v>25</v>
+      </c>
+      <c r="C104" s="12">
+        <v>3080</v>
+      </c>
+      <c r="E104" s="12">
+        <v>285</v>
+      </c>
+      <c r="F104" s="12">
+        <v>17</v>
+      </c>
+      <c r="G104" s="12">
+        <v>15</v>
+      </c>
+      <c r="H104" s="12">
+        <v>2</v>
+      </c>
+      <c r="I104" s="12">
+        <v>12</v>
+      </c>
+      <c r="J104" s="12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="13">
+        <v>43978</v>
+      </c>
+      <c r="B105" s="12">
+        <v>26</v>
+      </c>
+      <c r="C105" s="12">
+        <v>3106</v>
+      </c>
+      <c r="E105" s="12">
+        <v>285</v>
+      </c>
+      <c r="F105" s="12">
+        <v>15</v>
+      </c>
+      <c r="G105" s="12">
+        <v>13</v>
+      </c>
+      <c r="H105" s="12">
+        <v>2</v>
+      </c>
+      <c r="I105" s="12">
+        <v>12</v>
+      </c>
+      <c r="J105" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B106" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5001,13 +5085,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7012,8 +7096,60 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B79" s="4" t="s">
+    <row r="79" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="13">
+        <v>43977</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3</v>
+      </c>
+      <c r="E79" s="12">
+        <v>2</v>
+      </c>
+      <c r="F79" s="12">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="13">
+        <v>43978</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>14</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3</v>
+      </c>
+      <c r="E80" s="12">
+        <v>2</v>
+      </c>
+      <c r="F80" s="12">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1947,6 +1947,32 @@
       </c>
       <c r="H50" s="3">
         <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="13">
+        <v>43979</v>
+      </c>
+      <c r="B51" s="11">
+        <v>285</v>
+      </c>
+      <c r="C51" s="11">
+        <v>282</v>
+      </c>
+      <c r="D51" s="11">
+        <v>15</v>
+      </c>
+      <c r="E51" s="11">
+        <v>12</v>
+      </c>
+      <c r="F51" s="11">
+        <v>3</v>
+      </c>
+      <c r="G51" s="11">
+        <v>12</v>
+      </c>
+      <c r="H51" s="11">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1962,13 +1988,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G108" sqref="G108"/>
+      <selection pane="bottomRight" activeCell="B106" sqref="B106:J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5068,8 +5094,37 @@
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B106" s="4" t="s">
+    <row r="106" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="13">
+        <v>43979</v>
+      </c>
+      <c r="B106" s="12">
+        <v>15</v>
+      </c>
+      <c r="C106" s="12">
+        <v>3121</v>
+      </c>
+      <c r="E106" s="12">
+        <v>285</v>
+      </c>
+      <c r="F106" s="12">
+        <v>12</v>
+      </c>
+      <c r="G106" s="12">
+        <v>10</v>
+      </c>
+      <c r="H106" s="12">
+        <v>2</v>
+      </c>
+      <c r="I106" s="12">
+        <v>12</v>
+      </c>
+      <c r="J106" s="12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B107" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5085,13 +5140,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomRight" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7148,8 +7203,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="4" t="s">
+    <row r="81" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="13">
+        <v>43979</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>14</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3</v>
+      </c>
+      <c r="E81" s="12">
+        <v>2</v>
+      </c>
+      <c r="F81" s="12">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B51" sqref="B51:H51"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1972,6 +1972,32 @@
         <v>12</v>
       </c>
       <c r="H51" s="11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="13">
+        <v>43980</v>
+      </c>
+      <c r="B52" s="11">
+        <v>285</v>
+      </c>
+      <c r="C52" s="11">
+        <v>282</v>
+      </c>
+      <c r="D52" s="11">
+        <v>15</v>
+      </c>
+      <c r="E52" s="11">
+        <v>12</v>
+      </c>
+      <c r="F52" s="11">
+        <v>3</v>
+      </c>
+      <c r="G52" s="11">
+        <v>12</v>
+      </c>
+      <c r="H52" s="11">
         <v>255</v>
       </c>
     </row>
@@ -1988,13 +2014,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B106" sqref="B106:J106"/>
+      <selection pane="bottomRight" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5123,8 +5149,34 @@
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B107" s="4" t="s">
+    <row r="107" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="13">
+        <v>43980</v>
+      </c>
+      <c r="C107" s="12">
+        <v>3121</v>
+      </c>
+      <c r="E107" s="12">
+        <v>285</v>
+      </c>
+      <c r="F107" s="12">
+        <v>12</v>
+      </c>
+      <c r="G107" s="12">
+        <v>10</v>
+      </c>
+      <c r="H107" s="12">
+        <v>2</v>
+      </c>
+      <c r="I107" s="12">
+        <v>12</v>
+      </c>
+      <c r="J107" s="12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B108" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5140,13 +5192,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7229,8 +7281,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B82" s="4" t="s">
+    <row r="82" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="13">
+        <v>43980</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>14</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3</v>
+      </c>
+      <c r="E82" s="12">
+        <v>2</v>
+      </c>
+      <c r="F82" s="12">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B83" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/static/data/kansensya_pcr.xlsx
+++ b/static/data/kansensya_pcr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\08_健康局\01_政策課\新型コロナ対応\06.広報支援チーム\03.広報課ホームページ関係資料\HP掲載用Excelデータ（5月25日～）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\00_全庁共通\00_データ交換用\202006\コロナサイトオープンデータ\オープンデータ（掲載用）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -636,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1998,6 +1998,32 @@
         <v>12</v>
       </c>
       <c r="H52" s="11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="13">
+        <v>43981</v>
+      </c>
+      <c r="B53" s="11">
+        <v>285</v>
+      </c>
+      <c r="C53" s="11">
+        <v>282</v>
+      </c>
+      <c r="D53" s="11">
+        <v>15</v>
+      </c>
+      <c r="E53" s="11">
+        <v>12</v>
+      </c>
+      <c r="F53" s="11">
+        <v>3</v>
+      </c>
+      <c r="G53" s="11">
+        <v>12</v>
+      </c>
+      <c r="H53" s="11">
         <v>255</v>
       </c>
     </row>
@@ -2014,13 +2040,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A107" sqref="A107"/>
+      <selection pane="bottomRight" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5153,8 +5179,11 @@
       <c r="A107" s="13">
         <v>43980</v>
       </c>
+      <c r="B107" s="12">
+        <v>16</v>
+      </c>
       <c r="C107" s="12">
-        <v>3121</v>
+        <v>3137</v>
       </c>
       <c r="E107" s="12">
         <v>285</v>
@@ -5175,8 +5204,37 @@
         <v>244</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B108" s="4" t="s">
+    <row r="108" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="13">
+        <v>43981</v>
+      </c>
+      <c r="B108" s="12">
+        <v>13</v>
+      </c>
+      <c r="C108" s="12">
+        <v>3150</v>
+      </c>
+      <c r="E108" s="12">
+        <v>285</v>
+      </c>
+      <c r="F108" s="12">
+        <v>12</v>
+      </c>
+      <c r="G108" s="12">
+        <v>10</v>
+      </c>
+      <c r="H108" s="12">
+        <v>2</v>
+      </c>
+      <c r="I108" s="12">
+        <v>12</v>
+      </c>
+      <c r="J108" s="12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B109" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5192,13 +5250,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7307,8 +7365,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B83" s="4" t="s">
+    <row r="83" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="13">
+        <v>43981</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>14</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3</v>
+      </c>
+      <c r="E83" s="12">
+        <v>2</v>
+      </c>
+      <c r="F83" s="12">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B84" s="4" t="s">
         <v>6</v>
       </c>
     </row>
